--- a/packages/storybook/stories/data/full.xlsx
+++ b/packages/storybook/stories/data/full.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="148">
   <si>
     <t>id</t>
   </si>
@@ -398,12 +398,6 @@
     <t>balance</t>
   </si>
   <si>
-    <t>a3256adf0da24e5b01bf3d6c47136e9c6</t>
-  </si>
-  <si>
-    <t>LVZJ06u4kv0vX/SOigcYDOZW1EJCzIMZDbi7FxiwwGYws+FF/ffH7WptlHlSISmOUpnnv//9M/38ov746X9+/fvnv8Zi+j23aVP8/Pqxi+lZV9+fP37w0M2fAznMtXgcRvtP6F9Z1xxYlXXtAebplP6qmhQX5KfFf65VPpV/ceyfZVHhcvptPdKx4Ng/qhu8eitlKLgDx7D9sJRCfFjSbxcCESTHLPZprBb/hyg5DMIjaCqOSH5L6B7YR9c9SQ4LoObRm15UKXTb+/n+FGZd9ZbHIFo+7ipPEoG3JpGphyhzdck1RPMCJPacPYv8esre3QjkjwVs3aqgxGpmJoqRm7A5L/TfhNhZg+aXYLGL1yVP7cE50crO3CVa787th0+InqajpWemqPDqemqn90zl56VoHj3PFMPAf7tndBYKJ33aFt1rxECRL/7ELEM/SOP+mJ+fWvdbP1xk+HLUNogfTTwsqU+oTX6/YzSXnJw9OIqoUb6dNm0HopQ93rTp3CLyVrKZQ5CRLrdL40qaZXFb3b4hKxtcOIx9KMgTn60gNGg6YMZNtIAULQJ5EKxtjDY34s68BlKcZgqb8RusJ6grIPWoR3TSsmsEYgwqMpXC9T0XsuAEXiTt92/4WN8gnX0EqYNlAJyXyAuklT+CavXzqdsAuDlFEVqJB3vau79PSAPgacBH4aKGMLJVndp75G0uKku6nxmEYWhgUYIPKeZ0vuennqcr6tgLbwDuTqkpLhTwjHR7x/2QNUKZ64MkHmlQMdZzNThptJPHKzCYU6vTHW3uaXRFK+N2ILYuCVyunF5rt8yp+eccoe87aVEHgeGTqcJUBQL6jErWxtsnqoddqnDuRk8diKKeyaoGs06L62VSYq5jCnjJQv0mhwy9Uw+LBhZGMH6JCwQgrUdzJYn3F6eg1XegYEC1jbKCSmANvUM8FG85dXOCL9m7mNfSLWRV2e8um3NLg02nQObmlFZKp2qJnOFNCc9XgGtwTn0Z6GErmnuTTnoAPrCMvde4MqW4yXA18+SCtW5DJn5fevh2ue0y12svjzQ09hMowtAmH+9oXiGIvpYxO5cJAWfi4vPSMf0dtk7DsstijmEPrDsbwE5IfB6lHdrHfqTqkgfSFeXTDcvYGhTHFFF023zcI7q5YP07YnzW1C4bR0RjRaspp7izIVhtF1wz6QbG9v7aOMZRQI4BjBqTgtZonwfwqIQQyiolWFbjXtjMO7u66zTwVFGzaUlG+90oZ1XHM4GAVrRJTSNObCTv3Q/rVdltX/I9NY1JF7F7m6GLB2bJBEdifNEOMr7S6KECy9t6yZqsDy2RWZp8jWfKagHw3OurewFNhcIg9MczcmxQy+1JwYFkSh+rul2BCgoAxzMrfQZhLNXbu3kzPNxNXoer2CHLpJL9DbFlqwYrnRwZKWH+jl460qAPVXNWx5lwYb4i8Cqu7wqyX01YcZ6Zwk42xCUxDPd7XmGHSuxa7hPi9Yg/KHkuoFdveiyeLcZVgJIJ+lsjyNVyM2e+lX10y2h8LfJAqfWy1MBc5YbFAhah5isC1g3ESk6fX1b48HUwK3EHK9sdq+idisXIwkTc73QiGcrt+moZWo9W7x4+LPGOTVpb25OTwWmFq5IEX0fsXjr7nRh6UlR1bZv0uHFxJQuQl4ktEE+bPhnIL7gYWdD7GsZGGYC/n5V6dfl1kZptOmWae5yJXllthcWqPumivTaXTxAx36txtjQsdBAJLyL+AATABjcwdZkph6dOVp/nOCrshC+fDw99lM+YU2wGeKC5bcR5VEfynQTsREAbp60USoX+xfFYBRxIpFkFY/cVSAFcLx30yYOMpwtfkneKxSWPPCYYVWwcZfdCV0EeUDkonaVUfq9jAC97kOZccYWNHFXrOCNeuSXo3chUNAVuXDzi51FIqXrVORye10gw+pwcNvbMO91iS0Hjxgo0L1gCp5d2T0sXaI4m4hLnNXgFW5ZCTjjv4ODFjjuw7YO4lwvw7sGjlW0vbAJTZDTEqhB51ujclYDhKyMjsifrZLQgS3mtulgmvDrIZvIMXFD40HzWbAiJ81GIteAM7vDtZJ3hRAXhNf2FIoL2YLzdVb0r13wDG/Kk0iXG+MNL+yw1F5oItk+bTpu6WEBB+/cElApvA0Qm7AofcINui2n9CGVwvS7OchHq0eP3u2cZTX5NrjbpKRTE5oeuBOH4eHib5PouM2wySaLyOFLZumnxFy2SvpInONLAr53CxiDMLz2pGSYZGDYVK4XVx4pZ0p8JsODrV40n7yLv2FaF+CQG+knmeKhOtnUHK7nOlByl/giqeamvNA6fZy2x1rUQLRFHfsgc3b0pqBftsNZXTmq4nqrwdjQL0rwPKbgW04pWmRDpiufaeoC2SVzJcZwMgszpUGYG5FD0Qo9kcXXSKaR3sQrcsCY42pS+s2CQLJ2ptMqyWLq81h3bSiaz3bdkVK2Ls3SlsEu0JqEvU1o8C77k/AkJSX4jQVLe5Ac36t7k/9Y5QKrl4O3PbiOKh6xqu6kY/1FdadPN7aHNfoR/CcJvP8v+HzicLJ0K3A3bP94wzHXhT0PV4gNAgR8AL/h1omiB4g8ZQLH0+Uzf/6f1vNCUfsme5P5lXe1ANZM/NTuQvBsw/6KPfcayW0G+pG1W5D+/nkdvK/7+++///Q8=</t>
-  </si>
-  <si>
     <t>Netflix</t>
   </si>
   <si>
@@ -413,64 +407,74 @@
     <t>data:image/png;width=64;height=64;base64,iVBORw0KGgoAAAANSUhEUgAAAEAAAABACAYAAACqaXHeAAAABGdBTUEAALGPC/xhBQAABpJJREFUeAHdWk1vHEUQnZ5Zf9uJHRvbrCMSgoiRECARwYWLJUDcQJEQKCL8AE45cfedO2ckosAFpMANJMiBE4ILcCCWQY4d79qxY+z4K17vTvNej8daNrP21Gz3ZE1Jo5np7Y+q11Wvq3tWeRlltntku0d5vembq73err7xofW59ePafNM1qI+r0/j723vrqrEszbufplJSnSUvFBjPHnTXbmXrvaS+HmdZZgDuh6Fcb60+lDdy2yIzACEcbk1LPVW/Vh4cP+/WJFnvmQEIMM6ylnkB4FK6UrsqU9Ft7cwAUK11T3syCMAEWv9/ACAIy3IumCz3jr/Ctu0gLXkAw2BJGAaR0bW2IcOWAXgAi/aEUwkueF9PTRWEzZxUbwkAauSDB0rCMAAPjC79/MdbTiwSdtoyAAVPeeUMYRBq1RZk2DIAAfKBbeQDm+KcwHtnZWRyQDhh1qu3DgBUKgCEBbEX6J7q7tq71i0SdtgyABzPhIGQB9guDJNzgqrcm9hdJrECQAAi3MfwK6EsNYbjTK32nJ1o1LzaWODw3QoAXM8YBvO6JlIVcPl7fuWDxkYnDoBAKS/aG3ieDAJuDh4NgypWlrzEigdQWfJACCJcFHIBcoIXlvtGX6o3eB8cUJVFU31z0bM1AMgDBXjCvBAAalsLw/+kxgaAnJzAGgA0nmGwAi94KJoD7BCVd0VPTx/qQg7IayU4HFSo8yPVaTyJ0AcQd0IhE2ivWPrk09fjTglA5aSFAJUnCLzmatJTApBhXRjsw3hCyFBwLdY8gIoyDLgk8qBkQ6y8ulwqFs1BKz2AeUUN/bkWuwBAWxMKuP8tDAPt6X5vo3qZBnPm44vvLsUqAMZ4TBo9YS7DaoDzsqs0lh7AEODdtVgFgMrGPLCDWVySgqD1m8gJxsgg5IHocssD1gGIl0PeZ4UAwNQAOcEVAsnZjy63PGAdgABWmL0BMsN5rAbi9UBFH09MMmQ84cR5QJQPmB2i0uLMEKnxy0PwHs5+DAIenYl1D6CmERkqrwOGzNSESRHaX/QD4zncD8RAuELACQAxDzAc7iI1riAvkMjFIFJrn+cMIFOXu0MnAARQOjojAIHB9r9qMgD64TlFn2GgTELEpMiVOAHAeABs54Epr9shHVkmk37BzL7JBwCoDML0YzkBgMNHK4E2PFDGUdkWjJDIBSBHLuHsu+QBdwDAjeOkiB4xI9wgdcL9z/m+8YKKQx5wBoDhgQMQfBgwI9wb0FueBRlyJXC5M3QGAGc9JkI+/wMQcPuVhqWVc1gOedTGlJhhIAuidKM4A4DDmxCA4QTCiFafx49p7lTuGXoBiNQsiWkaCes4BYCzZ1YEKGVOjn31JWwRZUbMCZgL1Iwn2PcBtwBwGYTxPCojJ4xt31tGHHwnmaQx5eO/eAdhYN9+fN12KDSe6XDMBRxKKy0KA7Z5GlwQ7wvEmyt2cIQ4BYDjclMUewHf1enOm8pTW3xOK5MIg9oBD9j+XpADAAyByAtocLFU2oFHf5XWeNY7hfbRDpGpsd04cA7AIQnW6R0o/7oEANY9Dy6Iw0Da9qj67gHA6AYEuHAsox9/9AO8oBS/p7lfQBjER2XCvdWR3TsHgKPHn81iTdT0dAhPvhG/p7l3A7FRB16QCwBmFWiwsuD7GVYDkmF0WtTQXebXfACA0lwJ6gU5wW9Kqd/ry457PovNETmQXGBL8gEA2jIZahQAIPICghgdlAjTycaB695zAYDjNXoAyzrCzhvARZTbnFNRUmTLC3ID4HBDRMsPZGT37iKc+cf4Pc19FEdlHQgF+RlTcu/5AQAeSBLfl4UB+5iwSIT5AZBkPcoKPWe+Rmq80+TnxOKnzHJohwdyAyDREhQ+sXp7EzuEm81+TypnatyHvMAGDzx2AGigyrBDLBoeSA6rJNCalbUFAOOvPv89lsR7zZRMKmdOYON/RG0BgLp1i99AvkgytFlZF34YtECGbQGAMVIXxDvEJw/2Bs1ASlPeNgAUd8q/IKL/TKN0XGeMqXGLh1ptA4AxSimRFzC7PNMiD7YXAJ2F67BHtNMZAw/wu0FWaSsAiuvlO1gUf5IYMwweCMCgWSU3ANJme0j1P4MxFYlBw2iUVTK3/LZraAOetwDwF+C1i76nlrBNL+O/sstK+/d1UF3rDP01v1s/eOPatU1zCiTQUl+61LExu9K/41cH1H44gE8jwzgNGcF4oxh3HIoXcaw0gQ+nL+Jvtaefe7h6StD9YdV/AYhVFb6sJRtSAAAAAElFTkSuQmCC</t>
   </si>
   <si>
-    <t>DTSTART:20190711T041551Z
+    <t>Amazon Prime</t>
+  </si>
+  <si>
+    <t>amazon.com</t>
+  </si>
+  <si>
+    <t>Paycheck</t>
+  </si>
+  <si>
+    <t>data:image/png;width=32;height=32;base64,iVBORw0KGgoAAAANSUhEUgAAACAAAAAgCAYAAABzenr0AAAFIklEQVR4Ab3BfWzUhRnA8e/z/H7ctb0elypooWLryWDgXBVMEF0IwkREtzj/mSZzcRnJlrEMX/ZHmXHcbcpKiInEZMncP8w4dcl0m4tVYd2bIWPTBBs2EoYUlPBSi6Ut7d2V6z3PuniX/HI56EG6fT5CncxsNnCvu68BOoE0kORTo8BRoE9EeoE3VHWUOgjTMLPF7t4FPKCqDdTBzPLAyyLSraqHuQjhAty9ycx+DGxW1YDLYGaTwLMi8kNVzVODUIOZLXL336jqUmaAmR0QkftV9QOqCFXMbJm7v62qc6hSOnWCiT/tprj/PSY/7MdGhsEdnZ0iaE8T61xGfO16grYFVDOzQVVdJyLvEyFEmNkid9+rqnOIKJ0+yfjzzzHxzh/BnYsSIX77ahLf3kzQOp8oMxsUkdtU9QPKAsrMLOHuvaraTkRhTw+jTzzK5JF/U6/SR8covPk6wfw2wo7rqRCRhLvfkclkdmWz2UmmKGXu/iNVXUpE7pVfcG57Bi/kuVSez3H+3b9RTVVvdPcsZQFTzGwx8IKIKGWFPT2MPbeDWsL0QhruupeGOzcQv20VYXsaz+ews0NUNNzzFZKPPQEiVHP3FZlM5uVsNjsUMsXdu1Q1oKx06gRjz3ZTLZjXRvMjXcSWr6BaYuMmzr+3j3PPPE38C6tp3vQ4F6KqoZl1ARvF3VNmdlpVGygb3/k9cr/fR9SsJZ8jtW0nkkxyMZ4bR5oSTMfMciLSqu5+j6o2UOb5fuJLnid+yyAVesWVzH7qGSSZZDrSlKAeqtoEbFB3X0OED/wKAqPpzhMk7juGxJzENzehqRZmmruvCYFOInzoz1TElgwTtjUTW7ue/5HOEEgT4eMHiQo+cyuEIReydts49Xryvjirl4ZEpBVIElUcJEoaFzJTTg47VVLK/9H5SaeaAqNEzZpLlOcOM1MScaHKSAgcBa6kTJpvwIcGqDg9fJCrbJJZGlJL7w8S1HJ00Nj48zxRV6eEKv0K9BEhLXdQ8dbENTxwMk3Psb9wqf5xpES1RfMCqvSpiPQSIVd/lSIhO8Y+T/bcMgoE/PTAS3xSGKZeYwXn138vEnXtHKU1JUSJSK8Cb5hZnjJp7OBniS28VuigYqgwwiN/3cbI+XNMp1iCp347wdC4E3V3Z0iUmeVEpCfIZrMTW7duTYvIzZS1tyzld/29FG2SijOFs+z+aC8LkvNoT86nlsPDH7LlD2/zr0NpQKm4IiF0fSnOrECocPddqvpqyBQR6Tazr6tqyJR5iblsueVbPLlvJ1Gnc2d47J2f0DG7jZWtN7OguRUR4eP8J+z/+CB9Zw7hOEHbfpoGvotMtvBfm9fHaYwJFWZWFJHtTBHKSqXSDlX9PhEvHnqdne+/wOWQUpLGge/wjeWdPLwqRpSZdQdBsIUpSpmqbjWzfxLxtcVf5umVj9IUNnKpNMzx0BdP8fCqGFFm1qeqWcoCyrLZbDGTyexx9wdFJEHZ9alrubtjFUOFYY6OHseZ3vKrbqD79sdZ134rUWY2oKrrRGSQMqGKu99kZrtVdS5VTo0Psuf4Xt4dOMCRkeOcnRjBHVLxJO3J+dw097OsvWYli1uuo5qZDYjIXaraR4RQg5ktdPfXVPVGZoCZ9anq/SLST5WAGrLZ7FAmk9nl7jF3XyEiymUws6K771DVh0RkkBqEaZjZQnfvAh5U1SbqYGY54Jcisl1Vj3ARQp3MLAlscPc1QCeQBlJ8agToB/pEpFdEekRkjDr8B8RQFTbk50VaAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>rrule</t>
+  </si>
+  <si>
+    <t>Hulu</t>
+  </si>
+  <si>
+    <t>hulu.com</t>
+  </si>
+  <si>
+    <t>a1a148af955485cddaed13ca799858cf0</t>
+  </si>
+  <si>
+    <t>rVZbs6u2Gf0ve/rmnQAGgzmZPkjcrwYMBpzJdDDIgLmZuyFz/nvx2U3atK9lmOFbS9InaUlI69ffP4aPb/jnR/vx7fePv/VoeH/rqEIf3z5MNNzL/PXx+ZF2zfjcmC2c0W0L6q+in+Om2rg8buqNTKIh+pZXUYqwZ53+MufJkP2dpn7JUJ5mwzu6RT2iqc/8Ak/OjGtS2oDtMc9eJnjpFglvCAEHwu3LtVEgox+MlEDX2wp1yeKwVwbtjXuqqiOIHgJy4hfEJAueXV8P1zs7qrIz3TrOOKdN7ggccObQ11WPj21VsDVOPwKBOsR3lJz2cdH0QHwawFSNHAqUoscc59shlTBs+wp3K6URzOROJnock8jsrD0hreRVINTmUD+ZcNcShD+15OAjpyyHeihGPDlMqLq1DIm6jnk1d//AIiu6mwbRKrsOxx7Mnpy6thP69Tben6V6rs/eJMKHJdducKuCborOO7lKrteUHzNajG80viv5ZNkvygo4Ib4VhG5dfOySUbG1w3xVrKfKFhTDoJeyLiAlarTX9a3HigMTz8DTCMIl+4UzgOBPLLYJrCykMlbcSj46jBtGPNWDAsx7qEogcvCbv1fikw+CFORYJHhzMSKRtVzHF9bry7vNBYjGMw/xTWUArAfHsJiR3Nx8PidDswBwsRDyjNCBLeFciz2vAHDX4A3ZfLXT4lke6qvvLDafZUQ7knwKPS3lBHgTAlplWmZoGSLHt1zpAuBqZYpkQzYdedVc07aLKzZL1E7gtm2Qk8Z91mihN8Pbw9XIfa0SDaGvkX/iZ9JuQGAcQzidaLVULrFVMvfR519FWPMNBNoZiyQyRzxQRz6jzHR5+mW3Cnma2P5dBRynxqKswLhRgnIapIBuSASPsadeRI8kVvxmEMBIeRg8uAkCEJW9PmO74pVGoFZXIKUArytpBjlLaWrDM5C7JPjFcl9Ya6eMEi0eJYvn5rhYl8hdVBzEdoIrmbDPJ9/qCpy9P9y0BIfoLALVqzl9raJBdcETZoHz6Gcy4xYRznoSHlOlWXg9LY4tLGx6OY7l3Io9AbV1D5Dnmdit8McZAv9laKN1HHhgDXRwmBqyvcLaqihqmvTea4FxpVzYsOGZ4aOGX/u2x8uMAcKJT4ZLKqZGJ1k6x/uX5Zy2PFEdU/XVp+lBkZu473kilZQSt9CV8sBs2uAUCxfQ19fHQpOWBJIUQL/ScWj05qEDt5z1oCjjrGFU9pGKnYOt2lYF9zk+6oag1a8Ft2a5P+x4oKA6LAme5irBKdpuPkmreRbOjhwFmM1Tax3zRweMgg62jfHiVxAzuUJ0OZgK4yEqotrVu9hQxFMw4kYNgGOfHs0DKDJkO7bdlpGm3FKs91LqCrrwNPLLCcgAAdgfKOHZsX0mX4qqIBm46owKZ67hDR0P1wKmhilrlLC3RF7yksJ/qLwCz1DWR7kfdzZMZh480KnIIfVS2DlNYp1dsWp3DDXNfh1m2PBZahv2HabzVn7DxRFBp1zUgDsYpC0BKWbVQtlhs2HH1njJWv8SE+kJJa5UqlmmgDFPNIMCFM9XLw5QtsvlYnR/UeyTKd1RChqYm3af+0XEoZ6CIbdeiVDQpMvpUZOE6s/O1bsZ3DXVCWWu91YMhxnOUui+LK55qNRrIIlBkuW5rqJtxOiEIZBkocnu7iax1/gzogPegM5L0xZcA8z1IJWzzcyTUC3DPlbsrU/+EZeGh2b5TqD6VB2frk++TtrBUFK2gTz72AVPwAOwwAUMTayL3r4R5fsh8JEZMtn95vBP6dknOBUDBih27dMO3mBMIwAzZPmFVmacj9j2QTOpDGgQCqMM+ubFYiw4HRt4xjYx7jZ8CM4+4KbEd0i3l1NtO3aPRO4mLp6AzJoy6V2PBIzoQIK2uRlWop/P/cgz0iXki0rE/cG1A3QL7ttBipezSqfeYfZZrU2wbqEOjNVMpuBWdiBB/ZgKYP9QrlFmA8VSuDRLkxI83CWOIM0eVrDpYgYNWNaOW7MJOFf3Voum41WuzpEKT8mQd4zeukouyeRavIvvlBUTrCgkpWyn4s4p3XjEDsAG6Az1e0l5cHfYDmLFPYArLKy40Swf7ZyqPeI7t94Ur1dZbbI5WcDCO0Jm7/rgyQjrKFRHYucuzzoaFnkygMSvrz2Q8nTpIK/DBp0B3akmF5U3TwSn02RNR7bsHWa9OoZWJafwZGKOhMNUfxI5y24/XroMYnkVSSocBE66bVvZuCjBi58Edcb2sCfAubSQmQIvObaYoumYq5l4ICGjDSQ9I54DoMDrnFeOuHKMZRo5z4QBUPcizUB5MI0rmLF5xEU/OvcgH6fyRKTe/aCExjwjzuBS/+yR2+1eIfxBWJTxEsMSzvvcu2yXBaZfuwic0DDzs7jjiJyh67KDpr47YX0/aDssITyR7HgLJyaix9DJigaPWLnctb1yRxO68BpZDaOIWCZkikqF42NeU1OKRap5ZaSsNEEczXhq72p9p05DhO6IyejzwLNhcsFAmF3EG92rznB++xwglKJbnEe74rjNVtXNgPov1xVVzVhv3oz9mWU3FMdf8F0URwNKm275Ql03lujt4f4RR3H2I4rK8uPbfbub0OfHDd2bbmN//W3Lch9Q9xXeNgkQqt/g++dH0+Xp6TnkTd2/2987tLlD4vMjGfoh6t7d7nGC/QlnftpsBbH/huPb+zOO49e3F6y3rFO0dUm8U/0f0myes+i/XOq/pl2PZfn5sYV5+QcY1jz5I74tm499Nv2/cdXUQ/ZfMIk2yX4liPf0l/o/qB/EgqLuB/yjzaZPUTd/xX+pUP8PkzXjW19i/yNjldfj8JYe/+1riJtpTv6EKOp/rMa77fdNuD5rZpBMUR2j5M/V65tuOHXJu95PxPfv33/7Jw==</t>
+  </si>
+  <si>
+    <t>DTSTART:20190711T120000Z
 RRULE:FREQ=MONTHLY;INTERVAL=1</t>
   </si>
   <si>
-    <t>a157a062b627aa7f420e1a746b084d86f</t>
-  </si>
-  <si>
-    <t>7bxZr7zOliX2Vawrv1Ey81StfkgggWROZrD9wDwk8wyt+u6O3//eVldXtSVbstVuyeicPMCJjB2xY++114JM/tf/9Lftb/+M/NPf5r/983/62/+8Ftufv0PSF3/757+9+uQZh//JWhpw+E9/q5Zxn8BpsHsWKdhJ/vr//5KNPTjVZOMAzuXJlvxz0ydVAU9D9R/OJt/q/0giyH+oi6aqt79202QtKOKfGp8z7RNRpWp8gc1wvPrtVWCv/IIXGeFfEfgraOgGqX8acLLBO/73w7+qT/mqf82fk6/udMTuATvaG7yXvz4csqEQ/NcbLsT2a8TD2D6X8zrrvdc3sI+o9yq77+44zI+s357P23CNvWHW8fzzLj9/+1H+Nu44EJEkYPePaE9p4L1Mh7l08GtweY5zYIyCjzuezflym9A5ohzi08JZeSlKLKVO0NgFOieUhS1esyRql8w/zw7QwxOPx8cbxfP8HSswJrD5W1HeyK9RuA/36q94ef/ejWO/XzanfBR6OODHCkrzCK3hWbG8L4q4dy283GgYxrsJIVv0sfoihlc2/YI5qDWRltUHzKVCXu/X6/M2wf4nBy9f9SW83nz1+jPVGgE+EoDz+df3lb2q90sGZ98m8OPHeHHgPCeA/epL/OfGr/Gl/+euePn7nxtzL+78R1evL/Xfsvv3xv/W7j8a/1u7vPAFA/p3dv8a+7+z+/ex/3/H7t999u/s/sP9/9bu393/b+3+q7X613b/1Vr9a7sfQyD513+9Zv/F/n+1Zv/F/r9es39t/9/Gyj+6+rex8o+u/l2s/KvG/87uv4uVv9v9fyRG/3vZ/e+RG9C3+m/EzP8bscqp2rfircqBjOsfvpDg2jpgJnuMh/w9D6WaVt+SLDS1MGxmMLmrmvbE+Y5HqEJeZ9UO06RYOmfnWcRTMCwrD0VheP+TBG76heHQcqX1XBeFzxk6X9Hox2vvKFDBCwJzyTKO/o6jbXjY2jYWCmhrQENr3q3jOb+0MSKJdkIpTNPLrsL8DcOWoun4gaWWRRAElJYHTvXxtu9rl2XrryPCvmcQfMDLYRgwZt+h885gyzDIA/RxWJZVZhkk03bvR/vgTFBxPw+jHe6nNPEg1LolTB7KxLY2ZZ5ipuYMbhGEgdM8KDlCLEb93DUY/+S87HOlU1UncVvwYrfITec7qvdPvDHtEgRBlq9sXhRk/zwPnQocA1mvO+mGpB3JPeNviEG46755sd8hDNMfmCG+sMHSNG6lVt/3e9K6ZYFZzxo/zGNfJDlpw77vB99fd3kcy6w+xo4L9YP6fthnumWxD8OqGWzY27YpYhwRCHr+LAunOlfBLc/ziriEYRrH5EpJfdq7Spy39b6XYZZC4R6UG3bJOwRBcEOd9/V3ZCQL40fJwivocSdnFoaDjYjgoSgg+Hoh0AsqraEnsqJoGublHhSlWgbw85G2aVnKlrsGlsxYRcOgYdgnGI5vy7pDEERuddueKKwjDAQF3yjlcZ9hgJ8pEEPD9FycKPcKimHrwEA6mFO/H0eYEn3ojggPuhQmnO4fiJkKuJeP48gL0BFFD+/zXRx6vRwMFK9nlEHzNBFJ/TMh0VDytjoRjBe3IGIKUysXGjqWZWH08v5rbsdzozCEHM/s07BK+YL1xfXw9/I0cao1jUYQ2JI76BrGaAhhuMzoI8txfPgNpUzmb8tgS+A++DhKmJws6/j93kVZewjDxhnBMMj9YEGSikWQQczbKuuXdKu1PTKfAFgwBnfxZfk5zyCR5TD+sKpcXqk9IcRCBUld6xJIfctMcfiRFu3Y98qH63OiuPIGE7V4HA+mYtuQLy5X1bfscwv7wAzl+ygRb4uajhfVWWUafSDYimYMRVsN2CmyolymCdkd/rSp2pfCRSaRHbpvB33v8xvJCwhic7yVw+ZUyZ9SYhcMgzXpXeiZqX5+iChKzYWF2fDR+9ZbFrhEHrcsewmkxOjVZLkw/MYn/TTfQ1jOazmIGk7ayGCYxqML3Ems2HA4P70A+UomyFH+oOHnRUgtWaE8J3n3+yEYA7IerTb0vm+ErJNIY9PRh2rgZxhHlBrGpzgv9ONYV4TlWnbH0nyVYBjzPISaKNhfF1vX+PKLuM9z1UYH8hLXik60c1jI9tBkD7r8g0EQYRQ/uZoNIondG3nBHwU+whwzoIq8x1II3Vg4HpTN2cTL+E7CD3SWSfcZms2jwvQi1mAojwEXOW1KCpqCCxY/55+f00YB0Wma9o0o1LW7WTz2Y+2zNCGKiNhULi2B4xi9/sRQeV5xmkpSUZZxvG9XukIAm8jtedrfoNtZ0Lq7Jbd4ktCFdU1GHszwpH059MB6/eDaIwzABL8olyiXcV6hCB0XylDGDksaTT4wnPhxnuf+e5D1ZMK/ObQ2v9s7E56ivK/IgggOGC6dpTGk8Z2FfFhAx2p2KHbA0xTgBD+QBjWHCqu/BOGx56hcqVwxq/0bvYtm/93OICZmT8rtEnMnU9AmyiatkowJK0asNVUh3TROFrApupSitPCaQrK5Hz4lyEcURh4cAp5KL7ybtZQ5EYV6ZyK8Ze0OYgpfjdxgtvU9fnLN+zaPJ3+mYo8ZROkFki36jxCWxpsHAqXPoNpJm+OwPmqVU8mj/B6FPNE+/2otYPEJGxO/SmVtgimUcDj2qhmVm394vFiWFGRJURyNi0EX+vWzhs47yvvUKaiHlzZyvmYFtSpJrnPY6vr71eloNoWqx1mFUe9UolDmk3NpVYKNZde9CIImhT+zFswSwd4cPfNuisRTer2SW7F3UGKhjOlg+EbxbQ1D/3YkM4lrIuIM9eJGMyvJGeDgMDX4yCazrQ/u7/JGay9y1srGbAAaatQmtseDhvRVO0u0cp1iilvGsc9KS1OUEC+lHwtDEIafUA7RAALUgczYGODx3EcZQg8NGtlvsyGLcui6SydDRDioDMFx5HqP0jqOm3uENNJNcWV9KT78RSPp65OotGTW0Q7JabO6Fq28G9M8kyFTxiyG9UNN3fBgvYoNx0t/x8ujaY/B0C5+FHIruxUEIQ+PpTxljfvFf48xxc/JB5ujzrTYGYnEKif5JFHeaxCH4mF9pd2/uXQJSHUjvvQgvZbQ3LZ78+Os0dTFnLrh14WpmQRKRba31NXPKG2k0xcKM/uchWxs2t1kfoN1U39JO09CV+xQoqDB/GpBHRn7qZWSLvTb9osG+F3LozRuGrLVlRkRsY5FHihMCy3N3dGzvnPfXrCsifEbqIK4Dkb0j6+3RQwl3yMstoqG1aOpiOR3QQrJ13eXaGXc4HnLeXv22xruQlHrayK2qG2fq1F+UCErBNJ3/Rxkn0SDPXbao/ubrR0i/NQBlGzG3cvv5SUt6xSveuZ71568oTWTQnOtsszeFMmx3RsFnOV7VKbotcXhEIPr1XCC82m5DElpBxYSfEANnyuSIM7n/Bm0fDw/5YEv9qjmJ3lY8TfmlLEI43ayhgs41Mvk8E0j+l6apDUg0RcdxJztl4eBevMc8YArDT9TrM+5DrYIGjomXUzXCbZY5SQ0Q/JvQnqaOqajblA14c4+st1stmuvNcNFz3mPeGv81LOvQQXGD+4CXFMpB+ToIurHWecs3+jXpnjqUzYExCvWaJPIhsMLrUp1Qi2T8sqfw8vWOYzHgU6k9zRaev5ineBYiPk2vTRXOg9KQN2H6RrMPs+fscRaUAiIUeuC1shR6u2sAWXtsFXC9DPIke6hUsMwBP0gG4khKvQgo5W/ET194Sjub8ao7tq6ATLcShvhR9rNZPfyU8OI+7aIEcxI3kTzeEwMjAMqRoT0Ae3Ll9UMxyjwqE3eHvMgYTDaSbM7G+yTsls/eeGpvpkNcA7GMbkAkzRFlhkkCbysSOp5wMl9V1WVvEufXJPZs1drsd0eOp5woEky+im54fFIyndFI3oAtwQbHW1i2ZFNJX0n7+yfJ+CjdIRLH+SUe93kuzoUKuY/Vc8tXdreDSkFP6winUWkeZWFyzR94k/n0B/owKIF/uPGGA555A8LU1EtObQMmx1/Ftvh0JrmZqk++iK52X5tCwvy2GopfPNnM6JXFC+bCLoy2EPI974VgDa/UnwodWiJKofqJnOj5WBkteBYw8LvB3zb8uzDKnGzADabtWMdCsWOiE3U4rhvfKUD/0i74/ekMBjjdIeleH4MKwU6pF7JIwKVZTmMGzf2w5IlNycY4+2xnENbRWEaxjOX7AVQCccPH2xN+csTWCn3YqUTk91lXG/4OUwElbaWG2tuwAelgVbqhMTVUd6Ip0tPItoWR/saYdqsAzbuPfwccT1kbF3XT1922lx1rvU18XIfLGPQmulD4ObU9PFFogfprFtfvmzqmJEEjRRc8unLKz94GSkA53MURbGwMaBrruL5Wpwjg/p1ZYiZkkOCslLTQAVXjWsQM9AfjTIHlDAEBIBpmGQtEwJ8Uf/Lf4TOc1wCdehA29ZREToI//VGg1GAn0cwSIsuLTgFsZ+ePwFolEz88XApy/LNElgcU8Zw6cQy/NErGQ7vYFxUCsZ1LuRQMHZCUi3gLYBIhdrO5R7JsIYocyFjBhU1MqyIWivFFKWhynubhPxQ8jGdFLkoy9HFS4j+Ln7adHHVHb8rgh0W27YLoGtAN/3NqsVJ/Ykn0qC9ubH2imCA0Fm6gCJfgJQPw3cDgoBmoaEnJakJp+HUSqINeHozf836Q6Rwx7WhjnWpsMJd0mxj01Xd6c1RRdG690hd5mGs0KGfdFv+Q7PJFrAdvF8TBLD9Ze/mVHs0YPdyvtQJpAKhmIdIbrgeqnxZxA+R9VJImt4HBrdG4703WyXEC+L5pYjCLCL6tuPDEOrnZRoD6K2646GseFC8jFKWODhbIzy8S5jTnUBUMqxfqlA6ffJRO7KuRzxt1ahfnElPZjGmqFfJiRS55RZessI6KRIJAEYIa286SvtGNPlBCmuKuvmoffVr5fG3/5E7+g0/8cu9vqXtpqoEAMJdWzfcx3nYZQrmRkyN7aWy4bLyibksF4RJKSN1+slm0uG9hCzLQjDgzI3//cNui5zB1ghAncdAIK2vevojKJ+03+uIfeV3r085wAjYWpSxftWkhWQ5pwqDY0TB8Bm7FxR3+5JLUO22MAvYok9ZIkne1vd+fhM9fjTteAVkP9bXdlxir2G00dU5jS5Av2r03fSKXxuCLfcMungQKs1fOZtCF4VgueIHj7PEGs5j01PZD5Gb5Nw5ZBbABulrW9lBqc+5POFv8dKY20573TEKz3N+9cAcg2NvVqjzhjLP49KlWPELGi2IeOZCAZHeDIdcva2eplnXu6j28yqpKpXYIFG/77LYDOyXT31iBFtgChEVrc4nE64CjTtGFMfJBzzNXwRtkXYDpYdgxyPFN7L8IT8ZpU7vWUVVgAUMlQTh2ZC5GyU0Nc/LoKRm51hfAjdWptDEKC7O5eHwOa1ChG3olh1QrTucaWBN7bddBGJ18Xu1KXOpM/pX+wykUsiFv2o0TvJedBZuDmI1+AX93VuRhpJ0J/WWO6TmEVW1woe2oQ4WqOug23zK0qbODPYDCAK3wGLkUtpXggqKpk9a3tKA7tfkvWU2wNV7D1NOSWZ5YSHnsTRuL8SH7DkeZ1mSLuBdL/lTfsJQOoK9mmm1cE6oLFo/S64/16vqKd7TEUksgTDi+5chGMY8NDrXioC74eSmCZ1UWWXTsEnRj4iAIZlLBwB+D7XGDDUkDRZQU6L8HmSzEw6baHGxrCm2mx6SMvFzDaJtwhLMcr0duecyqhKKfRuO6/PNxsty3kz5K2U8JPMCdJe9kJZ3K/l+WBixBNGhEDgYnBeKa8riI67tiUaQ1WqRZ+rXyC3gaBZ9Hfnb7FL5WQe5RBAvp4sH298P3uolumJ0SoFxsew2yFSKO9+m/PKUdtkQBvnqkp9ViyDd+QVMtwQoi6QaolO/NPx9nKN1qtnMuVxBoB5IeCrPgAe7zjVeg3ER0Urt8kPaQGN8ygfM6nQdgja1UdqHFMooKRUqNf/qUHytOspNNFKGaJpQPN22SB/FMR1PtTW0T4xdyaA58tf3Qh3FjoBTp6zD3O576EB2ObYFSe/39fEpbdgJE3hQJXC9+lJVTLio/4WgwnHfOGsr+WuxgFTv6/u37JxqFrn6Ltok7Ur0CjE2njL0QRDjTP0DZ2kyD4bxurIyLyc0UUlp/VosS8OwFYnmyJUAHn/uOSOECoW8M3NhOXPW4I7owHOeA9ZgBWtw0zUjcpQqQLhFGBvQsngXO9qKA7fkGHQ44eZAVsPIA454X+APlV2xDWICfWN4+ctb9o7Wn/E6c21gF6fjDxchokzT6OdLwQnVd8+IEetx7HWnJoslHtO2sXhPupZbt/rbHMViDS/vYRbUk702d4J5ZygUqSUOkC9uaabYWqY1e36eZb1JEjL7La42VhPbC59YAHO3X51Ji5cknEV4GM9Zn9ovHzKlL19+VVLpRa5oqc9OEXAaRQR0frZfnrOn3Y2Dh4NIi9fzM1/XREPi8zxYCLJVrFygaQfnQbtpKVx42DiQUgDm9uGrKKQ9JYBiv+9Ceqj8cRvUl9nQaOpwHPDnbvJ8zow52braqzNYVscv0C+3I7Yz584CPUqf3JqSIv7Q4WyTt/Zb4Vx6/xBxC0eeTbfmXkkzfQZDd46NYguibPcVtf20/3HL1JfWQblCWpaWdXKzGBn8YF7Ul6WBemko5spNPLPnl0txoWz4riNQGIhctS1F90779V30EkcPJr4aKMALTJdcvV+gEl/zLdG/GuD9ARFK8byjzRl9pBD6MhDPHFlhmkbYEjTrjw4FuJidv6N4+Q28LY+Acn0nBEvJHiUm7A9vfrMsFSG+HeFNJO2EU5S/Uz/+XNseOwYuuSAwy7aqaIxVOnhBtKAWCPFPOHhlWeYocyg4jdIsoZQvQi72CozLMxPI4Mwy8tVo5hZQOcPehBigP0jU0fAo37YN90HQTkWX2C/0OXU8AAMFP1fYUlRSsKHwQOxSwGaKmTMFQcCjhwLGR4cG273YQAo+YVkemOs7FUSd0vSIGxupXjPC+VN+aVb2BGIZu0w7tzUcyz85cARqlmVRHLbRhbwijkypVtley4flWPcjeOuikxkUEUcAbfu7VkcNpqj5MAt0HmRy9PzfCBk/y/bBgNSKpnrO/BV2j26p91d+SK6rBQLToJcF/37rnoXEtswiP4q5OZoQBTYl+KTd+Nxjiwih0vwgFXJJ/AP8/wBt+jHDsPKN1bLq6qWbmUywUIf31e81IJxV70VRMPiHK0qgjUgU6Efm8gGGQ5EM/bl2XewdQEqxqS2dJDEzOABvYdk3Ldr54AVw/Od6qA8ry+3plhU7UUIMmHjk9tYuIU3GL4V9uWOS9Ne6EggJNBJ5lQ2iKWzqj6ErccN+veSnuycgKfI6kLPE77yZOsh0WZbBoAR/csh565YVkE2rveK0D6h3athQwIb8/BhBWZ+j3z9uGOYysY2A1gH/K6y+1OMzp8ZInlP0G5Ku9xL2/n55Nh+tLZKpU006FoKS0C3YNKJeBE2bAhM0wKOqyoeE1Q/BjWFBWrw6JGR9wwKFMGs7XrSMgAORBpPTdgjVyiT29qMBmQttm0WwLyaT8ND5eUGVV1K+HwQNSvL8ZuXbrN7FHn418/3TBN+W/KoU6S+YaMN/30BpKyxJTiA5YQPDMCTM553ytM4B6l7lggZwwGWaNGWNFpfj6v3tsAuCLaHnyxukoRBA8Q5fdBCqAZZoBauCaPLQx/uL59UWjuMsTF5GqdDm4jg3jGbzm6KXtv1zzYWDl+u64EMBNbN7SpQyZOF++uH2C1E1vd7RfhmG3cDNVdFyIzrvQiGA9kmKo+hgFHpo6XpWeLlEvCuPqjoSm2O4j4JkPXNVBnIFxOJvO0TK54OeAH4A2inmBGGQoaEt4xiUJ9LDE01vZdPPPy9pKGsrDMMHurCLW6T3a/FZoAsIpF8uPD4sGIJQWloGK67oc+pXqJWrNkQpvub/qlXQ+DVhb47NkG73sLVhClDzgw0U7+av+LWgSJUQFEwRz576RcD4Ez8HV6zAwyBH1qMXf+k3TOAsC/6SCY6TFAXBw2HQJux+v8xOKaLkUt1dhsw69/Q0ffI/cec6pvgmDZz9655aB3kdAEu6tk1u2K4Xi4Z3Xgiv6huwPoJJDOtR7QmJgUp7FQQ07uS1GA/RtKZm35WUR3X2Q6h1zIvtFtE/VY4BuCAVvECrRjESf/gDjy8Q0LvUfLd0ZBZ37iRcOJHAlmhrBqx4UMdNkt9f34p1i0ev49iD8nreuFu+Wx23oYJrCTQx5N8dEros4DGED8D3bnn439c/7FHzynj+0DmUXkNAUk4L4hBMfaGY9JEK5C3gXqrDVg00niYx+J4DLYSGm2zsHRDod9A3wxL5y/o9H6yAKiHVmVxupw6pssfH6e7++72TFjqaCu8a5O/4NE3bzhxxi+NAZ4cmtLIhmM+tubiPGpFUnMCulEwU3j0y0vrh56ICNY+vP/cBjXKlNo3Fpm9MLduuzMvGLGkYZAOxu/ajxx6lNxVQTjCOhctCoaCajpw1il7/OCEOYVbQBltHQItlWfvW0eG6A6qwLIr4LOcfjjK9SpDqHY1CD7lcx6IoiTvKht7P/kcOQ3W7z/GriDY+qtvs8BAu0LtFipqSRFO9oY+ZZ2CgfiChTg1bftEU4usvbviZR/cXkZ2yzR+gaLHR7AK4PHAehq72CdfagWbk9cW4YbpeKBL9egyCdlC8gnZrk0INgl2dqQSKSXFsNmacZ9JFBmMbR0A/x1+gATlTUVTEiMQaak8EaEOKsMs9C3NbNgHhPS0Ml/Kf+6Q5ifnVXCYZzjkm4DBcaHCw5grK0Dfl5Gko9WoRsnIIiJ0nExv6GK7PZUbbKKiUPJcMXy3YBbKEmitZ6C/e6EoIDOSM9gB9u64OpXpGLiEVMmnWHvvG3V9G5dCUpmjQsLj3WQXA7mu4urwswbrODqZowRNmpZ11tW7/eT8rqSvnwc6afi44jwIgvwKGlvQlbpY3/om7xgKU0FGRND9wxmVOzf1dWU7sTHRnKJK6APKNTRBZwtY7yMwyhr7WKZyxfj/kPOY1pvjtcrphY/hwhdoGQjlA34RylZPQk9P6pd8TxRyKlVCCoX4mIB4u9ek7qgugeU1JjEc3bLEnt91qKiHoAcZuvnQdjp4tFsLbhl+1uaLIZhw9qK3TNPV982PCpgNmUg/s4G640LOvjQ+AylUm6K1ZM4x/SAYq5Yt+yBXRctKgmcwLz0fFX2ek6wLA3LdFhEeZJDc0iINe/1kndW1JS3afLlsd6/UXr/8EK7wUnUrI/Ij8ECIc3wosG32wc8J4fzck9dUGy47O3LO7u4c8YxiWczHzHpE90IQXBJ9cCTTn1389LMoSxDccLAAr2Mr9kNlWpq44wl1cs9LvoYT6dMzGDOHHYJKuC9emEE4Q9z5p50JRHus9iAJDDFFlWUddoVv+IO+3TJZ+8rQ0TX+0wvjrmvorpIPJp+pNyT12gcMPppAkEXWUNeUL0o+FM9NAKzwR7auOMljjBlXLGb406OdlBe9npaGVnmvggzZGhgQlHfW+6/pJfsVhGQbI6/IvrUZG6lxOyBFEDy2DMe0RlZuDAXeJL3f7n894aMeoUPYyBjucYZWRj/5r3OKYWZpuX47W/nPfGy3sJUhJZs//3G9Fn2K+NW0ZRxoWw7w0+uK+xWoYP3yHaHR2yDLOZFpbumYcbnk5fr5XSCMR2U9f8qHdod53ZP9Ta/3r2jq01fUwNKwF7vt+u7FlyyQKHUso6eXf1tJlWRQU7ALRDbgFluMrxHEXPbLWBYBVensE9NFGYt8HdyIOF/I9K93cYFp9qDTs9y3AHjN7JK6t+qVWN5CiBL2U7pUux7aNWjFhKSHjMMOEgcUQGQzz4ro5hT1v1OQ8JLT4GJ0fIYbx4zm9ldcUV+sE/4zqjAx1W4bOXI1IEylIs9kccHA6Rovvn9ub3xbpflddwMAOm21JaVyzuhl4NJD0GGEZBOrIu4ihsAIrYo+eNGOI2ANJR9KLYdHe4c0iPZ+7+8C8U2SE5TJYQztk2aMX/TvmhhrLr8jQCzW8xDAsW3poPOVP7cIffHzM3v281RKfRS782FZI75vTu0rnrEQXwjqaF4vHWOtk/zzYdTSPHhaRPjyCTl13EOnhz3146nAZqguTGMjfQSQFPWAJ3vq+vWzTwpCbazt1xITJ+/b7+JRUy/FbnbxOpsI1p2kQKnsCuAj5CINl1xWYfvIbvlzBhS8S1bH1yGEsCh0mAoHqAdLADjWBD1AG+GndnksAaV2yBpwUIKxrBA9tLUiX1hcL7crviQk6zCAKaH9C2RjF8yl7x6o5PpNzJ6D9OFhqatBW4OXRoByMjSo/nUKBHBJcb7nfczZvHT2TN9vTIevFWuataKlK9TfDOsTy2oGFLHzeIPamBb/44TYggtKyqOQ19x8PR7slkjh5lOhE/eVpQlGsT3Q8iWFTnvzYzIO0mUhuU//zGSFdubj56tmgon8NoQzXp7KjQjInbw+LgYVB2P+0rcuEMThDENnUmIKwTv9cXqWtfWBJa2HMQ40FMQK56cpg/C5d3WNPZX80+k1Pj2uhgeKaZQZkUQ6KAZK0anwTaGsAhWXh7ohoL6jItMZwbx4SGDkJoQzaWB3PmY90IKmT2E/wO9r8g9usF7CGPZbPlvA+BGn1sCEMns5zUkgQkgCHshkqaiYJlwsEj7bBCPcepZ2+X8r4Ml5IojMQDluwZfZp9Z6rMolQ5MtyqZ+M8XSM6ltFk+WLDWu5+OuX4tuwds4PxAnfebSyUsrT/HeUBiPLGrlVp633hbx/+JyintM5fHKo0HjTdcvv3wxYRAuPd8YwwExytIRjlzNXSLiW29JTjgDqhRdOmc0MGHJooDzOQh0VfK+H6jcM0mGdp5MQ5WPSXf6jrsOeEuQ6CnKYo4ihaUMCpVUeH3xJSjRNQfcp/nXxXLB7iCP6whwP47gXtxRiiTyRP5//O0VIRwn2rpn8NtEIJpG3axmDyH0M6F3Fd/TWaYqjxJx6fReEyI0yHRHmst8wno/6WByJJvMRA81X9ayD5Z0z9Ora7TW+zLGRY5JR6M2q2eOLPy8OiCR5jM82U0Ib3dwEZuOZjMnhiUkZkUpozZSWXLw20zZ2aDsc1CvAZX6difWGChDgFQoT5pD5S+tak9It1F9K3YaibKXTjx9ejpxtDSAF/vzhzuBdFMbLxdfMKqCXMCQsweWM7QjfXypo0xqBlCTrR8WmhvUIDFrIUk5ZGBALifx2T78ZFeS3PEnpVXdvpEJeDn2fKADksSi21ZFhxjsyZlReNqMyhivM9njTYu6jWMjkb+Qmz8ouS0YReQiAHc+jkXmnGoKfj9HZDX3Jbwrv3zVdp4hzxIXklu9fhSjvM2S7xqh0vB1VJmWPcX6PIkRjaQ/xaLikEFmNkEI6TGtTK6R/3h+40NK2Qr0EtXZ4vGjfIa7Jis6ZxN1IWMQMDQSseC4kY/oHh+gHdcunDJtQjauELi/mo5RvD9iW1gaLRybZ7ELOrdwBMJJw3sxUDCSYtH+UUPv5ZI/li78M1rEvFBEaNIkgMn0xp1usUYKw2dkfhSLHjm+QlVDsr0u6PYqMakc8/NXzZhOxd+m6IOjZN1BcdctKmQWz4/sLIaQVCGyidAkemF3aNylf2gmcIyIB985XfbVZgVWUwmrk9XtyHR6jurN4dVK2KF3r1A5EVqmLa3jY0Xqb79GlFAhKV4YsELo4cM9DPzD7DAk8YKZ25g2vC9axbodpBQkvQGjE1qAwdjPjIM9JuxqtsREW2L8dTnkN7RGrUrFs6+vbl7gee9O2ebgep639i0YoNj0IRu4hBfA5x2hE/Wxn9Ijnw/gw+Q/AKG8CwPuG1IAn6Jv9FHsTKlOLA71ZNENdoFX+MCZ+K+uOGoP3vAWHSr5IAmu7ITcWgVaOq50T/erShEzI18Ea5udAGaFjnD95sqOeVx/7j6E++1Mskk78fFrzWAITShyh5p2Cd6JeWUfFavUifOhao30z1O+DZBZbZD8MgolV56s/n3jAl9li4DGtDLZLznCjx5hJBsVm5C8OoJ8SUBsP7uq3wnDMQAa6ZLhYVMl9QZBBF+vH4OxXXCDrJ8iZjW6VpaVrVtYJgZw495n3XXTDUrya7OJMcqqwHekDK7Ll25t1VtjiBjEeuNC/Rn6iH9eFNO41qjqv4Ry2CK/o6Fnkk+ymiqvo406kKj0GBTEGJTU8eVPYjibsrxSJb4li3Ut6SFOmyxd2LwvxYdqhDOkfFGyDjQoNFezMQ6/t8/u+eTkIYOudABrE79+T6Ye6M5p9z4MZKvgjlsJSpla8ygsUohM2bC/iu8HZo4UIX51wFkuPmx3uQ1CV7h4WpPN2xMYMXC+4+cmgI17J1WSVaTzC4yQKR1fD6PXH3+H1R9qgH5WGpjKx6CXHqqjL+9Eoei38PUwE9Nb0KeOlaEod378pvn5vSlBNIF+tkFOMdUu3IsdZrF42Tte1xtXykooOfct5zEju5SsWKY410ijG8PWNjJeN+IVc75gtkKzmj+kgRJrVbctRSFFBzbxPsF4OP28dezSq6CWK0Bb6/n5K0z7DKjIe9EOnt0EcHuvRNDKjrl90fpq7edjLW91M8T5zBhxPwWrRGzd++jof7T4/MAMK6SypuQjgu+3Be+jlHQMW6Sw1H19AxIgDapGPOiOLQ6AmTs+akxLMhq3bJb5ygfbQOn/dbatDCBxLjAPbbqEm9o4bxkguToRyjL3Pm/p7WOiyfH6J4QH3nmIze7akSJSSv39qi4NMVmrvJxwb6Q9up5REgRjUgpCFNxVligfAzvbmArTHnnALcVjliHs18Br9lnSscSZTfkz2k99ouUHcfLjFOCTGQw/FXFp6O684VSB1FCGix1pvfcUg/FyHJo9k88dXIxa+i8CJD483Leed5NCV4wwGMRWySw1J80+pUMo7SS+I+AEqRadqVSTW0gwZYmFF3GC7ZqVs47DQExaLfwGCJeGHuYB6Xagw0JNuamyVa4VIZ9cttgEae8iKQGCZihz0MwH5lZaltNON2FL+w0CymZTMTl7nJ9dcT9y+a4C2PT2S6Fa8NHxWb7UO98NX6SPoGTxOYsFX2gEPtu2bhoAawCpc/poUwq82jJ64fNq4I6ezkzCim3OKyIfuqKVDSix55tGXXx7xmGNHd7zpgs8SLbRBPLL6VMiuxFRhwxosE/5ZJ9LcLjiom1V2IDyX54eVfmNHmRBCywSEXjsQOCV6hoBjxe862fmovcTtVywocqvsfRtXzfYv/MoTw6jC+feMHsP+XpaCPcUvXnJ4lR4VGmSnxKfpsVZ+xP1x8uI+EveB3gLjcpOkrirEEG+Nqbnx3B5GJ88IOs3AGe83ngws02/qQ6bzO6cjtQwOPLfccKagM+sLy8G39tqES1+H3zz6CAG7uw576VDZQGARH3+hXw8aXq2bk/5osmbBOLMKNTQ6ar/0tNqxc6ab1S8SiWJBhXDRiXEOwVirC68No+vq19EWpOjkA7BoJEOKHHRaGXpbKG0sKY4Aozv0YnI5WU/2sLiFTlcMVWqkcmXMbj6rMmnde6VWUtRQdLZDIE9ue+4xE7AeaTxh3CE6jJr2aDqC5imYV/Z09cxu1HLNAcvMMm0LoSu1oUk855bh82Ah8AspzCcsv0/hbm1jBN6Plm/hi5Sfg6nhGE7GEkQ0RD2AVQzzYyPYbNix9VumRQ63y9peb48izjP7DCBWmXEKsAfi8e1OU3y3uA42dF0uPO2br9ud5WvEXHA+ySSiMyaN9DBLpXVvdXMixVTnG4x1wmAAmlKGZZELzHaRDDwkRMjjgIwquyBSFsQ0x4o9L74WxkTAjS2KavPYCuxa0u0ncwKbtY4GVReS+/OyYwW1LHn2kpS6nhoC1Xf3k/CLUCP9S5CGSs9lfMOREIWxzFqPXYMZM3qH8bC2R9iklPaoNHL0uFv0dCIeKTtddNhat69lA1V+rEoooaP3XhYM04g8olgg7SeTCzzjuuY3eQlC3l6PyXcJhLxHOGh4qtppGU8N0Zien4UDFuf2AudBG9DjbwPfNowNM03xIQAeYeACSQ9s/T411MIVeSWl7aW3J8+gnHUlWt7hallODOXNsukbe2ztYmkiUUL4hxKWK0ZDKoMY/KaQ0ISa6AiBHsXr71AcmlVJlwAqmdeyGJvJCXngwgKLKZu+zfpVsTHlGfvJ42kTlCl/vGfhvQC+XLo6fQwz+nJoX8mPpaQfIBhWM9/yE0OuCutxWzqqA2/T3vhShaQnBssl0WwPOyVNEGwcHTsUbfrrewGWegm0j2F/FfGV00OUarKVnetSQqmVfrgsv4jggy5az3ch6qCDZrVs2X5as4IWiYEcAd8d8Yf37LkCftBEVC7v6Rfj4diaEF9FqCUm/Xh7UihA07z2QzLAJnxlxJ4dgrMQtkVu4TOLI7bkkytB+nL/4IXQira+wlQttmsv09ggvmsrUvynt+wjC1oae8TBbkaNYxdr3NCJLfSi9PAg5X56MXUNq7nBVNgfdEYivLoWvF0g4TVs+jnA8BWyEn37T7ysPYogzOCT2B+fh/tJEYGge2WYz0IQoymplobzazdq6vOMRSoyp03oImBV2Oicy5Hag8ykSzsJXxDt/GGd7bu6CESC258DFC0ppV/MAcnJpIU4NbqiFm+HkcWE6kBY4mOM6p/VOyKIz87sQuUyakUfOzBvwamBAyLI1EKeKxNFyhPh5u2Q/u5CMlDXHJCJeaHcYmB6fEjovPZpYiZF2lXvVFosJgJlihPmb8GsrBY2SAp77sX2GjWPMZsO2tscFwpWN2cI0+lOyzrByOHwnm20oHx6IKtbPzZzTHZNfOn8hRL2l77hjX/Tj6M5c6Yf5p6YKV4aO7tgdA5giaddTHgwtO4c70mL1kwO7QsDDAGqCQSDTWc4WwHpn7JEsy3BH5qDrzLs9YfEgzIKXQUArZWEBi3OE4iG8zSCBXSIidOOlwYIRB+a0QkvQp/2J9RCs2WFyOUXQiQ/YHbfUxvOb0DWnfhWSWSgp48C6OBTozoTvR2AV98PEaLsJKVZVzHJjg3HPiGl2pvwYzRHmWTrs+4zpLTbnNDqu/Sfe6Eoev+FsTdRs02FMrURkFn+kAykOGQfrbW3P863AYjCXWb5Ro27B8pCVohJ/DNoyQQXTyou9/vRN1v0sJ5n4QUSzSZjZCKUowg18sMndthm9K1SzZ1trblq2cr+fj+5/hI2Lyl39sJKjPTwczJdjRsWnAhjBfPx7FmW34+eD51ADog9RBaHXArn6n24hD2+UqvhsGtFSaWMUpjeiAnlriGX/tzQFS9TZBAuEQuYHB5CXmIKz0tQ9/nqRVLHkUsXLBopuQThbGN3giN4DvLLlkMxg74FpfnXLBYD67x0jNFNEPgpHZqhKIfZ3tNH5TsT8DXRxFNxMpxBv2adK5/zqwrPOxOO2i3ntmcjlSawUIh8yxJl7MJhOF0aPQmSWQ/rhVZKyXQTRnIzJkv1ktI4wT8v9ITeLfUomW5gzoz2zicEYp5BQCIgqATcWIPg1zl4bgtGNIoHzVp9hiEl7lM8nQy7SkhIVuoALL3V6hOblSAq21W94MOXJhabMaCvMJhYvilaB5ia7BKRCCRnvUTz+0wY0qHMUMvDx+C5rHcgeIVNZqZySC7oEp77KFiX4cMFfvFVc+6K981KjfgcAyXAwg3fjzrXV5CjFn7vtHQQ1dNjmolsbBvmcQfjnrDrDNunsPLnO6K4woeRb5cDz0mMtYX7PWCtbtmbFCb9dKQugDvYrrWyYB1xp40Py7B2SbuCQuCRAYuZcVCAq6QTS+5QgLm/OGerC7oWeiCLh/pOr5E3yLT0kPvK0hHnYGa0z3UyFDqrANT+ZCm1vnzhMjubtmcDX/G1mVm9/XiIYDKMIq5tY1baUVKqZT6szxHsxpW/z1/abQMVUdvASFEcxXzPToNqMGmd3LycflBH0wfDMAADcONSdQHbn/rpPmN86fdXvdODcrOYvkb+7vKodlQvXi5fCfVCh1soiQmLngeqt8c0ZIyYdhBOxwBNtgy/3kVm5dQ+QjKL6EL6fi6FgRCCFAX67WJQhOFrI1L9+Kq+NMHDjk5vSG8crw+tJHvkoOTObAljVVd+aEG3iUSB3oDXZ4sUGdaCMiXgr+iUb86apfvcJ4WVM+8VIjCyBbJhS4NZhwPpUlhqRBb4fFfIB5BzjBJ1G4JT3VrwuQqgn5mPDBolnepfJvlJmEGOfZfeVtyJcwhLZxhfN2AU69Lwytgj3xmzN+Xd3RwaKeg5GNzeKaG3SaYy2xrx4vraF/goaStxoBOmDIZruH4JsaRiv5ywGdpxsws5LSwdW1hVa7L5MFvQskzKRo+TGr+18kaYRUSrHHlGnGQWFCgoa8V1RvqU3l0FRZ28KYLklpTGDRtCoJZ9Ac5afQEt/8SX2LtkTAtIaR+IRrYVbsuSq/k5u0JZRB8bnbYMI6AGo/PBdCT7lpk5ASkXpb1SiKC91Dp2KccpJpeWxrFYGrY/GDsjBTRexI2aYlGzqXfQ9OHrjMqzVNgSHfTuFc13tRZwDDjCAR9W8qXAgggLfnbv7rG3/L7El3oJvOIf3FrBQupRxtbmLImz2IN/09kwViEUt9Rd4mepypL+sHtdPdCSYw1rCiOM+zZEDgqJonqTsiu3S9wHhq6DyitKhUcUFB8OX2JxH8nIh+0wVOITOeONGPcTW/AIRA1e6F7C8vPiGX++8k2ouIjTVVrcgZj6JUVjJZ2Rlhyd7z/fNffepoy+YipJYyig3lLRsinxEIaEF4b3OfM/30H380z/N88n+B/yuQT/Qz8P4f/Wcwn+B38ewv//rJD/688K+e/3jJL/cwyoPssFY7tpzUWT2UXw+rO9O9H9Ofu35/m//dPfhnEr1r8/eijpx33YwD6KIX8Os+wfx+AgS7aiGpf770fLsneFsy3NUIETguu4L9v9ZwxBWYRGURchUAqj4v9tsG1Pe/+zaL+//zF6v2wt+g8fw33b/kv7jyjoZq3H85UfyZAV+d/+uUy6tfiXf/mX//3/AA==</t>
-  </si>
-  <si>
-    <t>Amazon Prime</t>
-  </si>
-  <si>
-    <t>amazon.com</t>
-  </si>
-  <si>
-    <t>data:image/png;width=500;height=500;base64,iVBORw0KGgoAAAANSUhEUgAAAfQAAAH0CAYAAADL1t+KAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAALEgAACxIB0t1+/AAAABx0RVh0U29mdHdhcmUAQWRvYmUgRmlyZXdvcmtzIENTNui8sowAAAAVdEVYdENyZWF0aW9uIFRpbWUAOS8xMS8xNBdd3BQAADV3SURBVHja7d0JvFzj/cfxJJZGbSWiRe1qa6P2rUiraKlaqkURW1vUFvzV3iJUUVu2e28WRCyJJE0kiJBIBAmxZrEkEiSREARBJIJ7nv/zPWfOvXPnzs2dmeeZmTP3ft7//3lp05j1zPmeZ/s9bQwAAKh4bfgIAAAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAAgQ4AAAh0AABAoAMAAAIdAAACHQAAEOgAAIBABwAABDoAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAACBDgAACHQAAECgAwAAAh0AAAIdAAAQ6AAAgEAHAAAEOgAABDoAACDQAQAAgQ4AAAh0AAAIdAAAQKADAAACHQAAEOgAABDoAACAQAcAAAQ6AAAg0AEAIND5CAAAINABAACBDgAACHQAAECgAwBAoAMAAAIdAAAQ6AAAgEAHAIBABwAABDoAACDQAQAAgQ4AAIEOAAAIdAAAQKADAAACHQAAAh0AABDoAACAQAcAAAQ6AAAEOgAAINABAACBDgAACHQAAAh0AABAoAMAAAIdAAAQ6AAAEOgAAIBABwAABDoAACDQAQAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAACHQAAAh0AABAoAMAAAIdAAAQ6AAAEOgAAIBABwAABDoAACDQAQAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAAgQ4AAAh0AABAoAMAAAIdAAACHQAAEOgAAIBABwAABDoAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQ+QgAACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAACBDgAACHQAAECgAwAAAh0AAAIdAAAQ6ABKLQgCPgS+NxDoAACAQG/hPv/8czNz5kzz6KOPmj59+pj//Oc/5uKLLzZdu3Y1J5xwgjnppJPMBRdcYC6//HJz6623mkGDBpkXXnjBfPzxx63qc1qxYoVZsmSJ+eCDD8xHH31kvvjiC/Ptt9+W7Pn1XPquPvzwQ7No0aLw+b/77ruK/Cy//PJLM3v2bPP444+bfv36mZtuuslccskl4Xmm803n3fnnn28uu+wyc/PNN5v77rvPPPfcc+H7RmVYunSp+eyzz8LvTIfO3WXLlrXaz6O2tjb8zeq6qc/j008/bdWfB4FeoMwuL/3IdCHVBfSggw4yP/rRj0y7du1MmzZt8jrWWWcds9dee5mzzz7bDB8+PAyalnajo5ucCy+80BxyyCFmu+22Mz/84Q/N9773PbPmmmuajTfe2PzsZz8zRx55pLnuuuvCmxyfvvrqKzNu3Dhz1VVXmcMPP9z89Kc/NRtttJFZY401wkPP36lTJ3PUUUeZf//732HgJbV7Uxf3CRMmmH/961/mt7/9rdl0003NKquskvc59/3vf9/stttu5q9//Wt4Y/nee+/xA0+A+fPnm4ceeii8ATv66KPN7rvvbjbffHPTsWPH8Pei81XXma233trsu+++5thjjw1/M08++WQYbC3V888/b66//npzxBFHmJ122sn8+Mc/NmuvvXb4mXTo0CH8PDp37mz+8pe/mHvvvde8++67nEwEevMhrv8+ZswYc+qpp4ahkO+FNJdjgw02CFtWY8eOLfr7+vrrr8Mfyq9//Wvzy1/+0vzqV7/K6VDPQ3MXkAULFphLL700/PHl+xnoYnX//fc7vcd33nknfH5dEPN9fl00/vvf/5pPPvkkEefhU089Zc4880yz2WabFeWc+8EPfhAGyKhRo8IWULFNnTrVHHzwwWaHHXZI9KHfxbRp04r6WahhMGDAAPOb3/zGrLvuugV/hwp6BfywYcPC33Wpett0Q3HggQfmdP2I/86VV14ZtrKbox6lPfbYI+/PYq211jLHHXecefrpp0uSCwR6hVGXrH50u+yyS1EuqE0de++9d3jHXiwK5kJf2x//+McmT+zq6mqz4YYbOr9/9XzMmjUrr/f0zTffmG7duoUh5fr8CtCampqynXfqsfnFL35R0nNONzMDBw4s2nvSkMeuu+5a0vfk+nkUY0hGPXHqadlkk028v2b1gt1yyy05haYL9boV+hpPP/30Jh/3pZdeMvvss09Bj9u2bdsG//2UU06p6/VsrRMLCfQ0TzzxhNlzzz3LelFRd/DcuXO9v7ftt9++4NekHgqN4aZTy0A/IJ/vXd2N+g5yofDXTZDvz19d9aUcClG3v1qH5TznitU6Xbx4sWnfvn3FBLpae76/e93wqkVd7Ne+7bbbmiFDhhTtPC2k9RwfO+64Y9bHfPDBB8MhIZ+fwxZbbGGeffZZutxbs+XLl5tzzjknMRcWjTuPHj3aa7ePxpNdWq/pLQB1v2mMvBjvXWNlzQ1BaJxNwxXF+vx186Nu/GL75z//aVZdddVEnHMap3Qd+sikyUwaC66UQF9vvfW8BbqGoX73u9+V/D1ogqS69n3bb7/9Cn5N6qXJ9MADDzRqYfs6dJOguQYEeiukySnFaOm5HjrZBw8e7O19ajJaoa9FY9PpgX7iiScW9b1rfFGrCLJ59dVXzfrrr1/0z3+bbbbx3lqLb8w0J6EcF/tcju7du3sNdN8tsEoIdLUQizUHIpeuZ80JmD59emIDXfNECpngmc+hSbivvPIKgd6azJkzJ5w1mdQLjGbSa9Z4kgK9R48eJXnvugioJyCzC3errbYq2eeviT2+x1QVci7dl6UIhb59+xLoBVLPWhKGGTSvRKskkhboOieKMZcg26EbG618IdBbgffff99sueWWib/IqLWqG49yB7qCTb0ZpbxAayJRuj//+c8l//y13tsXXVySGOaZh4YBNKxBoOcf5quvvnpi3o9aqRMnTkxUoPued9PcocnABHoLp9m3Wi5VKRcaLfspZ6BroomcfPLJJX3fGk9/++23w+d+7LHHKn5c9ZhjjqmYc07ni1YREOi5efnllxM5X0Dv6c0330xEoGsootTvX70lpZgPQ6CXkYo5VMpFJj5cl7S5BLqKsejHuNpqq5X8fZ922mnh6y/nPAet33fVu3fvijvnNLxCoDdPcyJ005vU96UJsZmrVEoZ6CqaI2qYlOP9q0YFgd5CaaJEsWZXFvPQGuVyBbrW5Kt4Q7nGArXOttytVZciLKrOplnklXbOaWJg5jyGlhzoGt5SmeJ8qVBP0t9bly5dyhboKkajqpDleu+aJ1WqAjwEeompjGalXVjjQ1W3yhHoGotL0thgOY4ZM2YU/Nmr7Gqlvm9VSyyUWrsaNkn6e4xv8FVvQUtY86Hyo/FjJL2hoOJF5Qr0eGVMuT4jH3NCCPSEUREPnyeJKhxp4tYjjzxiJk+eHJ40mlmqWcIaL/U9puYyQcsl0DkKn/mt8TufQxUaj9SeAhqCmTRpUnjOaeLTPffcE65B9lE1L/3QvgOFUjevS4nTUh/a3CbfrnafRWP0WIceeqg544wzwkN7HvzkJz/x9vgqzaz9Fkod6NrDotw9NTfccAOB3tL4mmGpGsW51A7WZBRVfvN1UqqYC4FenkOFhwqhWtY+nl8brOTSWtZKBG1c0dQa5ULKoboMN6h4TqV0ty9cuLAsc3FUSEo3jNkKwmh3MX3vBxxwgJfn0vlY6kBPwqHy1QR6C6Ifi4+CJPoR50t3/r7KGha6rpJAdzvUcsqXZon7aGEpoPMdA9SWvr4qyOUbdJlU+a9///7hceeddzof2jXO94oLlWjNd16ESsW6Pu/Pf/7znHYMU1Gi8847z0t520K+z0oPdE0MbA313VtNoKuLstRdcjGt4VYLy8cyrkKXYBQj0NWq0diYqovp8/3f//4X7v+urQ9LNSNe3YjaEU8z0XWoRaiuSt/V5HThzdeUKVOcn/dPf/pT2eeLJHH80aWUceahqn35uuKKK5yfV5saqURsPrRTm+vzXn755YkJdNUC0bCleiFUBVLDR1oR4ru0tK5VSdlRkUD3oGvXrmWd6Txy5EgvJ6ZCIgmBrlbjyi5GWk2g5SrF7CK9/fbbzZIlS7I+v2Yr/9///Z/XC0++67K1LavLc2qSVqFjnvLiiy96mYQ0dOjQRP2WdZPj63tVqOY7s13fiY+xc/U05EutedeeAb3nfM+rYgS6lpOt7HWo9LWvsXeVmn3ttdcI9JZir732cjohXDeu0FiYj33VNQGv3IGuSVm5DnNopyXfFwINPbzxxhs5vYbbbrvNy3NuvPHGTd48NEU9BS7PeeONNzqf9xoDd33vVVVVifkda/Jfues7aO9uH3MiCqXaDK7Pry2iyxnoGn7Jha53KoHt4zlbw4YtrSLQNXbisn2oum/zvZhnc9hhhzmflLqglTPQO3funPNnLipI43OpimZx51v5SstmfAR6vq0a1YJ3GV7xUfI3fYJcocd1112XiN+xqgZqxrSvc+mss84q6HX46PbON1DTKZhcn/+ggw4qW6DnW45VM/59PO+wYcMI9JZi4MCBBa+l1n7RPvg4MXO9sy1WoD/zzDN5P7fP/b7znbwkDz/8cFkC/fHHHy942ZZ6NnxM4rnmmmuc3/u1116biN+wr5ne8Ra56jXLl4aZXLuBdU589NFHBX8OWg6o89F1Ps68efNKHujaXCnfCZ7aedFHHYxCG0MEekLpxBgyZEg49nrRRReZY489Nmy9Kew6dOjQ5N7UqiPug48lTJrlW65A33nnnQt67n79+nm5GGiXpnwLf4jWC7tOkisk0GXu3LnhZMGePXuGLRNtMKMSmOoK11hmU5MHC/2eM+kGyPVz79atW9l/uxp+8FVARuOphU7089Hdrha+K008dX0dNTU1JQ90VX0sxJ577un83PoNEuitgDZr0UVfF1/90FVRSV/+1VdfbZ544glvz6PZnJUc6JrZWwjNXvUxDqbu40K5XhAKDfSmaIKl5hho3bjKYmrSpMaqFZ66AfBF65tdP3f9DspJG5/4XDXhUpvfRy0LHz0ePpYlqvhVKQPdZQmk5u1QXIZATxQfRTbKGeiFTsjTXuoqnuH6/Bo2KZRrgR/fgV4qffr08b6NbSmpR8bnErX999+/4NeiVQ7bbbed82sYNWqU8+fiYxhp0003zbmuhY9AdymMpd++6/PrJohAh5P0cdBKDnSNYWnIolA+ZlurdG+hTj/99FYV6PF55yPQyzkp7oILLvAW5mohxtvxFmL27Nlhd71rt7/L7yimJVhNDRHm81rU+1GqQHcpXT1+/HgCnUBPFh/dZOUK9I4dO5qlS5cW/N5VLtfl+bVBTC4VtZriOtu7UlvoDzzwQMWOoWvuis+lUnfddZfT69FQiOtr0FwdDe+5Uq/XBhtsULLPxEeguwxf6gbG9WaKQEfetN2kdpmaNWtWODY6YsSIcDxe1Zl8FFopV6BrVrDLrGuN17nWu3YJVNcdz5Ic6KpEqK1K1YJ86aWXwi5dTYa76qqrnJbOlSPQ43Ns8eLFYZewrzB3qbgX09i7j9n1LlvSpn9OLktx40PlZEsR6Orhc7khV8+K60x3Ah1ZadmFSrBqWZKWkWmymPYL157lGmPTnbOvYghJCXRNKnPhWt1LldpcbihcN9Iod6Br/FYT6LQG+e677w7HtbW7msaEtcRNNzyuXbBJaqHr9+SzPLBueFz5mBC39957e/uMfCwHzXXGvWugq7KeSw+fejVcaxAQ6AhpZubo0aPD4NZykc0228z71qhJD3TXpTba7agcgR7/O67zF0od6OrlGTduXLiOXL0bWr+rYYdynHOlDvR4j3Ffh69lpz56O3wsWYtp2a2PTUu0yqfYga69ENSTVCitCHHdipdAb8U0cUW1uHUX7HuPaQI9/0PDFS60/WnSA13LJrV0TRUFNWchKedcKQNdPV8+91AvdEOlbHzsnHf00Ud7ez2uEz3jMf1s27b6DvR99tnH6b3SQifQC6LxR+2+VKrdwgj00lwQXOtf+wr0bL0M6kbXkISvjSgqOdBdJ0+mH506dcq7KllTNAnNx4Ys6uHz5R//+Ifz69EwTS47OLoGunb+c6GbDgKdQM+ZxsM1Bp70fX1ba6C7jj0mYZZ7ZphPnjzZ2xanLSHQVUXM12vWBKpcl2TlQvMXfNSRP+GEExIV6Lnu4Oga6K43MgQ6gZ4T1VQ++eSTE39RJdArP9BjmhykruBKOedKEejablf1xX29Zpc1z00NwbVv3975dWnoxxcfdfp1aK5GsQP997//PYFOoBfXhAkTwq04K+XCSqBXfqBPnTo1nCBUSedcsQNdy7h8FB6KD+3P4Ntbb73lZSLs3//+d2+vSXtS+Pi8Hn30UQKdQK9s2t+8WMt8CHQCPRu1hIoxwdLn9rSlCvT04YcLL7zQ6/a6mlzo24svvuhlKarPFvptt93m5TPThjMEOoFesXxUz8r1UHUjdSWqu8610hGBXrmBripZPrpsczkUPPE55+OmtZgt9LFjx3p971ryVgwaj3f5/cY3XZqcmbRAV+OGQCfQK5JmFBej6Iu64/bYY4+wItkdd9wRlonU3uEzZswIqxxp7+Fzzz2XQG+FgT59+nSz1lpreT/ntBJD3fddunQJJ5Rpa+CJEyeGz6dzTi1VH9XNihXon3zyiddqcNqatlhUhc/HKoQjjzySFjqBTqD7oGIdPpaeZI7XqR5yLks/dGEk0FtXoC9btiys5ObznNMSvt69e4fjus1RVbmkBrpmfPv6TDbffPPwBqFYNCnOx6Q97frni68xdO3cRqAT6BXHNVTSD62X1bKjfFTybmsEemGB7nO3sN12282MGTMmr+f3sdtaMQLddzW4XGZqu1iwYIGX+Q8+C8vceOONXj479VoS6AR6RdEYZrknCRHorSvQp02b5m14p2vXrmE996Y0VRY3iYGu4SefkwMvvvjiol8/fBWWOfjgg729Jl/r0LWhD4FOoFeUfffd18vJ371794JfA4HeugLddUOa+NBOfYVKYqBrmMpXmO+888451SL3Ydttt3V+vSpelaRA1zwM3WAR6AR6xXj66ae9XDz+9re/Ob2Oq6++mkBvJYGu7XN9lA9WGWIXffv2TVSg+6wGpzFt9YKUio/dzfQ79HUD4rolcLwtsXofCHQCvWKcccYZXjYx0AYB5b6jJtArI9B9TIDUsrM5c+Y4vW+tuEhKoL/66qvOe1qnH5oUVko+NkPRVq6+Kg76mBOkeRm1tbUEOoFeGTTLWD8i1xP/kksucX4trqFCoFdOoO+6666JWIblozyoj0DXJik+K+T53IY0VzfccIOXXgVNsPPhgAMOcH49+l3mgkAn0BPhueee83IBef75551fi48xVQI9+YH+7rvveuluHzFihPM552OWvY9A99E7FRdnUW/Ze++9V/JryUMPPZSYa4n2FvdRtjrX75ZAJ9AToaamxss405IlS5xfi0LJ9bVoXTGBnuxAHzlypJfudhWHcaVlUq6v5brrrnN6DVpS5qtlrs9l/PjxZbmW6EbNR+W9XCqzNWfhwoVmzTXXdH4to0ePJtAJ9MrhozqbNo5wpYknalmUa9yQQC9doPtYH6wKal9++aXTe9bY6A477OD8Wi666KKCX4PmnWy22WbeAl0X9VNPPTUcjlCFPNWBV+v/5ptvDgs8aRtk7dymXRR902Q2H5/nlVde6fxafEz01Wf5wQcfEOgEeuXQLOEkLDVRGVgfF7QrrriCQE94oJ955pnO3/N2220Xdqu6ULlSHy1KBWihTjrppLJsYrTBBhuES9r02rXUVHt+L1++3Pl3rMdzfW2aLe9K76mU1zUCnUBPhP3339/5xNfJ7OrSSy/1cqE67rjjCPSEB/rxxx/vJdBdlzf16NHDyzmnyVeFKOUmSLkc22yzTXgejBo1quDeDx/vab311nNeMXPMMceUdG4EgU6gl52qZ/mYWaswdKH9nrfccktvF6VCWm4EeukC/ZBDDnH+njfZZBPn5U3aLMjHOVdIAGnfhPXXXz+x2xBrGEArV954440mrx3ZvP/++17GrnPZg7wpms+jHgjX16ChCQKdQK+oQO/UqZOX7juXjR/69+/v9WJUyCxZAr10ga46/64zubVeW8VpCqWxZJ/nnHYPzMe1116b2DBPP/Q5a33566+/nvN7O/TQQ8u6JFGT6lyfX8sqm7ppIdAJ9MTSOFE5N39YunSpl+Ul6Rd7hROBntxA91XydeDAgQW9V02G89U6jw+FWK7Ug+R6vpUj2C+77LKcQs5HoKqVX+jSOx9lrFVwKB8EOoGeCD7KNeo4+eSTC3r+s846qyj7YOeydSaBXp5A91FRLN/JU+lBpGVmxQg9TezMhZZU+dhqtByHyjM3R+eBj41aNHkyX4MHD3Z+3nXXXTfvVQAEOoGeCD6qs8UVnlS6Mh+33npr0S48hx12GIGe0ED3UbM/Ph577LG83ud9991XtHNul112yWminrYVrsQwz2e+gDbM8dHjpl0gczV37lyz4YYbOj+vig3li0An0BPhpptu8vZj33HHHXO+s9XJU+yLT3V1NYGewED3Gap63lzH0jVXIx6WKdZx1VVXNfs6tL92pQZ6rtuJqrt8rbXWcn4uTRzMZU6Migxtv/32Xrr61YNCoBPoFUmzSX3+2PWjWtl4+rPPPutl7XsuxxprrJFzrwGBXrpAf/nll71+z5rxvrJJaToHNMmqVIHXXKtywoQJFR3oKtqSC+3D7uP5FLJaYpht1zOdc1VVVWG1Sh/PVeieFAQ6gZ4IqoTkY5lJtqIMaq2oOlW/fv3C/+xjzXshS+q0AQ2BnpxA10Ykm2++uffvWjtjaeKWWuKq6a+Z5Foit8oqq5T0nNtoo43MokWLWmyg66Y8F4sXLzYdO3b09ryqDqjfiW4Uzj//fHPUUUd52Vgqfac3BSOBTqBXNB/LTDJnmifpUL16Aj05gS4+9qpO2nmZ/hwrq1jYWgJddGNVKe9r+PDhBf9+CHQCPTG0/KeSLzA+ZssS6KUNdG0g0pLPuZVNymxNgS76LJL+nrTywgWBTqAnxldffVVXqS2JLWzXcfRclhMR6KUN9GKsBU/SsbIx/dYW6BrW87GMrZirE3IZliPQCfSK0bdv38T8wLTkxcd4u8Yyc10bTKCXNtDF94RMl+Occ87xspXq2muvHdZCL8ekuHbt2oXzBeKjWDfn+Qa6TJw4MawPkbQw12S69G1486kOR6AT6Iml6lW+qsb52C1t2rRpTjth6a47n/2yCfTSB7qP9+3jiCsLqg65iooU+jhbbbVVOIO/OS6Brhn9nTt3Dm9AtCWqqrJp+ELPq/3I58+fHx7z5s0Ld5N78cUXwzK3AwYMMDfccEP4Xvfaay+nFnMhgS4+Ksj5PHTzlcsSPAKdQK9IWs/relK4HCo0k04XoEJ/HNmWuBDoyQt0bVKi2cvlOucylyndc889BT2Oyo0uWLDA+/wBfTbaQVAz91944QXnPeBj2sBk0qRJplevXuFscfVm+a6Il8t8nXIN8allXsieDwQ6gV5RdDefvsynFD84nYgPPvhg1tdz0EEH5fVazj777ILeN4FenkAX7WpV6htJdU9r/XI2J554Yl6Ppdr0moeSq7FjxzY7VKSJnPot+grwXAL+kUceCVcfNLfUTN3nLoYNG+al6EyhhzakevPNN71+fgQ6gZ5YKqfp0vWYz7HPPvuY6dOnN/laVHlu6623LvoJ6RroWu/c2gNdoVAotZZ8rilurvjRU0891eRrWb58udlzzz1zeqyLLroo7/FXdfNmeyyFgnoICl0L7cvHH38cLjfTOZXtdfoIQxX70Y5mpQ5z7Tnhuu0ugU6gVxxtl1jMMXXNPr/mmmty2rtcG61of+amHktj7ffee6/T+912222d3s+BBx7o9PxHHHGEU4+ILo4uunTp4vT+VUPbtTWpsV+fNREyD/U8qU53LsMxKgyz0047rfTxbrvttoLep2b4H3/88XWP84c//CFstSeRqt6pSz5+rV27dvX22CowpEJApZgsp/kNgwYNKtrnlOsNYLF6+LR9dfv27Z1eQ7du3Qj0lkxhe/vtt9ctafNxqKtN3Yn57oY2c+bM8EeZ+XgdOnRoUGq20Fmqxx57rNP7UvUqF7qwuTz/CSec4PT82i7S5fm1x7kvqi6ofQF87r6nAFXXfj7niUJ99913z3ozOmTIEKf3qFBXIRPX7utSmTJlSs4lX/M1derU8PspRkU/TSLU7nrF7vU47bTTnF7npZde6vT86lXaZpttnF5DMW94CPQEUctLXXBqhRbSFa8dmjQzV6GhHZEKpUlH6Xsd77zzzua1115zDnPRhgxqKaknQBeBXA51M2svd/2YXS8Y6gZUcQs9nh43n+c/5phjwrW+LlasWBGW09TNWz7Pr0lbhx9+uJkzZ47Xc+6bb74Jt8JUV6Ru2gqZwawu4+uvv96pi1jDCHoN6S29YgVbpXD5na3MjBkzwiEM1waE9m7X9UZLcUs1fKGhQc2l0PUjn9+P3qt+9y7DVek3RnrfGrrK5xqmIU31lrYGBHoG7aKkdba669V4lC522pdak9cU+Lq4ayOMCy+8MJxBqxm9Wg7ki4JnxIgRYeGOpUuXen9/mtykLtlcDoWwXo9P6obU4+b6/Pr7Pun95Pr8OvKZDFYotZTHjBkT7gyom6cjjzyy7pzTP1WJTOfceeedF940ajKZy41jNlozP3To0LA+ecLiNTyC+D8HaX+c+t9M3d8IGv0bSaRzWkvjdI3R9UW9NRofztaCV++Lhnt083bqqaeG+0aoN69c1FLO5/fr+/oRN8DyuYblMuxJoANA0aM8+3/P/POmbgEqgfaY10Q9BbVaoZpvoKEK1arQ2nsfrVsQ6CjXhSwI+BDQqoPcfGdbdkvfN8HHL5tgwRMmeHuICd66zwSvV5ng1ZtMMPVmE8waEP3Zu8NN8IGd1f/ZTBOs+DxryPMbB4EOgCDwH9cN/+S7r02weKoJ3uhngknnGvPwwSa4fzO7ldk6xvRpa0xve5nqYY877NG94RHoz3raf1bbf/Zb3QT3dDRm+B4meOovNvyrTfDZG5w0INABwF+M149yh8dyO1Y/50ETPNnFBIN+EgZyYEM76B6Fd6AQr04dNfbo08xRE/3doMoevaLHCY8+qxgzsnPUwq+AljtAoAOoiHZ58J7tPh9vQ3zABnUBHoZwjcJXR1tTa/9Zq5Z5nzZ5H0Gf+scJj5rUjcLt9njl3wQ6CHQklO2mNK8PsAXDp2S5dALljO6MP1VrfMR+Ycs7bIVXxSHcti6ATVqIBwWEeeNAT3scPe+ADna94Bd8RSDQkbDLpsYc+65hzK2pi9U42+r5fHb9/86kG5QlzmtNg+VjC56Mglyt5J5xS7yw1rfToeetsSH/8Uvc8oJAR8K8NTDqRoy7FdV12X8dE0y5wgRff8JFC+UJ9CC1YOybL03wzNlRi7xHE63mEh7hb0SvZeGTfEkg0JEwX9liNgM3joK8b9voqEoF+72bm+C1Xrb+5go+J5S8jR6s+MIEI/eLbjg1Ua1Pu/ox7VS4xpPYwq53TYDrFc1WD2ezx0c8mz3+7z1TfzfXiXKZga7fx8IJfEUg0JGsi2Zo8atReHdPdSfGraBUq8g8+DO7Vvf+jIIczPVFkc/M2Q+Y4L+pFnGvVFd7j2iJWXiu9k610vu3t+Pa69klaluYYNgu0U3AmCOiY9yfTTDxr9Ex9lhj9GcP/9oEQ+05PWD9aJla3WOlbmibCfRa/d0F4/mSQKAjce2g6J9L5xkzdM/oYhlPCKpJtYbshbRWF9Jhexnz9oPEOEoT6J++bs85e07ev3UU1I/9zna/n2OLwdiCMDPvstvOPWaCD+1Y9hfv2lq8S0zw7TL7L9Y2WRku/bCL1m0PgK2ctmhyVGBm2E7ROvTUBLsmA7069bv48Hm+JBDoSNiFMwjq1vZqvNI8dkRYeCOedFQX6n3a1E9IeuiXJpj3KB8einhe1gdz8O3yJsu1NnUzEDS6aQ0a/LuNHiP41gSTLwp7Alba5a5Av9NOIv18Dl8SCHQku1UUhvuk86IuzerGM4kV7LU942Df306qu6/u4hs9SK2hKx4V+xsYutNKQz0cP9eck2+/4sMCgY6kB3rqP8/obgN9lawXt7oZ8anJR8HQ3WwX6D1R3Wygks//Z8+N1rc3Fegayx++N7esINBRAZe0sIWd8t7jJrj7h9HM4D5pBTzquuFTXfFxicxBO5pg2u0mWPYRHyUqM9DtZi0Nz/eMQNdw1ITT+LBAoKMCL3B2rDAYvm90IauOK3K1zTp5KGzN6+8N6GiC5y62u1a9kfF4Qf12lAGz5OH7fA2yrr4I8jnfX7k+WtnR1Di6Wu8z7sjzkQECHWW/PEat9cCuQw8mnhlNiuudWq+eCvZGXfH6s3gde1+7a9Xjx4Qt/czLX0Cgw/cZGzTcvTz46gMTvP+MCRY9Z8/hr3OIc+vZs5sO9JpovXvw4eSMKXYAgY6kXxw12S1IK7+pfaP7rd2gYldmoNemLXkz8YYW6pIfZreifM3uQb3sQy6DKOJtqPXBJNstbted392hrtBMMLiTLdf6YvMtdC2NayrQFeb32iGoFZ/xQYNAR0VeHhu2RD59LVobnDYLPltrveGYe6qCV49Ud/zEM2zL6emG64Lr7yQIfORwXgYNz1I7byN4vU9U770q1TVelVbdTdXmHthipZuqBN/ZpWsP7tBoImhdoRmdv2N+X7cahBY6CHRU/uXUdl8Gz5wfLV3rWd8Fn1P5zKq0rS41O37qLSb48t2stxFAdD7U1hdAyjjM+0/ZG8S/RTeKaRu3NNo5rSY1B8RuqtKkz9+xPVCrZ/n3UzetOm9f6516HQQ6CHS0pPbRuw/ZNbk/jpb51OS6LWX9/tK18ez4/mtEBW1m2zXtX3/KB4ysN3h1Qf7ZLBO8fIO9Idy1ft+BqvTeonaNz7neqfPMjqs36e0hYY0FU9PEMs2+3wsnidYHOkCgo2XEeWSZvUCOPSEad+xd382+8g0uGi57CzfJ6JEabx+4kTHj7bKgeaPrinc0P2eZi2uLPb9iS9+zXerVxjzyG3vOrB6FeK/0bVTbNtgTPX0lRhj2tsvdvHJD42cK0v7zpPNNbffGu7iFj6Vz8+HOaf8u5xwIdLTUFtQsW1jm7o51teAL3qKyKhXuvVK7vWm83ZaZDVJjn3WttQbXfbo/K/fkib+3xjXYzZfzjZl5pwlG24lqd64dnlvhGvGaPHqC1AVfvZod2vlvE7eCcaLXRhu29MpeHTG8gXi9N98XCHS05Otx/WhisHS+3dHqz9Gkol6O+07H4+1xuKtrf1wXE8wZEhauCYjxFtker10yK9yyNxh9mA3xdaNNgXqkzoU89kAPJ2zekZrd/sGzK+nHSf3ppzPsCo3VopUZmYFun7tWNxTaahgg0NFyL8hBowtz8M5wY+wOWSoyE3an98mtKz5bqEd7YKfWv3dPTXq6+wcmePS3tjxtDxMsnkqoV04/TuM/UbngRc+b4IVr7Az1XxjTd5VoO9Oe8SqK+i71oLkbwPjolSpy9Mx50YZDK+3FSZ3B029PlXxt27hgkl7P+JM5z0Cgo5X65nM7JnmRDfR2aevW27l1x8dHasw9vPBr7bs21Jh0gTH2RiIsJpLlEs6s5FL11qRXawuyRqm2Ow1rGow/3S4l26puYpvWize8Aczlhq9t6rxqW98qH7RDXTGjXO4zwtc3qnP0/A0eOzXfQzeTtjiNWUk7HyDQ0fIv8h/Z/aofPri+6zzPVnqzR02qNRZPkrprHXtxPtAEU64wwcInbff8opW2z+C3tybb3uPBl/NMMHeULQdstycdsY8x/dpH50M8O70m/96bhmPlqaGZ6lVN8Pw/7HyLJfXfedD8tx58/na4XC39ZqJuDF6P+8ivs2zAChDoaD3NtYYhOvte2xrbtkHBD9cjSL+gx0dVqru2e6rrdcAGJhhpi41MuTIaCrDh0mADGngMdH3t30X1/2cPsvuL/8OYEXZnsjvXib6LzK70vm3Tem7aFvb9px7XjPyVLcn6fIPgDf+vmUAP//70Ho12WGuw8dDC8TTOQaADDdjxzOCla+0Eo/WiC6gu7H3bNFNpzkP3fGrTmDBU+tm1xEN3tt29XcLJV+b9iXWTnRoVLckIh+j/g5xafRUbyUHq/cZlf1fyXsPPSZ+dirtMt9vtjrPLF4f+3I6DrxZ1X6c+83y60XO+iYvXn9+3hQnevLPgGxDd2gUj929cHa5v3Dr/Fb9bEOhAg9Z6UNuwC3biWfbCvEqDErJFCfTM7vnq1AS7VJdvrf7zXR1sOdtdw20xg2m3RGvgv3jbmNQ6eGMaN9BaYqRnu6Gp+/Nvl9nejbkmmD/GmGm3RZ/VsF3sBMX16ics9qhfG16s7zBcdx4WI1rLmClX1S1nLPj9fjIjOg+rG8+SD3uSFk3m9wsCHWiY6dHubQ2C/ZPp0VK06rZ5VZtzb+W1bdhVX5W2p3s8Fm9nWweDtrHj/wcZY9fCaxa0mfuI3eDjFRMs/6hFjsmH72nFEhPYJVzmPRvcWj72zFnRioLB9rPot1p9eMefU3WbBkMepli9LTWpeRI1q0Y3gxr3jr+DAntMwn//xX9G7yVzZrsm1008nV52EOhAXuw64WDMUfXdqDWZ1b5KfNSkjt6pmdc90g5d7O+x4/KDt7dBd0hU+OalblG3r0Lwk2lRVTMFo8aTmwn+Yrb6Mx8v+HapLX36oTFLZtvNcZ4KS+2aV28KVwgEY44Iu8uDgT8Kg7vufXdP/bN3quu8hDddJp65Hp4TdjnbkyeGN1TOn0p8A1BrN2MZvG1qsmbaOaeblgEbGrP8YwIdBDqQe8s9LXi0b/UTx9mL6qoZ9bnLEOor6/KtSnXbpybfha25nvUztoP+dpz+PlsIR8vpRh4Q7dA14RQ7y/tCE7zSLSqcMvOuaOb3fNu9r27dRZPC7T2Dz21hlSUzbejOavLQ/x58Zo8Pp0R7c39gd66b94itrW+X7c3sH/UmvGC7o5+xe3uPs5+nLZda+7/dbY/D1nZ4wRZriYOyV+q1p3eXV7Vp1P1crs+5rkX+5Cn2Rmm6t3Ctq53w3tgG5WMbzJifMzh1M8YEShDoQI4X19pGbclg8au2nvup0fKmO/zNivfacszsuq+Jjtqa7KEfVzyr667ukXZUp6qR6XH6t4+Ofk0c4f++RvjPujkBVRmPl/lcPVNh3Tv19+PX2GCznLap/ezbFryEzMtRFU2mC9/r+FOic8H4XHYY1NdvV4u/R8MtgKOu9jPqgj9gRQQIdMADtUafu9x2f25U3wpOTLBnr34XZJ2V3czrrkk7qvM40v+9vF93+T63BhunxDuZxbPiB2xs15JfYb/7t4p1BxndGHy1KFxOF80BaFe/5nz4HrZ63df89kCgA56vvdGx/FNb5rWXqR2ya303d3WbRHXFc+Qe6LVxqFen9SAM28MORVTb7XOXFHXcum7vgVSp19p4iZpew8BN7AqMBfzwQKDzEcDvhTfqjm9YK742XDYVPPFH2x3//briMaWaqMXhr7JfGOTa8GTc8cbMf6LBDVwx1w+Ej6zJcMN2Sq1mSIX53T80ZvG01GtgKhwIdMB/qje8FNez1cjMq/+JZmb3bpNRga5+HJhWfKmPjMp9cfd66jsKx/vVGp92q20Nz2/4rQb1hW2KauG4aD5BPAFOQzp20l18nhHnINCBcmS+/s/O8q6d+He7f/qmYWsrnIBWVeQKdBxZutPbNZwoWJW2Xt3uvhdMsrP8P3yu7Gv4gzm2LO0t9jXdZl/3UDuM89mb/JAAAh3JCXYVRfnCBG8PtXuyn2jMPRtGXampvbTpli/RhLfe9SFu7NI989Rf7TDJ43YN/FcNv6uyRbp95u+W2TkZd9gx+xr7n5ez6QpAoCN5bfU0yxcbo3B/8oRwspNJ7cgWj7kHGbPQCeT8u9bjwi/xZxtOchtkC+48c264xtt8s7SJb6j8I9VB49tBfkIAgY6kttjrLtXam1312VURbWgnO7M5tUd7z1SLMnNNNt30TZfKTZvUpmpywZ3rmuAhu7nJy92MsYVuTC1LvgACHfAa6A1nyDf4p2Yzz+htzONH24pum9Yvn+pRH/AEecPd6uo+H90MDbEzxJ8+045FD7ET2+Y23siF6moAgQ74C/SM7t0mNvAI7JauYS15u8ta8PgxdvLWltF4e1y7vWcrGYNPr18fv3d1pdtSscbuqmaePd8Es+425jNbftbWqM/WGxJ96o0r/wEg0IHS+26FMR+/bMPr3qgW+kOdo81YalKVxO5Ia8nHZVT7ts3SZd+2bq/3stWcr2lbXxc9vdu8OmOHuTtS70e7qWnTmSf+EO5bH9jNZrTVLQACHajgFn7a8fWnxnxka4rbFmrw/OXRZiuDd7Drl9ePgjO9dnqP+rrpJt7opKZELfy08rF1gd0zo358r1S9+Ps3M8GIfUygWehaE645Brb73NR+0+j9AyDQgQoO9IZxFmT5Z7D0fRv0L5jg3RHGTLVd9s+cY7vt7bj88D1N8MCWpvautcOd4+Jx6LAb+47UbPvuGd368dGriSP97/RI29q0e+ox4y1OFeh9bUv77vVM8KC96Xj4l+EmJLVTLjW1b/Y3wcIJdre2WY2WkRmTuZUrkQ4Q6ADCJVvBsg/DbU6Ntjd95392z3QbqNNsDXFtbTrZzrgff7I9uhgz+rd2i9ODo/3VR+5nJ511Mib9sBuGBI/+xv6dg6K/o13CtB3rZFuo5YV/RXXJZw0wZt4ouw2r3Yr183eMUa9CqrUNAAQ64K3F37gbeyWFbVf672f7c5PHYwEAgQ4UEOH1AZ6abZ+W6EGej9b4z4NG3eNUIwdAoAMVdcMAAAQ6AAAg0AEAINABAACBDgAACHQAAECgAwBAoAMAAAIdAAAQ6AAAgEAHAIBABwAABDoAACDQAQAAgQ4AAIEOAAAIdAAAQKADAAACHQAAAh0AABDoAACAQAcAAAQ6AAAEOgAAINABAACBDgAACHQAAAh0AABAoAMAAAIdAAAQ6AAAEOgAAIBABwAABDoAACDQAQAAgQ4AAIEOAAAIdAAAQKADAAACHQAAAh0AABDoAACAQAcAAAQ6AAAEOgAAINABAACBDgAACHQAAAh0AABAoAMAAAIdAAAQ6AAAEOgAAIBABwAABDoAACDQAQAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAAgQ4AAAh0AABAoAMAAAIdAAACHQAAEOgAAIBABwAABDoAACDQAQAg0AEAAIEOAAAIdAAAQKADAECgAwAAAh0AABDoAACAQAcAgEAHAAAEOgAAINABAACBDgAAgQ4AAAh0AABAoAMAAAIdAAACHQAAEOgAAIBABwAABDoAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAAAIdAAACHQAAECgAwAAAh0AABDoAAAQ6AAAgEAHAAAEOgAAINABACDQAQAAgQ4AAAh0AABAoAMAQKADAAACHQAAEOgAAIBABwCAQAcAAAQ6AAAg0AEAAIEOAACBDgAACHQAAECgAwAAAh0AAAIdAAAQ6AAAgEAHAAAEOgAABDoAACDQAQAAgQ4AAAh0AAAIdAAAQKADAAACHQAAEOgAABDoAACAQAcAAAQ6AAAg0AEAAIEOAACBDgAACHQAAECgAwAAAh0AAAIdAAAQ6AAAgEAHAAAEOgAABDoAACDQAQAAgQ4AAAh0AAAIdAAAQKADAAACHQAAEOgAABDoAACAQAcAAAQ6AAAg0AEAINABAACBDgAACHQAAECgAwBAoAMAgIrx/2uOPqeicReWAAAAAElFTkSuQmCC</t>
-  </si>
-  <si>
-    <t>DTSTART:20190711T041626Z
+    <t>a6e4b341adb0571d7e69fa2138cfde60f</t>
+  </si>
+  <si>
+    <t>rVdZz6PYEf0r0ae80TPsYHqUBxuz2OxmNaNWxL5edjAw6v8e/HV6klFeg5Coc7i3LreqKA6///ExfXxFvnz0H1//+Pj7mEzvaxOA5OPrxxkEe9v8TR+KA375yIZ27g76MF9JeBjB5/1foxYcVBG1zcHFwRR8LUCQJXDXZL+9injK/0GcfsuTIsuntxUGY0IRXwrnoj1eiCRk7fk4VNPOOTs7rOsbnl/s+XlcLt55AeJhiB5Sc4bzIM4Rfkmx3WV85HxSE1oHmSBbsDBbqNnhKt5akSCqoCx5UtOyDgW4GgZIoYHUVMj+5im0EsIAdeOmJasMPHG5YTILJgK0foUPF5+pjTqXqUfN+MrXuug2AZHFt4UbWECm1PnuMwPEXA2PMaDrvjTU6oDKkSll8AsxDklk64tCiMp2HJGnL9lIPoyr16ZWCYv6Q1zdNY7J4OC7dKXp8p4zkTrL8zQEaLMSRLzsUV9ybTdEynK6cI6QZ8+Tqs1yG+niHoAlROPHpbROeqNDULH5lj/jUg69XgFvjJyTZFBaECXkcUMnlZtaUuV52fE1l1GagYaBIjX7wspsziniFRlaSiuMUQjRAKBTGNIYGkA9cpHHNcAe9tRLcNQiyvWahXQ8IUzq+cjKzqyR7xJGznFtWTvVdb0v5FbYjLzrX7KnoAq0T9SmK/iK0WXdbkLlSF8NRJXMcnFQNA5tKZRQttpvyjWjA1y1Kuce+JzSW3Z5A0RyvWQk7U8IxC91wZfbcG1KlPZv2nWoHhx7M82UAaRNOH10al/aNW9RiI67arx1d3N0Q1Vw0TmksGkok6ajQ2cnEdKvBxDZKAAu++r58yDFoqMJYU/N4163CX5scSMRzDziyE+WjWAhUxXbLln3p2k2E5nk9v0yB71NRKyeYhvVsWa64wtBPFPVnz2pTmgKmqLaJuzBoWzlveUuG7lwgJl48hzUpBtuT6Pb3agUEiHS+lVH4/AqjSg53RBRLM+bcoR8YaDne70nRg5BKXk7tQa+LT2lWVRxGNXu3q23eTQenHMr8ErLK7tIjK58NwzzXFQ1Z/K2PCd6KFyyl359jXc68YCiiRYxRrrV2gH3HsRJpLPnxlO80DhBtMcE/HL2saQxC9PZqMY46ezrsZLkKtHxjGAuJ/iSOd6V1ruRvJm5BU27yHy3666aq8sFsKVS382qrqOss/EYn5gZOp29z/gpvLObxITvJIlS6jnn1htLRENVC/wrUq8p7mF4xz6UKr891sFEJr0QIQjC0wWl0Nhz1mHHMLC4IZNl9ZH/nLtwPffQhDQcMVOXFSD0+a0wdiidEujpl09M9XMVsHUCtvKlXl8MHerxzB7paRMzFXHUfmJaiaVb0SHR5jiS6Ui0pOvYOKNjxkm+tGnp7tZTuNuxyVUta7puv6vandviyOpZaJnIyMpfsNyZHLDvdT/uFkVBsFzUd79qOxBN+kwPp5TKNgtRr8brKE9XM/tnIOT1qpG4rlPJMihkopUZ0VgkaQ/FsE8CHWtAKYzioqAe/moFaQ3kISdcTteXIptNo7YgOOzQ1SHB0TZGD3AgnwOHG/kKafl2xNTSuo3jxuWC2duqjNHuaeDbRaosVZ92G00sxq+n2vA2KN1P87bfTM7gJOLO8gqTpjieJHCBeLvjuonTk1GQej0aPStlcz2fr8FYn018gjuESpwWaX1xWeZ4c7n+IbN3o7lb3ImBAssJmOApy6BqA/FSWWli34jed/Mx1M1YtCalzs+zaVb3o4ruenfkGz66VIBN6VJcRTIzWNbD8WZeysXHVMtGt4Z3sC2vZ91zXQZHNpuhyNjxyuemsLzKH+VzbmVQP9JZT2fTBdgJ85dmI+Ng9twFhhcEhDrsTvsOQZo2z8kzIJ8tYmaO8Kh8JBYfBNzaHqNbiHZ3aq6nZZLxPBSehziZxiVVtaMcUX/SYzxBaRyGoIFZ15wJXWdQKZKGFHbbRj/mJARyFKYmYIOGwZqHS0f3lAumoX+P7bznJADL8kcMJCIiQw0sghPjO6/WTEszRHPTp299tXkIXtU4CzM0ksVzf4e8cOZ0GpcZPdjjF5VgFWlG4u7HO3jIFFyEck37a8sH4TRo/koWiNGmheSgITcBTY+AayRyUKGeHw6B7K4QMDxZCwP5fBQJlF8ba+nO3qUEKAFbMEhPME+Xe04DarbH5WhcWqj6dpWWG71uInRKyCmbqTibTykPQtDXU1vxakq11kBz2A7nKf70DxfQtQ0pzYMEHYdvskI30WXwACA78YksJ2nEyhkx2SCikiC15tsJP9G86umL54nzPmY4qsCGQNO74sJzdcISzn5y/MY0LwP1R3LO9gvvTyqxlJpn5fJwPKOiTCUtFia9bWWqNqYS1AOvRVRh5KN+tVDVXGlZGd3bvern6zjQ5UueGcRsq9tdU4pKZ1e/pI+uOC8KRE8kCvYcsYddug05Fq813dhHLoYQl5HgSZ7yHYo4k5DuSaJFGnFzzeSSi5f7rRAUtpAMjsufkNC4+tirchAQpMP4k3Kv9cskdP4DKp4yOV+vChJExKliIk1Qoxt7vBtPwClsf8wvgDsEjwVexRCsj65j+FULoqpZXg1aFrC5tc/Yxt3UUX/Gfr0Sc3PlZsGPjEfmmlVrnZEWPREV2S+nwtRymyjTWWXzpK4vwypKnfOcM7wRZ5lhyHOk0Xh5WUvMTcgkA+RqruEe3yh+MokziNcHYiHCxQbHF5K5pEHxeqZWCl2h4lrObcnKNX+zDhlx1mqLRvBMXxBbb1rsZlAhqRPs0bEl4y7u/Kfq42reqszZACx7SMqmnZLxh+AMQDs3hzZFsUOrBlH0A73vRMGUZO2w/UDDMNfJW8L+Mwqi/NMK6vrjaxrUY/LlI0zSdjjY378dXo7vxPDDDJPplSTNG3z/8tEORaZ1U9E243t+OiT9p0SOp3EKhveyGIIyvyDULwhqodhXBDnOXxEE8d8yuDm8LsGxJPp29X9wc6jtavwh0v+97Wau6y8fh1nUP8G0F/FPO9wOGd+1438waJspP3ZHffsTxcERsd/RT6L5L+aT2JJg+IQ/HRzRqZr2r/gvA5r/YfJ2fkcXxX6sWTTz9A488u3HAx5/C/GfMAnGz1y8534/wjbm7escL0ETJfGfuRvbYdKOFnyM+wX9/v37t38B</t>
+  </si>
+  <si>
+    <t>data:image/png;width=48;height=48;base64,iVBORw0KGgoAAAANSUhEUgAAADAAAAAwCAYAAABXAvmHAAAHX0lEQVR4Ac3Bf2zW9Z0A8Ne7PmgGLT/GuT1Sp3N3oTcGHNmjjF5OOgp1m3Nba0iOmfSM5qIXM7Mb/m1Wdno5kgmY3Ln9gT/4a1lwbRW3u6y6AjfX6u3xFlPHWna4gdIvErCm5f6AJZ9r+9DQX9Q+Dzvn6xVmkVL6MrZiHdb50yqiiGcjoss0YZKU0hrsxXofTj/HPRHxWxdd5aKU0pfx77jJh9cNuLutra1nx44dvzcqjEoprcMv8BEVGhgY8NOuLocPHzamvb1dRBjT8PnP++iyZTZu3Kh+wwaFQsEVeg+fi4j+XErpKjyNj6jAvz3xhL179+rr65OUBCLChEMHD0ro6OiQsGb1am1tbb721a+q0BLsxa2RUtqK/co0MDDgb7dt09fXZ0xCuCQhzK25udlTTz6ppqZGhTbnsFWZBgYGNG7Z4lSWGZMQpgpzS+js7DQ0NKSjvV11dbUKbK1CkzIMDg7a3NTkVJaZEMqTUjIm4eDBg57Zt0+FvliFjyrDnj17ZIODrkRECISSf9m5U4Vqc8owODho1+7dpksIpJSsWbNGW1ub62trjenp7bVz505ZlrmcU1mmWCwqFArKdHVOGbq6uszloe3b7dy502SFQsFtTU02b9kiyzKTJYSSnt5ehUJBuaqU4cCPf2y6pCSfz3v44YfNZuXKle76+tclU4UrV6UMDQ0NpgsEbr/9dtXV1S7nEzfcIJQkM504flwlcsrwjQce8I0HHjAyMqK/v9+Ynt5eY25rajKXz6xaZUKYKuHN3/1OJXIqUF1drVAoGFMoFMzH4sWLJQQSAiklESFULuePbGBgwPDwsJ7eXmMOHT4scPToUaEklESEK5VzhQYHB7344oueP3BAZ2enSiSVy6nQ8PCwRx55xK7du02WEGZKSsJMoXI5FSgWi77W0uJUlpkukBBmCjMlJSkllcgpU3d3t9u+8AXTJYSSMFVzS4t3z5516NAhExIC4crklGFwcNDf3X23pCRMkhIRxrS0tPiH+++3fv161dXVxrz22mvWb9gglISShEBEqEROGfbs2SPLMmGqhIiQz+fte+YZjY2NZhNmClemyjwNDw97bPduCclUoeSfH31UY2Oj2fyip0cyVVKSVK7KPP2su1sgEKZKyOfzWltbzUdSEkoCSWWqzNOJEydcTqC+vt5cThw/LpSEmUJlqszT66+/LilJZkopmctPu7r8f6gyT0NDQwIpJWOSqYaGhlxO53PP6evrM5eOjg4nT55UrirztG7dOmMiQiBM1X3woGKxaLrh4WEPPviguSQlT+/bp1xV5mnx4sXmEmhuaVEsFk0oFos2NjTIssyEhGSqUNL27W8rFovKkTNPtzU1eT9ZltlQXy+fz8uyzISEQEK4JCFM9ff33ee/i0XzVWWeVq5cafXq1cYkMyWXZFlmslAS3t/p06eVo0oZHvvudyWEqRLCJQnJTE89+aTVa9aYLLmkoaHBkTfeUI4qZWhsbPSdHTtMlhAuSSkJJUlJPp+3f/9+ra2tfviDH5gQCCX33nuvjvZ2NTU1ynFV2yhluPXWW930yU965dVXjYyMCFNFhIRAoLmlRfuPfuSWm282Zvny5dauXWv//v0mbP/Wtzz++OOuueYa5Yo0SgVGRkZ0dHR4/oUX9PT0OJVlEq7L59XX1/urdetsvfNOdXV1ZtPd3e173/++r9xxh9bWVrN657+MCyysZdEK0+VM9l4/Q7/mxhbvp7q6Wmtrq9bWVpXYtGmTTZs2meH0L+n/Hm89ZVwoSfjSb1hSZ7IqkyX03kl3C/970gduqJ+XbuEP73L9Pazdw6e2k5ScHzZdzmRL6/ibLl7ZxoFabtrOZx5i0QofiKV1bEtmOPcmWQeLak1XZbraLWx+mQXLObaLA7W8+hDnTvpAXBjm14/T/mf8/F7jzh7m6uUsvM50ObNZUkfjy7xyH+8e5tgu6dgu8fFmbmqltokFNf6oTr7E2z/hf3YZF7j+Dob6OX+GP3/ILM7ncBrXmm5pHY0v8Ks2ju0SCac6eafTuI8387FNXPvXXHuzsg31M/QG77zMW/uk82eEUYEFy9nwQ1Zs5ugzBFZtN4vjOXThLrNZUMMtj7HiS7yyjfNnSMalrFOc6iQhsPDT1NSx7LMsWIJkquDsr7jwLu90SokIJOMikPCxZj73BAuvM+7t51mzh0UrzKIrh2dxl7nUbuErb3L0aY58hz+cES4KJeeOcO4IWSeBhHBJIiGMCiKQEEhY+GnWPsqNLaa45V9ZtMJlPBtGpZR+iYL5uDDM0ac48k9cOGNcICkJJYmEMCqQEEimWraRv/xHbmxRpp9FxOacknvwn1ji/SyoYdU3WfVNTr7E2z/hxD4unDEuGZcQRgWSkoTA0o184k5qv8iSOhU4jfuNChellBrxHKpVYug3nHuL995AcO73jBxj2We5egm5xSxbzdI6FtS4AmdxR0T0GBUmSSn9BfaiwYfTf+D+iDjuojCLlFITtqKAOlT703gPv0UPno2IQ6b5P4CIiQKQJHzFAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>DTSTART:20190601T120000Z
 RRULE:FREQ=YEARLY;INTERVAL=1</t>
   </si>
   <si>
-    <t>a18c0f66a4e7bf7b3b354907a417f3550</t>
-  </si>
-  <si>
-    <t>LVXHruPaEfyXC+80MElRYriDWZDUYaaYo+0Fc85J5MP8uzl+7k1XdQONxjnoqn/99bV8fcM/vsav77++/jGny5/chW369f2lhUdcpHH99eMrn/p1uEoX3NPoAsWyDN8QlPd93qT/jPv26pRx312tJFzC77IN8xQauvznXiZL8Qu9/yzSMi+WPygK5xR7/CgdWjV2WOLynrribdoFsPMLMX8olTOUfyX6TLsJvgAr1A3QHeNBRSiduaddGB1FpNAJ8Xi8RHDaHEPfu/J0uK/cox0FsLCw1wZYzgpqzeCMjU5sJqB4UMC3Hh9H8SCVQgcCpYs1Yn8kcQO3j8Xxk3skuJpF0/Md9L7daLRZYvaCJ3cHO1Ft7UoP4oUnBjgss55MF3/md8dsK0bQag/gWjWsnqCNHpAg7QHq8K6t5pWlyBqLLw9Wk5jxlVj0qcnUccjmFI78qlcFtRzkEX9uL+7jIv5L9rnQ2mWlJOq3czrqyxbUQPZkFMWq0W5DqjVgvc4Wh9TVkWE9JRJbfMPuY4wVptq5TGlByzBVkGb6EK4kXDGDpAvgMgSEhSEfLlMRLJ981nmpp+44iXjIGzhY0L7rMiFv09ipgiTCtyOrzvPkP2cB0Z0/m4KH42EhZ2h96upA9MpntutksUldk6h5UmSVX7dwCq3aKKz9VlnnKT1FFrIxyDSIuN+0Gtuz/b73+DQajFHIW1bHTZ207nm321bivBUq345nDwAfnCzmnjhdQvXqmOmJ8jc0Ig3LcbZEi+dAZ62T2z+EIAkS57KadVe0KH25swzrxbSuQ8qpZ6xvd9jxvTk8b+k+w2/7/T5PNpA0TQelw2soGzTKc3XmdzXbyuwlK6IjvfSBsdyoTjSw5KDyjE2pvNh0J4wO/VVpz+mGVqimaQAlGGwZ0E1/sJg09kGDUMbGos67TZrB4Y48QqGajCcoM0hzFgOiWly4q+vPoQSPyHj2pqVkSlzK5rg+bxXW3201emarKHdlcjsOykln1zl5fORMMwhek9lIVDouPYhYGvVgFbygXaJGbTgLpcarlfuIJ3ifaTEaQdtO68b4rCp0Z38iFmjy3Voq23LxNYWevApAbj1ShS/1/hYfKxCM9EiW+UF607FV5dQ8AjDQjgAaOxZBH7KnaFn5A3ccWYJI/mmGaUiNb3AGg9yosaogihmHvGRSeUyHWG2Jw7YLMTe+cjITmSkSxYBrRBnfCRPhRRh+Vw/i/BgOlgJpgyWSBoXsJTqRROBtfXalRrU5Ivcxe34GYCJGpjDjZg6lppuCk0CNKRQq4d8sKIqVvAeQZlEm+jE5KUj93esQlNhA5y28ZCOibYqmRDDRswi6Shxwle5K8044a5n7Y77v5RtC40i4eW9lQEpmQB/4njCP64rR63TsNnXAwGRCMCnX+yWr5W/CGZjIcpxNAt1JlrubZaWy8+28hQwh19u7twisa2btxeNy87pD5wS/B11qH0LJwpnZqRNg+lhLknEbxoPWDcwKzwlbxkM0nmXUzGvqRJrcbCLCdfE9eeDiPYNfHF4F7vLG1Xw1bOORaoR4O6EbQ5PBjhcq4KNs6LmtX5Rlo7OWzPjQ30XWDVxW5BeLvv5n9MxX45FaATa+G5MuvUG76ur2IHOXeO9V6iaavI/GYAaJntCzYA/m0I5R5Z7ZR/4ssZM919apSMF+d9LwVs4PTCcakTEjx7ItMqajG/fMMclB9OKsI/18yD1hRcAHZNhMa7RUrK2yvo+p/JwG6CZN0fjCyTkJEPQx2a5/76VpMjhTV0ZOWkmyDqbFScynY/WwNq/Zw1seiaowRp2qcWdUNO/IH1FFxVuywySuzpvrNyWyrv1zDF5+JXiXLhkPQ8+f9ZJomedoDhf0zLVPN0KmbFpPl+KufXGWamuya/CKRb0DlEdr7zMm4TjycgrYqGt6BGFQBXqXbVTxtBEzGn3Ofz7EuJwbxKlQytAHVJGpZo61GNGZVKcbkQhzq6ehAQxsAtLaqKvXRNCEcalYVD9hJ/yf84GGtWpz1VuGuWy165d0/tt7w7Zfu8uiv54w/IfG8f/5ReJwSfN+Ov5m07Q2qblMZZdfhZdlWpRhfd9hhIRxBLHgB4LDcPDvzjBsGXyzBtB/uQBIsv9TeFvAcCj51/0aMxf9TiVb2MVp8vWdhc2c/v79+z//BQ==</t>
-  </si>
-  <si>
-    <t>Paycheck</t>
-  </si>
-  <si>
-    <t>http://google.com</t>
-  </si>
-  <si>
-    <t>data:image/png;width=32;height=32;base64,iVBORw0KGgoAAAANSUhEUgAAACAAAAAgCAYAAABzenr0AAAFIklEQVR4Ab3BfWzUhRnA8e/z/H7ctb0elypooWLryWDgXBVMEF0IwkREtzj/mSZzcRnJlrEMX/ZHmXHcbcpKiInEZMncP8w4dcl0m4tVYd2bIWPTBBs2EoYUlPBSi6Ut7d2V6z3PuniX/HI56EG6fT5CncxsNnCvu68BOoE0kORTo8BRoE9EeoE3VHWUOgjTMLPF7t4FPKCqDdTBzPLAyyLSraqHuQjhAty9ycx+DGxW1YDLYGaTwLMi8kNVzVODUIOZLXL336jqUmaAmR0QkftV9QOqCFXMbJm7v62qc6hSOnWCiT/tprj/PSY/7MdGhsEdnZ0iaE8T61xGfO16grYFVDOzQVVdJyLvEyFEmNkid9+rqnOIKJ0+yfjzzzHxzh/BnYsSIX77ahLf3kzQOp8oMxsUkdtU9QPKAsrMLOHuvaraTkRhTw+jTzzK5JF/U6/SR8covPk6wfw2wo7rqRCRhLvfkclkdmWz2UmmKGXu/iNVXUpE7pVfcG57Bi/kuVSez3H+3b9RTVVvdPcsZQFTzGwx8IKIKGWFPT2MPbeDWsL0QhruupeGOzcQv20VYXsaz+ews0NUNNzzFZKPPQEiVHP3FZlM5uVsNjsUMsXdu1Q1oKx06gRjz3ZTLZjXRvMjXcSWr6BaYuMmzr+3j3PPPE38C6tp3vQ4F6KqoZl1ARvF3VNmdlpVGygb3/k9cr/fR9SsJZ8jtW0nkkxyMZ4bR5oSTMfMciLSqu5+j6o2UOb5fuJLnid+yyAVesWVzH7qGSSZZDrSlKAeqtoEbFB3X0OED/wKAqPpzhMk7juGxJzENzehqRZmmruvCYFOInzoz1TElgwTtjUTW7ue/5HOEEgT4eMHiQo+cyuEIReydts49Xryvjirl4ZEpBVIElUcJEoaFzJTTg47VVLK/9H5SaeaAqNEzZpLlOcOM1MScaHKSAgcBa6kTJpvwIcGqDg9fJCrbJJZGlJL7w8S1HJ00Nj48zxRV6eEKv0K9BEhLXdQ8dbENTxwMk3Psb9wqf5xpES1RfMCqvSpiPQSIVd/lSIhO8Y+T/bcMgoE/PTAS3xSGKZeYwXn138vEnXtHKU1JUSJSK8Cb5hZnjJp7OBniS28VuigYqgwwiN/3cbI+XNMp1iCp347wdC4E3V3Z0iUmeVEpCfIZrMTW7duTYvIzZS1tyzld/29FG2SijOFs+z+aC8LkvNoT86nlsPDH7LlD2/zr0NpQKm4IiF0fSnOrECocPddqvpqyBQR6Tazr6tqyJR5iblsueVbPLlvJ1Gnc2d47J2f0DG7jZWtN7OguRUR4eP8J+z/+CB9Zw7hOEHbfpoGvotMtvBfm9fHaYwJFWZWFJHtTBHKSqXSDlX9PhEvHnqdne+/wOWQUpLGge/wjeWdPLwqRpSZdQdBsIUpSpmqbjWzfxLxtcVf5umVj9IUNnKpNMzx0BdP8fCqGFFm1qeqWcoCyrLZbDGTyexx9wdFJEHZ9alrubtjFUOFYY6OHseZ3vKrbqD79sdZ134rUWY2oKrrRGSQMqGKu99kZrtVdS5VTo0Psuf4Xt4dOMCRkeOcnRjBHVLxJO3J+dw097OsvWYli1uuo5qZDYjIXaraR4RQg5ktdPfXVPVGZoCZ9anq/SLST5WAGrLZ7FAmk9nl7jF3XyEiymUws6K771DVh0RkkBqEaZjZQnfvAh5U1SbqYGY54Jcisl1Vj3ARQp3MLAlscPc1QCeQBlJ8agToB/pEpFdEekRkjDr8B8RQFTbk50VaAAAAAElFTkSuQmCC</t>
-  </si>
-  <si>
-    <t>DTSTART:20190711T041700Z
-RRULE:FREQ=WEEKLY;INTERVAL=2</t>
-  </si>
-  <si>
-    <t>rrule</t>
-  </si>
-  <si>
-    <t>a854b0cb63245bedc0e08a2b931fef97f</t>
-  </si>
-  <si>
-    <t>nHvHkuvalty/3NCMHSI8we7oAbz3HhrBEd4bAuif1+a5bV5PpJBOBKOqSGBjY63MXJmoOv/r3/7a/vpn6J/+mv/653/763+sxfb7OiR98dc//yXu3f7XP/1VLuM+gR/Bt98iBd9U4P3/mY09eKPOxgG8kydb8s91n5TFs5mK8l++db5V/wojEPQvVVGX1favBAr9S5qsBYH90/PdPDGLiuywmuKSohyvnSkKfPOP/8znStE8lwf6UlgUTVEWeJNuKYoF52p3ItpQxo6HiuC32vNtisid2utH6ryxKKQOzcG+6pciTbT6RmCNOLTKqPeHJMDe0v54HZdUJoH1lroMdl1azzi9S4ROKga589DJ8AWdSBANjxnpadYUWbATlob0Fod2JYnVlgr4bQzlW/r3axs9+LmHu1zgDqmmMWOotky0F9OR6Vh417FDR65PlRbyvmKHgtUm2qKbu7WaQg0HO3W3vQzWWiVW+mpudGisdWhuu2muRvxeOkuVEvMfL+khsecVCxHhtbbwX/uR27iB6v+sDZqj+YWj2oUfWZ/91sMNh/xqNXlpNfw7f8vQbs8FHlMD/Jau/1rXFvw7QuUJ3MOUIliZ9XZv9Hydoj5kOlL9X9cE98n+wzX/T/0ANS8EeE0HjQBfv64HgfpVUC5ShHq99+zCq79rhTcpAh2FwH/Vm9s15r2lDvkP19Qhr/d7UNsxF+2vUZMHWHOPAvuIem+PkPemolWVMeSpNtSRwTaeCd4BzrnB/q8I8Z04iJpfn9KQIixU7qLQPrLOPlLk+5bav/cv8fSYouB9pDoyhmati7o0lgO980qFg6sI+dXufSdM+2dvGQfrRtvtGWpXaa93jgfw9asPg08Aa4Te0JzO0qzdtF+DBb13eV6/S8TmeM4GxdDdSjA8mdUh7R/WA/eE+lsc4NA/rNf+t/Va7v+63h8M/13zX2+vJIy7mIsvUOcS7PdXDyIBGABYAPXzZRv09He82ndTzI6IxlmQxumCflMYwOOpeR5qsDFneTavuxZscBFutRpqgR7/x3qgl00ewF062P+wnv3f1jPY/+t6x2/vKvrD9sTFod5kfffNhe5IG6w0mfd/8uDv48o/2EoDH4pc8Dn7xjKBbxLEhyTB32Owj6wGnD6eO0Xhf3PTotvvH9ERn8iX4SiKoynr/+vF/CNLqVJjqe9/vv7ruPL3Ap9b4PX9b8f8v7+eTyCLnEQNEbdSGs1ZFMNZHMtZ4vOkOB3cFAukE1wHXPMf/1kSS1OtwFCjSFvglr/gVWr//RgK3M83kmgqk2n7zzk8ZXk8bWkCTQHIWZpP2VxFsTztWXKVRYLNleZ3TEWa1sWK+3oC6Uii1sqO9C3lqNE8WVSYttVvnbd8/s5DQZXdXLU6O/cCeUgQGS3C6KVzMev7uRsLNvYRDUVh27fR+n2CQrviT1EaxKTKdprrxWkQKPRv7xxQSI2jLU9gbUpkfnWmOFtyOcYC8Iss/SxjjlsdyaWtpPI2SWR07spm5VqfLG31CiPd+s2zlp/bhfPtjAaCbWjTLNiPvEDvIhQLDLdjAt8+eLa87LbS7U5urej5HkGRf7WTbOrkKPPLogeBzvtBUgKBEs9FfKd9nbvacQsPZ0jF+ObVZAnMUoSLBT6SWI5jFR7mh9w8lY/HH807eJJ5930qXSIyOFfAxLYhYX02cBiqH5EoW+wm6r6yXVqQjuSdfI71yZem9465hw53z7WPw6pNLWu3CoiAtwc4WYTDmTKx59wPZNxfBAlxcgc+Re/14FsWfBp/BKKSN1jDu+Cp2DvnwPXShB5xgEO45eE9xif0nJcnJaTmV/BUuPDY0CfuD4p470XPPuAI8/0hNs6d8Rou4ui6EqdmQTOXBI8LVbeJZumOJo+Tz6K9lK/h2P22+sp7gqfH42q2eIMOP8/BPhf+eGs3681tvMtr9YD/bIN/5rp2gOtYC/yYUxbr08+TYtqyQCBqX+AlJcHdPK8BFh/DOxje+T171rNo+PPSP8k7DVX1jCpigNnnss/yRezpbmJ+5NaQL4AFPgMO9kkTC0xboNQX9Azi9xNtgJgaq1ATaPDIO2xdi/ltu7AYdKBu7es4dM5gBrjYyJd6xsfvAowJP0CtTCcm46uQpks9iSOo+wA043M1MK08ReJ4fml12FvbYLiXBL0XeGx+66Pft0tUFfmZCVApCHoakyB4+Td6u4v5DsER8LMzw45MF3D/XO/BKYmhjap0zJHkoQvuMh4BIH6VnIfHcEV37zoaOeg1DBuLiQI83e7Dz4sjILYndpvIusaQ+vF+WPPyRXwqxvGcUJ/uP/AeiVScnMPAQgrAw/BrRH2+XRgHkCmfj+y2ctK2O3XO/c88YCskzsUh5emSPJfsJT54GfMUYIbeQYyaZ7yB+iz3w4S1nn1y9+ua7aqjx/UxP2FQnrvFHhPxelLKc37tU1uOM3lLAAeGlT42XluXLAh/XPkQH7hcn3Cfz3s7Vpta0cCtwv5jvoYtEmFzZnDi6VMmSbE3ompundANbMxzCm7gx5fEBg0VjlObQhFtoxd2ZW4EATTKAI3DFkdvn6g+2J9twKpXJL2G8jML2mQOPzwDyL8zozhgPv6AXRyEImVh+dn2aeo6MQnMf2fEyepkqAR3r7vckfJzZ85vF//TA8C88HouqEePNmxMXwZ3QJ/6sZxyd/4YP06MHz//kAP29CP5KcQt8RwKQgt5ggEb0bN1fH0erYm78MP7LI/Fa16P1OVgR57kcV96UFPQUKqYCOJ5Pn15HrxLop/zFNS5XEIfn+i4FRSkH98+/Pyy7mPxK1jbTiACYwVBP9x6DigIGSSfa1naD3LCFm2+nh5kTXeAns0STe90lj+fP0Ux/XcsEqjfng+5/5DUe9xJeZJ4oHcmepMB/ec6DGFMx30ryvh0Bmaip1f49/1G5Md/jOC88G0tskZ2vr63EQ6Hkpnkf1fNK0YCfy5PX/dN/3b3q+FxxXWRPvt7C+Tn36E/TbA20fGnYGo5xYCY3RheyKvp5xE2GgecdsY0fLNFUDPhIga/1sH+QNveWfMwiWqu7vv5eMB1DLRh+HGbM708B1rkqc1jj9XV7aFKPz0Y6GC9tU9uBGUGNQTE2QFv/CW77d/geE9/zo63p1L8aOUN7hwf59VPDb99/Zc72wL++LOxTH3sBDQNc1zVL+MChhFfTXHOnc8BmHUAHQ+t593M643jN2Rqa4Tr3wRQD5TGe483sSylDITjp9OuEkDdeOcWgPQfxP5BgVJscA5A32IZZA/RloeG+Vsb+lF6+gg300f3vTJXbBuGH1vPJLeN3gXtb4DiTXAxe8uNF6bOXO3fKP3U14/S01N42zVQ0OgFW2eP3srHvyfi17E2N8G5DBDdST8AVbo5tbuhu0cftD3BgegKHy+PQ0DX7jlVwhX40o2adfgKdfX1K531tuHaxF6z/mQukX1dtWch12psQ/pTzBZA4kyxw98fhaVIA+HSWLetMIB3Pe0fwDQRbMD6LPtYHkOrCOnZARsJaBbOARrbyIoA0Vq/YIDGRl947b5wVo9yxI/tugZIZmOPP6hD/ekZasTceT5WbUut/6kfIFCHgz2gjyEHDLpdQA3QOxRQcBrEn95eJABcaWLo/HKHlg2D1sHl3+LojxRJs7zDp7vinwnX7CCLt209kD4Nfx+mEbj0+Lv07t0Xdg9CWvh1B/SC136gwJ6BosL7CD+mbkmVNY5dTQKYvAFts/c0NWDuio8jPsLh+mQriyYoK87x/X6Dymmg8NFGpnMyDQPA7keBLHSI4JMYvGPP8gkMkrwYAqIq9iJNZm0yBRV1QOPM/5gzuc8+NqJ5fsk+TaTr6t3wA0tT++T7XpyNdSBz2H6SWP5SQPK9UEcFVH1+flXHKdBySSReGphaphtkEW7K4R42sAY9/1T1T98GDPU0HMeTS5lbV6VB19wfYySAikZd4mnp+ut1GnJBnDOo+K8uQNBsuAJSayNKHDMVT9gabjOtCGtv7Q/eiWcIZkO4jwIDxmyLPouJ03G+gG7sOOM/ZfsQOZzc1/VCG/lVAh4nIRi+YkhMIhnD3HHjbpHubRynrbf/5oJ5Rve/n6e49xUeEhebGToDkps/8TpZcD9P6DUDh3L537NvseqQDtE0Etw8FTAVm2dYLMtjvYCHhFxTyHCX3VOwqT/WAz5/twwOAfl8uBmCJgQy3nD59D6b9lBJ1314eWATQ+C3ptlN8/zV8Tszk3hCs3wkwbQa3CUewl5Vj8pUFdgBBHcS/QEEAcCMGIBh7faP7MX16+C2o77t3FUbcGmI+IQErojz2/k8+jiRnMoyhaBw6xffwRrWh+R02fBjtdDgPh5hl0mhhn1/nzcHD0Qu6PqSeAbhA9BnfZ7aAEVIIx+GKAPNvY/f5n/d9sHUwp/OlbO5p9rMdWP9czNG+KOeOg2Wb97ujD7Vy03qU0UnKFLn+PR3A26H39mPBeae60SlUcBZ5ArPmApcSw2DcW7DoKZudj5dHKgj/fVq+cI705xlNBN6MwT07fNgGUzlxRRrfKhqff2hWfDk0N/djyKZDim5SE5eA0sc4XF8c2u4FSPKps2mn3+3viePo+VSODqHlhx3MOZNIz1Okfws43FmyDZ0u6d6/AgaUF8obIxbKCYAGmbgm01cfqDCLi6F5cD6aiMXxseDirBOgXEEug5klZ73wuUAKHU8JrSfiP1UOATrA4uAbx7e+e2rekMxWACIizq/w/rJLb/qdmSobVKMG8lz0KJ7kJU4+3nneMde7kdc3hGoEUd0z4tsqe3hAWybMrEuyP4RlQL+w0ftsfQUtJLTy0g0setuNfh4zv7kzOZtcw/5DzH84ZEXHLm2r7UwgctAUDPxjA22BuI28zYAua9E4y2MP1sGgOucwDBLb1d38Me7Xd/LFwQXHpjKmNAf8ufc5zE05zA1lQlS3TochhEJXykA1UNeGhAHrKd3iW+9K6KCjHA8Dt24MH+N/9QqME/ec9G62e2t0w282FTNH7DDOQuxjl3e3jh4dxzia+efH0cbuk5HMRCQ7rx/crhgBkTJvl0ZB8Zu7nxeOq/rTvfzJxV/9Jd7TD3e3TElS9q0cCZAzvc99e/f0BRiiiL6iPeAMp6540QdHpOh9ExiYnvIMYF6uAc63Jn9he2Jrd6XL2cswGz3vkknA+Pa+iXI62lc68i0Y2t33TCiYpJgb9cEfYWAajicUQS+JwSuEPlXzZ1dS+J9EDwm2FAV0SeWz5LBzPDQJOHk6xwJ+XKf+oFNh0MHYxQG1j0u0VDBNJgfL3B7GIiPxYcfJDEgai57egh5fuxGs6uWRF4rGP3g2nz3FIhZfMctgHzMKzvh1gEJz18UJwMVFDY5vAuNcWrupxYIQ3d+6mQBdqYLsf4L7PdAuprmPwPxS0M/NGcfJ/1bgFWgsgtoWju9sTqvXWApyH1KgmAlYT5rvPyz0Ecdl/WjCIV4EIog+PAP2b1/J/8RCvGh9jEQb4SrCPX3eToBnIEENJ1/k0UaTm07jOBF2E03wNzrOGkgLmYwJDb4WH1SdJ9epuEoazvywzCjQAWBi8zleAYlY4T7ElBVTcpFoXF88W+ke5EY4AH8M83SUyVq5tDycBCCIMhCQF8U/6F5BCd7IgHCKfVR9vd5NmIOizP2craHu4A9gpBsM/vHe85rP1Ob38h47gAFUU8w/9cb0Kl+nn0UO0aGrIsg/xr1kMHkg3UB0zOwPP8xJfFR36hfiyDynZf88e5NLXEL4M2QRRNW1RvXzfDbmMjwC5BWUGSorhULTJkX2bN8Vgva85pPFTiB/tVsP8+wobFFPL3PO+5dm1z8FooPc3bzh1w8FXU1m9zncfJ96J1xsouhketKDuDTwAhcOC+iCASFGVS9FJ8UW+NKqMUp+Q7wlxuC1bMkx2fTi0f7flupRs4u9SDrgwMKbdQpKEti4ujVAa9klWBi17V7mZs2Nqo5Z8FObrmrpFuOHxVMftFT639MkYgZisECgOj1x8O2Hj33EQD3RmNQ3nbgQLj79ZWHg87ex5+SBDh5ejKQAFt2uZQE4mSF/ofvsPdn5vShP96c7diPtyPdf4ONh7MtuEjAVBt4w3r5dIBCxcerG4B2MHYWv+/NPyx6gGSRfbZBcC+iwz8XeN+/odRRHnrvhaYmONk5WK1aaO+n92fgT+9QtcE1tOLoZ9GUUrZ7g9iA5wGJ8+qMy2E8kaHMh2ZdMDPkHiCgD1i3/NFNVfkS+8cse/upnEuroAuPxW8bX+AhT7ro7arZDOAKjtxpMl1ckwBOJSSxF9y8nvJjbnDQULyALywFllqmyp7s0U2XZMktxt3jL2fb/GMvhy8TSl9azvdHKAgIm/pnTHGuRuTEQfVf95NFJR2/zrOtocqU33iSNn1CJUMkDEpmkeMoaCuMx15gBUcR2zU5Z82H2YAh4ATbpMb6zhZDRtVdmdfmQyuculvAGZ1D125KA6mK4/uOk4lOXOdX/moXmagp/qqmHHdBsWS9v1LZUubXVh0Tg1pe/3ZdLmk5XR7WFWtMJen6RsNR6XIRXUgztut7FZaDMSuJNOo2oe5RaqIXrEA8e2+hBo7jpZ4pJXZG991GcWwUVnQl1X7r0VoWGtomsT7CLBju6BSetbbul7Om2R1REmhRJNvJWSn5BZblJIqAKfcbfKs4VvYSbh/kwGm8jLC3YqxgWDUR5DcupXp3W8PdSo7uHWb0pWlWskXSA7/kE8QpVfc1X/92uJY/Ji7WweTtknPkXPuz186bjA/l0CA382Vp9rcplm0DJ6geObHR69nxUiWFl37Dj7+dMw0l6eWARBzJMPBt7Rm4w4FuE3e1uOoG08gjdCnLc19bk+gUsQV7sokoOJAqoZN05+uzMjIfRyOvvS8Jjqvv2MZt5KRr2Rq3FBt7r8o5OfmoE6exxM94v6zYPQS36C4ybHJUT1KPoUBLqSHQ5jeGn1jf04zPy7RIV6zrwWJnFnORjx0uS5BrkZbjRTXYoVxr2aCIrocwrTlzEGY3iqsOHMKUcrqeTma3MMqehf5mUw55naus37F0pfqGGFOuH4yfzCx3f4V1jTkqBCn5QlIpwL0WChxYFda5dsCg09bVwyN5sSD6ccYvDExNO5fGFOOmKPE9YgwaVibtux68Ka/fGxmnMz+NWn3fiMl5Fo6hSoDp3BjM8HhfyV5N4xgngaeeLCN/Ewtfimqp7eXlDdtGg7rbH32Taeh95tGdM1PefFhZRmJataFNCDJL15Zefj8gObcFbeIJ52ykgWf3rCw4h+gw8oyGRw0n/ux+cgpfG3vrS7nlw3pHvFg3O9pJ9pcw6MD+92yrtItttLwRgZ71xdcN6lLyHQ0rSkhrO8p5yzrqNQpr+95+ThDZyF+zgBwIvuUrT74JiWDDIYO5DmKy4QOb1pbh50w26U7isV/6ekgnOQ5Zu32NkDvdqje+Jkmi9c6/IP0GLfpImlbvYPKGIChIcAsJTr90eldD2JU0AArwXMOKErb5sNaiBukK0T/dC+4t6sAVGjvvVvnMTRaL36QnrrNp6/YcpApB34MNsOJ+eEqrLfOeCRatJNctDyEIm9bVjJRbFO7lCa8rifBw2TtrvBYhdV/1pvAYLqwo46U+1yjiEumFoq/ZTAn+gBFAyvDXRYyLKi0FmEoSCDkTSOBSF1NNNJQWLWT6eAg5azsDGzselGjIxiYFucb6PKldOhICSBWmVLR9L8vtUVRZ+jGk7JK3IGea9mITNPFkJ2yEruZB6GaTiQogt9Oy29Yl5Hvt8BqDTjSmEXF3y8rlDKPGq5pOYPKhlZvVvjc8MGu1932yroN1ioGtXJpwWrkdWgwv9CZPtdc77hRmJ4cNSprwqqIwYT59OzDXW8jrA+bLhxGK7NKdndJrFy4yq5U2EZMtPtl203BDcKZFYirI3BtRNr3ekLemXYIXIn6Ewp/sqWG2bMTF7n2kjuQhurYtLydzkkWnkP2sGJD4z0LxbysuQVYv0KvWpqEOpwDkbB+E/tpJAe/cenL0IinmzB7LQAsvXjPckJWtuVMYq3Bs1tU9mOtwjhdhpzxmKFqTpG5GKR59f+q2xvFs1XtPjopDGhBC+ZOydQvwlDkz1a4kKsFJalPQBbeTnb57xlbHANw/jSnCWmgxmDBOEm0Bp8GhWyGOFkwekImEJ+/bW9Cdie7CrJkEMuymv7t29N0uljUwN+Qc81W8TLqZPpMj54xSHqGAGG25h3352+tdowmTt4+R8oDG6E6Ekb+ZY3e+Tksv9QULG5ytvmV37ZRfkz1qjZ1XNsLF327x5g8Fn5fycA7T4qNGV2tX7d0WixWC09+b2JzIQek3gL0qt/g2jakfWYbudO0DK7lqSxSkrct0r8V6U/s5XRPydNZvqW3ut2FYOzYDWacXkHUcKb/tOA5VwQ7G4hCTCW5MlecNskeMuPWcdhdqe2h3RunQeFzy5mhUlVfIRqLzPvEm2UYT+fR2slvqhJU6OLTbQSZUtlD2xG1rUrvWh8J38wbGbF/iSR6VyEMKrAZ5zcAxZHkMQBpHsjJ43ZBGwPWJQgqpgQtxjh/xgvPAfSBFp+6hdEAblxu0negAz2IhWcNqVf3VKivLXcGXB28IutsVtYuRhADdekgmKbyfNz+Rnrmg+g6eURlEv0wEzDTW/SRu7T4y8PbwqaMmSWTg1UEQ6/gzfkNYo1JQtzhVYfj+qxXIlwQynmQHhpPqq3ZxbMhUH84ttKB1e9SUcOn2uPFNFdhI+VIdkfSiJK0opR+lIaOeOi8bRFse4XEgStwkc/HsJa9OS/pDE+ykIM6Gn9vOSVjj6kLdS+qXBHQK4VVZWvHyRpj6FaONmCJ9C1iE4TXoMHPCxgUMe7wCGjepCGZ2Ewc7PFZY0h1yEAeGha8U+8h021j9CnqGHukBrdyulzuSb+sDo8GHpJbD83+PZ7rAPNDmTezfRxx61zPNji8wkZqyvqcl3as2LS2U5l0zdZweYBAqzcPwbT2GgrQGP8OyrBjWsQXYQQn4+6RoWb1Y35vm+TTcSgCZ2OXiT4Rbw4fDdcsIhlv3ZCroHvjvrx8Ce6s6FefHtDU/6MTJ2BvlimcT4QKlsJWUd3W4QQIq3dYsjBRREHIBq14X2wjFWE784kOnOct3dwcfqt0dZvZ97jV/vdcFXY8w8L7Moxq8hxZvM8Sr1RwQtCfB07cHdtEJOse1GOdqOS9xZjLGTb6bDKYt9pFpds1ByxeqVrYHf1VhTlOQYQwtG1F/9+uDgnXjNCkCZHg/9nWKyT1p5EfmG58LCPin6mVufC1kbrXxY/bd2pS/lWw8v+wpeJk9yW2jVjt7oTYv69KYRDPMMaObrK+atxV6xE1X3kfLtebZcWNBLSGnhZxNLTDl6jUEcuAAHwU658d3rq8xrnJ77RON/CExKpDILerIpfGkwrD3RN/QOgHaQ/RVqGGx1bXRAw2k9ExFBozE1jaBSDgScgobjS1fne7eS8GNXmcwZFYGPS4fsxNdadbXQWVfwmy0r7wHw77K+n67vp+9Er25ZmCp+wXdGaCSEHwmcIoHdztRDNyUMo1fMwee/fYmID8enMlKGFeCx28QMC678PyRdL9XvxG2q/YzJV9LqOtnQSq8WcwgGOcj3h9eBo5daTJXJ4sL38uN4pVxY052yMjA7aXOp54Dht0arCQ9xoS6WwoVPh8hLfZp7Jy0H/TWflkllOlcOgoTK0ovUd67ez5rkZ4aRafblL3jM2Pe46AmDGrgkUpJ3zFdctPQBiyvllxAZIUzFNLGVMFw6SwA7sO4K7xZa1WQk16nY/6yPJkdv/yZSKkzMj1NnuGGC63bQmQRJ9utCu7rfWZXdDUmD4uIgN39RO1i1qBfEg04v8ZCaXO69+zbV+VoCD6GiC0vtauXHnsvKiBQln9fvCiV7SP+pJo7CcrhfSaBtcysLTSoDogu0nhrxtAd169INKYt9CBaDVaV/SyC6hyzN6M6ZRBJpt+W3lTfpBzbt/6GJyHdZMeNat8W+CYsZbvF12BWqqlJ1vY9BjbneoMTpC/4AecTZwPr7eEd1spBHa6VmwqBt3XAIZdHMDAPQuv7dyJ0hmy1GOq7Oa2uuu7TFmNVELsqxyIUgQEcwDtnylhevQvIpTZ3Ll9/k856C6OY2T3aDnRy1dUGQUmGJ0wATPZ1Fe7+7TLcsGhJig+7Ewjgk3EBMZyILDlF0fn4Y2QO8o64taoGhlhwRKoF5EehdfbWhGKDRsmrg1moN+gL8A/Ab6ojLeSFXWAHL0thVm6eY5dQHKdl4Ka6LddeVOZ4JhvaOrSDzsAdbTOjcwiooAXIeWO1RFmEg+qa0Vr9RQbByEgzp3i8vS+cg0N6jo8Um0Em4lB1POO78O52ZWXzYK2JV9Q1qL/QUUZ/kq4rOARgTBq6YpQ6K+lHBYQFJFHlGRJ6UVNGPyL0fQL5IqkLJ76oOfGZiv4GWg8x12Kt6sen5u7BxSYwM2Tw8IRxrHnj5Zekte3TvK7jlDAlQEO+yvZo+mvQo5E7WyAwokDkWlhZgyGE6+qW6tRPy3qH4iMxErL+frJJTWlOqDO1zRauoyZfLZlrJLEzcxQvqZy3rnjs+DqHbgMM/zgOrEjlCB1CYivIvFcp3lLgntLl2qXB4G7bUPhF3XNIe692++dBgCjVJ98jkLpH110rfR1HV3HVLq8XcqPK0elgUzInWNx9qXFIa3K8rtX8fHV3kFQUQihJOpPZzC/Z+LQj/PETW5Mh9bwrQCHyYjBdd9FeuNMsrPplDttOiAfFZi1VQSnYW0zn7Ms+j7qxwFZeOIxnWduCo7ptG7uD4b0ItPk93VtqqAXWaPP5X8prLWgS9Vhf3Q1y7YVvm3OFWnkD4M+ywVNBvmedlOuBP+ntAduQApKxE4x81KHGu4dgf+DOQj6sSc9PIMEkBrcpZQB3NSfRuuUeZC9Kcw5tN4dyJAun7EMQao1n7CRAV0vHYnaYG17SdZ2jg55rtoj6XA9CyGjCGEXfPhElqW43iWLPRBYdwMCn48fJ/QK+3hPqRLccIXoJNm7XyTazLrfWwJ9p8f7UoDMDur75kk59ZMjHqsvb6Y8W+NCuwowtuNjvWaU9H2joaV90Va6G3+quJU9aUszzUL6lM90xUOVp1ur3J5aVU1WGL8XdLOuemN3CcqDN03Ljot/S+nb2q230k7cCehWF+uwkshwEDbhpB+UgVlXIB77jDPClqludEnARzuYXZNDo2Nb3gWtfmuMvTcS9VB4/+y7Yag+dZ6HuQLYO+caQE2HAhFG2pIJpKyTBfrFY+xi5B6MkByJEBEPKcFKxGF59ILWkGx7AjqiqG9HYTqpKCXenIqQhNcavPGxU5aAOEay607njNPoXAlC1E0wfcepCq6RIwJsY0aDARYk6zqHMOKH2IMZSOq5azG2jrLlo5ddZ+wJpsFjshXSslWz13m5rfRrJ2fk9Lmx3zBQjB4oOfjpz9iymVavzZb64LLrjkVzY81q7VgkRCeRXH+cnaMpg0YuUtWzmEBFaEPytI0f7XvQfz5IK8JJsMztg3nk+i037vjAnl4YQ//3ucFngfQSe8u4v+/3mnn4YfbTn7BN7iLlvub3pckzKKUcDUR4oyk18f3A/tHRKbFDK2Ywpkm5jXzpiL2C06gcxW2CmWWXmT9LDA4muUfVrc221iiCG+fpVCqZDKgauJRuJ5MMhMBLpeodCITt1UtyZWPMRCEgt+pV0GssJndvLODaM2JakTMIz7/WF3NHpv6cURFBOLwb6EdyHhbg5qjUed4V+0DMw1h58X7LN93McnFFN9fXc1+IxMUA2cdfUoL5zLcmVMr1BwTB6qLs3WIJv8hQY/C/JnnRFQCSeXouJ8QbBAFqToWo8tOszW+z+hHXNomWR8UnnLZ0prHgzPpbbntUtNjiwG8zwHJROxJCeDeJBF0yFzklMqpQ9U6IhxSkMXnmKIFGD77VvBOLUTZj66ip6mVn0DXnpULzjaSd8qRXGEcQUikrphF56ESuVvKIrcy8xkKN1tRDIjw1sdbmbr2anauqczxmf9RMv0k0L+e2Ooq0RRtxsjU9vM+sEK2kEEz+KgE7ybwiPpb7pR71amKO0Y/QsRmTFKlAi+CKAnx2xq28oQYtmey8/Cmf3bCa5YzBQuyXrn6J9rw6e6GLnHSIrJBXrjOYHxKsEZGtcH/iDh4CJyOZIQK01itC8fint5NbBFDt3XV5lEJa5vEod6cDDOfpliflBiWqWVG0yfXgImILUNWzr5yWBORQewRSdNIwSkC0WUkoycL9jsKAwvmenHjxwOujGChxnfVtMC4V1UCcGBiHlKc289TK0vtZGoKkzj7U+7TkbmEzgHdzSY2O95VG0rR0qjZGvAm3doc1gUy5q6V25VyjSJ2qdvwnLaV6/o3eiBdAFoo5WCtHQuDHYjxPSleZzmuVsYsaEBaSqclrEWV8KDd2rBXQONZYhbPB2Wg4JrkvDnUDsLsV/x7rXyUgarPEGKUl8lBXb+PxglI0pzwwxxlSQBhTQ+LOTr1eJeKXj9b7VE6vd+c3ZF5iN549Z3uNxULqmyOU54Nqv1uQEhTT6vqihfiVblm9Vpd9Ip9R65sVIZ9NnxxkfKsGS5jrpLfOSNXK/drZLqXJar3yKg2FhYJyDsf4O+RePSjJqsyqw/CEHMkw/g5zYdEV3Ln1K7bp1aw+YdzQ0gz0rzKfH07PKwMsHwqBVbpx5PoNtrIOxK8G2yQk4DIjePboBWA5a/R3rR9zbbMYhB7UEC2vd1COMEEXQe3PVjxA4tIYyATq7swpy6dFFW4yUseR6wgu2OeQ0SlW+NU+gaw6h5EJ7s76Oqkzw8nXl+5mdPmE7WWh7fZijCsF5J7g03vUk2qhyV1Bn5ffQw9vyZ/zzpa4uF9UIc56XW9CbjK0ttECauyAqGjlfVjOFdDnFIYPrbHckF1+g2Ngct0eWqIgs+e+rl4HvDlGnqToNGZhcqbu+PM+e6zTjTBaTO+Vkl+SxmdZ93syYw1UPPnu17xUNy5btY0vXvXnulKGC4gHRlDrvLM9pV7SV4hG/xrWXLmN3Aiuuntm1FwvKWqN9yMVTRgjrFsQJG8nvgVPlpOlphe40JuY6stXsduYLEEkdOffbn1cvc+O7RpUfx2+8FWnNejtkNsyEgDBJIcAXB0afw6Sob3gUU4ETvgLOLGfTjjqpDdmktE2Bw8vCLXgBHRnsehYV3Wa20bMUhBfrTpeQZa58FEunnv0LVlGeFTlpZrej1rByirWlo2BERbyfH+LG5NIzzQphW2Fme+iSn/VIODrgFg1FzhIbWj0uZIkyG3QXYr8cw6aHghK3vmxb7SoS0Ft+TsenCGtWZzg36h9y6vEY7mZwHqvjHSTfOuSyuiZAX7ys0qlGke4rUc9r8UDUHjAtASDCsX43PIW15FhExGyGa7GdcLYIKYQ+RWSJQr0gNI2AZVR+A/+YWX6yHsVk24KadHrtlhCdOPv67cfxsmIj6V7T7jnc2BkcMQlxYOQSTMXRWgfG0U51MIDiAUKEgkPLNOMV7t1Ld650MqxTljLq/ela34Xg3XsOqI1nVPOYBHX8ppiGnlRCQh6hlS/svB3UpeS+jrZp/3hdVMHMWxaba3dbw1yL1WVr4E0j+yG8Yn+sozlxmT2h9G13REZS7BbpX0Kvka7LsbY9p4QS3dcLzLCjTKIRzSelABJllsGOuNHYjMv4LGKDFdQybsswViN538YEW7fM9TRZ4Q8QvgD7Rd2IvrWu3f5HbrX4dPtqkRGdotpWP1HgjXcPuS1JJf1P0NQaAtqu+7I/wb3OPy5tPVo9C4OCIgFRv3BssxudxpdVJ/U+67sWZ9/AHrmf7k4678u2ijFuj0cWYYj+sOh+IsVZt/qZZ9GWuozgns6ucUvN9pVx3maKd6RkyXlnc1p6kkp0sQUwS1rctuZgGNchO4TUd+B+6R+mwuzoB3cBNTyACHvl5GlsgRUp7FpbP/4McvzccXTvRr7NLHZHbVdpuQKam67fV7oODHY22oWpGvvzo9EwB4SGeZPzolvlEPRbqECo3ZKKY4oaTNNFXwnkHWjjFODTsdxCqVyD7lHtQst2ty2Xzg8O67a846MNKnAtdG33JwohMitS/juCENHFO+mXR3i+POBxnGVuJoHA3SWP6d9fvClOds6yLqLXmXNbZPYTnIWvUPkMJtQ78LS9TNRKa4l2NeVsr5l9RUDCBLhkCvTjkEaB6Qdl5yYwnlQkd2y1WIFOJI7tgfjYgBidhcLKz1QKwFIp0pXWVXLiwngxrnVLUI5w8e32wRrlTkfPHX98Gm4ijNOX5+Sty1TzfeG2EPj2FtnRokqj6LuaiMrcPcqqWAoy7We9DmGOPYK14cZO/eR7iS+o001FRt0CT6r3FMk9kwZoTlpIJztV4qne+o4PZOLiGGSmDSiPk7Z3jkJLoiHQA5r0jMLrkXnBcdTnXAImZYrxlsjq2+PeG9HAWoJwwltMjbBQDZfTHxTuwTaYIgN+HEkWx2btDXpjiQqhz0EQN8Amf8Wua+v+0ifgClW7x/qtXiOOyf1VFgLMBpHWl/d6DfjC4hC37CFrSEooW6ZBplUp5K0c1MLjDa7xM9TjE6kwYFtIE2mSwZX30VbUsY3jUAc5HRiIh3fu/YrbbC4C9z4XcSBfTmyWHBhudoMI3dKX1zXbCnSV2AhuQolsT4IEW4qqDWhtHunzy5l1vtFWjDIeASHVlXvaU9Na9YvoEsbxgWexoyMBTmsfPRGdHo/IMqDYcjdHvIcuBOIF+JS+p8AwpKoFN+4YXCubmswkY5J6+3eNk5V26sOT2tgU13ZSRQcftW8W685bXS0yTjmfAMNpRnT5FU4MIk1q62Xw9nJeSA2M3wjbgWDb+TeBfz4+0FClEeS62u6uvSioyObL0UaoLeCfVb4m5dUF8swFGjLz8u8/K1w83kfqywLxv7EV3lq5cSnQSOom3TqnJKmBFfHDZvxdLdzWcFuEKrqUcYXhWhtqXYLxumlX3/OjRCFjQ9Ilfc1q2/R7N8nXKFb5OtATTy+yvbcovsUCLfbiSeS0tc7sT4LujX6C6I4hnDHaYcYGo/V7+gLpXAsCI47K9jZXdrKqvBKxqyq4hR1v/sFeVT4lnzopiWWd4tgekM7lm5SV3ss1wkDrmsRn4VXDqzTE3mR0hpbQelpHrVxWQiOE1toCCZ1nX/0sOvOQLkwGvF8ZMPekNgcv3UmqejLperGi7BSJjAcjXzUyBS0B9uW0Jm3mXKxPlm5+hWxZjsFtFOAP9sJ3vo4VMhRBnLojLxEsas0xjt134vS+/T2a6KiTgT0unYABuFrMBgJHzHeOnON5dUY9Jwok82X3jeX5w4/arMDOGkGexl9P57C8Oocj3Xt7bcCkpUt+3Vj69kdkdH3d3dzlCRd85j+apXj3TaM4RmUBRbrJHgahxJxNE6VTblOaxZTYWQTDdmqyue5rB77bRxjSMeHi91CCQKTewJVTrc9xhHS668yaIMWgVa2cqfokdsf5JZ/D+4UAM5EkrIYa9YL5CfBgG61MS9OnXfCJd5trWFlxxnLFe0zqdFZFz54ELiOUDVu70vwbJ04tNtPs7cwunow8gGSuvVthWZNG8S4VANt12LThBYO14q6+lJqCd+Bli0CBGN6MwGFx67Vd6tbCGCcVVFemRtSNUtclc6o6X+8c35gBMU4WkU92B5wXBW28hVO3bsUDeh8Ce9YvuWat3FXdrCVeY4VBjXcIqrAbtn3pBszX+qwbnq8K8ad4UxOFnWpQOY03DJLaJeE4VAsXy1bwY/feVOLxErQ4zUEI02AhvUU1/Sg5dpeT7I8p9na8CrF9ECT4K3gLTSpqo6NtDgEcZiBdTs3a+RQaVo2HRe2NYq150xhgx2iKeifby+zKuhQESl9XXUTWVe991OJFJDsZ4ypvlol1W3FbOZn3SdZBOYBb1iY5AzYegvNhUMpG4eamcq1DnHkOB8l00oGehsCrenjjt/a1QJ5d8YHu+VeRoX1g2eoZMiXsrXFHBUyh87lQfZNNkdTz1mGy8lQuTb6QN3+KvfqcGmw7eovki8wdfMZMug0zdQERLpDPQk6GQ8Lrd0KrcGPw3zmJDj9QzuuKtohNnC10NHL1COpBX3Tr8I69Abd3eZrxhc4LpP1DS1W7hSY6W/pRlQLymdTfvvsqEF5OICH4WzYUq01BRFUDW14Jc046D+D9gFdzXpMUWi9as3s8Th4WhEM60YQl5NJO8rpdUYZf5WhmUnVYCZiCrGnUUj1aDS+dcC14Q51kD4ut23d9JFGlOz1gDUQ5IWvu6qRDci3UnVCN2jr3scJ/JMLuGKWAICFAnTkB+PeCXQ7NLqfqtX713M3pvNW4rCnt4/HKQSBy9FWqdTfCO3l+i0GPgZM+loeea5zhdB/wvCyPoz3qGzN7wGBd7b3KwZOzdKvGJgbrmjmWOKX6WvsyIVp88Em55m446JAyJ6VwNjKmWszZO5M/O0gWnYmjnrv0dqXYfcGrGQMQniQbig6XsLPo0cT8kYHbP12fmZLMyhpxjjllrXAYBjDnXk0LCYX3DQDZhznWOVNYqZ3dA+0uMJ+yi2riDm7eeu1tXTKakEotJc5sdHBE9wBi/PFIxpV6gRRUTx0/EcJwcpTSZMMQSIWyzhqIX6CkV5pu9WGdrFNv5zQCMFx6TPsqrNO/p+16YXtTXs0axG8kfse2IY26rsVEzV6+07gUo6z2ZgE2rxkJ+U773tH4qMOmGYPRqUIdbGYUjhfUmKpo7T7vAslRNgOqsPJkPS+KTkT7mO2B28yKt6nMmbxpTcvgIT8SiL1M2S2s1gxscmBA1oMkg1q8bi7lua8fHaw0mOzr+1ROsdAZvF61T3hOcw2yIOEUO0t+Fi0kDk98Utr48D7FR0yZF4tvQJje24W9BsLlmbX25xCYuO/TxyCQn3gIS16RyDKBiNZ+a26t4pTvsPHkYpS8Nsems4SWzPlohWR7lpzkviOlPhCUgbZklo8rfZs2zpSV8u1aHJHKZpJhwPELvZ6wJ9NPtKR4sSlI7pjI8q6zLcYLNsWrBZNiQ+6MOkbarR457LRCoF9OeXv6VNWM3CRe4HP0DCzbp0zlaWn9YqSB4UgUlZHesuO8ri60ilMO1VOdkH7XeJorXoOdK6Xdo+oYKjoVxPktRoTye3boXUw/6k0EaRUScMjCbzv7EeVOZJrADY9GlGvgSWVSTTb/95u3Ev8w1dK0nc7H89gjWv9mQ36bGVhqlyPOT1CxXp+OTTH8T2StqJ30WjaoqpP5Mi1gntLsM6l8Ot0bTvWUr4znCsffxoLgUErCQ1cNqXnT23i7vdzNOISkjZY4B01tFaWjOjEarUnD17IVGlWJcV52ERq4wupNUNfIcjpu6cp2YoOXtnbicNEet4gzBqy8BPN8ydkmpHkR/351XKjKhvXBYCU1840fZj765CjuyjSGpTcY1zoIx8+afEMlaRFFllLOToFz6h3llnpJqTiI7smOc/CazzazPCtKfl8SWnFfTEnBkV7Jw8DpfZJQBZnq9tZF2XKx0PIFDZdH8+YvPLWn0l+3KQHpBQkVN/MF16rwdPDu2gDpax1Q9jRenowC1XuVqB6sKVVKJBzXUBdXitYP8zW0WIuceUjtgoTSic2Oulmn2a7BKxa/5VuL9RVyY4diZldrxmTjpEmvz0hiQtmbjrH+6g+6UGv4amH981EA+k7YxYUdjGezGjlQsgS2J1NDTuVSu1cgU/QhGK4jrF1sTBFiuPZFwp2gXpODO5c/UR2YFRNm6ifn1t+BP1rK4+V2id/ttwWc5lnb5FZeTYBQEAohkHZNwKsxZAlVpYmjQJ3XWuQw1vXXKUMh+KZtK1Wdk2JCTPW4Vd8ETYMkk1XTjIx3yyPPdLfOjvGZhVcoDslrHBhrtdUCUfPQK3n2UnePqQvmLd+xPq2ECYC/6/IrLBR1ir9wmclrMNLCpsv4YM0f59gowE/zcQucj4BJ40npXEPPKzDQy1c9ldqRd9WvnLfzU58vcNP3J1Y0hOjb3/iRakvlq/DFMK3bfSEl1GC8tevp5XUC6/ZMtwTTyi5z6G/DVpnZXIES7GpPK9Wk72TktmSVcR5DHjQyJD2hhSjrkqzF83ao9kHn9YCPfdJNI/rVhdDnV9c2DW1toa9bwjTVF+8k4GJcmmy0CdBYfM1IlWTnoy0MD+Yat9Bjm/UZ6Pm/STqPRUdxKIh+kBePjL0kG5EMIu9IJmewga8fuWff7QfSvVWnQBIc0lYgIiTotO7YzhPvvFViWebo/1oTFFN02jt/jN9JSVnbTd8qdqhBadY25yU+Sghd0p2XkzZRjOkHKsvFmwMIhSACppQsOOLPp1foPcVzI3cH8yYNkk0Wx4Jshmtu3sTI0K+jjNTcAsXZNwNMkFcS7b0N8+qlpJL+LLnn3U+gaoHnSUIVXUa36MEKcB+uGYEiC7Ve5TMiaK/mP1YamF/42pa1MTfdNi+2Xn3zq8OZgoZx0/QjWa9URgCPUjaCULjO/p4kCnIbanZVotvrAJ9Nc0G8DEPvt6xPIoV43LHfQMC2FtMMAVWOa5054oo/EVGmXpkcffQdhbZu0rLWwYM/weghwSIKM4zGLuC0QfXMtb5HTGwnT/Xk/Lx/HItSGBo9MhgGDlUcORyTUCme3Tr5LLwjwIGi+f7U2R5n62Yn3p8mXEEEf6v2JiehSZNvy1jqUtZR3FDKloCeml4xY9fz79FViHXwyijdsoNlJAuk18aGfStkT4M6EJBV1KTo6jXgTlUsCTKtbaUejESGYdNSkAksbLEMhhDodZbUebHwoA4RJTGucSbleJov1h752phQigLS3JL3GBl7ix/Rt6lnbDH9yBHdds7FNqJVeU4Yf9hQD+2rkPbHaJQCrQIvjZn1izg2EZzZIIbQkR7fOlgyB89ZEXiuda3fTnKeiRm/SmiwXM9qlXnuNxS/rzkBW45Qpuaani0L1LUAdCwx8NMl976vt5ndqbWRw04vqq3q61EyEwb6AircUEpLWtVzOuKWPSWPFhd3M2O7jNBU1DQ7ooZ+hAsBFKg1yz4lKuHtiQ5QJ3/NmHjlioQYtcV4OW+/jVyttdIT3lq1C3GftKjCxmBtXGkGktqvHd6YS+/1KTcKoTDESTY5srDdPaDYwcysC94ntrrIvxcK9vMTSQSUCCw5R0zn+Ew+CEyoDfKVeb1VKecgGVH9lrJ1laqvgDx/xBlHJPYKYcnQ23MV+I+YO7pOXIMej8ZYTiYylfhBMjWTZwdkvBluTu+87XLmqLa6StI9iegLPHMvcEbXqz51P42iyQ3Z+hGMYO6bdPdgqTpyjOHDUSumzwqZm0amTPYq8Q162nTacQ2k+RmsEIf89vEQo003F4BpF+qoNlpK6QdnUL+ng8NuuxMc8lfXqQvIXr5/JwV9k+x7bgpdW8WymJnq8PVeSorMK+Gevs2vzzcKhjAYUOqJPdWeHHFFaGWpGvnr4GQ9zO3pfSSH4vrGlkxrnmtHpxJRP05uPENNfghRhbM8hbPCF3rYJJk+bt5D8HZP98VPNAffd07bt01dRPlsdwBrP2gHeODYzcQ/rI5rmvi4N8Fr//t/JWX68d9s2n7w6wGQteVxqpC9EsNjc4LWfPiGJBaunBP4QGcq1zqW2YDtOwGHE4pK9wgYkSk01sGb4Wfv3wMSipRaJfKljpzn6UaG04Q+SbElhQGDNFPTN53csfFy82N3U950rEUJFdCq8Wov511gzkxQecDOzYHumY0BxBxj365chWIUOvCd3Ec3F+4xW1Xy/nCtJlXPFDNlyTP5WlptX5bJEHXkF0F52pLcwVFY4PXaT8uvtE7kaFtbUX7LLPuOufvkTBN0I1FyZaWYt3hEGdfiwfao3mTCAZtBKexK/QrHTMOt07KOtS5fI3oLWxQ5Ksz87CO5d0Sn/PRr2TU6s0XyVuAqQryVG4B6fHsNat1Z3tXggTxvmxXPsAOONZarJD3evF9vkZ/GodZXcLR33EzltLGj+pHewdHfpoasdNOp+SlbPsk9onPHVaqEtFGkb0dyUse4l27jWJVDO3ei3L7rMCZjpeFRIivxwIkO3hEAabBMe6Dwc+Jt4/GScEcttgv2RtbBMCa8SU+sqLV6TomTKboiD6TWNHkrJhzxcrJ+4lTxBrDeBE59m3ipHaWBFj+jI31ME2snsx31p8953WeAiPt3tm8vGz+4trwfETteb28M5q7p7LWUYd4ikf9kyKO5Fk1TJk++oSOlLWibd3hKmjTK/72f0cEhaAes5nutYJnTdVK74ZTz40834/zZrH9Okco6fSYPA9qdvHcegdXPDgbJHFmwf9jMc29np76clw3530tdbn4Su1rHrHAPtZHjxv4rhzZ/OCpoN5lSWYk3w2imi3xszNmKAzPt56h2+pgbinu0p+uEB9VWmh04Q0f+7cnRJZiiIanZ96Ymaqes5x415zSBcouHwCCHeuEGvdaap2YGxZsnUKoEpgw+A7Bpv7VnKQv8FCmCt81uJkpsO4fk5Y/ePZWj3YdHpFifoiomTWkhOYfWNDW1wFVKl7pEbdxXbOl0DRGgVAB3bcejSHyHHUjBVYZG+syaHaS99ETNP90IUCR696BEAcqKjxMWZA8lCDYElP1XdG21ee32YthDXz/uc4XC20ATB+tJ8WeWdcsZJGEOjLYvyaP5+JdjYIcgxKr9JF/2d8MTUh0GL+GusDaPHPRqav4eCNuKOrZVmlpZ/DHBMXt9EpVWmCvOfoNI6zvfyL4Jzy3P1L5HgVtOsc+poX2TJ1MzHncD/542Lg2LFhzTIWa768TgMa2ctHag9rl7hGg+YKat5EAdDcmmNuAU8lSZo5az5skD3wQFPogRD5OXzMLuxXH5VmOh8ubOvi3bcFuGn+Cx+KdCPIka/HnX8dT3hGrkesXbUQYpdab6gfRtkaLyUp3Sz6yV1ZWMubzkzBCjR3Xs5WTPP1AGHHHfz9ZG1vnpMTvNcEanJ6owNg5/uLGL5JqB31hVws8plhKcY4wYy3RlhGnpaW7qkNfH7NqiQlE9lYAzdy7kU5xumrEpmQ8UVSTvvfJr70pbB+6uy/E5+LiRhgZzaL6zQhPmN4tf4zwCZ+j6cbbCOaz5uXI07a8LjKFt9wi7MlFWYuHbrgsBDZSpU4DpN5YavTDC4GPhY79qh86fMfGZPBqk5IPc1yem8DXleuaHcBuT9sonavYIAc7t79O38UfN9t9LAM5+Os95xB0koT0V7dNqpCgeqiQKRPTiEUcfBxUiQK1KCMw+Uf7e+bRYq6aWsdDP58twuw65MUawHdhi6yIbmb7xEMmVwD35p1A0i0THjHUUFsq9ksW4Jl2r6RjuWUe1yctsffn3LqGzk5TuKzpWHSBGZEw0SsTagS+8d6I7MKv+zhns2he7uZv1GTgWNm6O/F4zKlyqxdGOjpxp3Ox7+Zlt+8vujE9dIT3soO3f2v5L017x76kXUizE9oY/7PnX9OqAUXomETkxXWZ74j3kVWfkUv1NFUR7mjYnPkoWf4JZrMftS0wrarISWEoCaq4MnDYxnm37OzVieGWmrBApoYw+1X29/ssJ1thi5W89SbbB89uR1Nl7QE1Aitxm60cFDNSwoToLEB+FUUKJktzFZMQOBUiDMb1arj7LG7X52xq9gCuMwoUhwXXvbcmNQ4wFcn6ZDsuqNg0V7WVripxHHe14uGvyZ+cLN3cuNawBn9JH7Fn4ZFGFgZENI9NNp6ep+SeJuAbVwRnwdSlI1vj4+9TGOs4JteK2eviTq9wRIr0LhZnEDN/6rx5HyRsJw2EaHr5LxCKknq8NutNR+F1cgvOjFLR4pJ8x8GKJFw1YcfqAKrens50xue5SmbtNaUdJTOVHXiPOl26nWjgw1Q6Oj1IBYBSC0d67D2aqlNxc+SfN8o7E9t466bwyto960VFA9uvLltRRHMWgODD833oX07zWQKw7KDxRcYQE6iz5FqXEIqHhhSOVkUsA+mpeJy+RS96eohSutNJS1R1ueGTa/MytuGWwZ210mjLwp2H5/Hi6udbEivjR5R1mI/7UDwm7q26Edwd4aWs7kUdnzXFysnUP47G9iEA9h8bbQ1IuuVKznxPNKEaAc9oxcoJCjhSA69dUr/a3Sq1xuMMzN6+vHdPzmDAX1sJ3zCl9wKoy77AlM4xL7XpmLbXsZF3fNCY66LtAvcz6CiVqEdlHsFfTbd0xJrT2N/4XhtLf8fHSW286y5P0gsLTLP5O7fMfQep3cGtP7T1irgfDh+wL38fNkUrsqu81RmaVXj8/mUD6vC3fGFCV/b8DOt4SwOXWbqtlVQjx3ZoWVLjRNjXWQehskrqLwN5Wfc9Pe3jdo0YLSrfoxJCXcngfsLBc45eKeSsmQMp6DkJH6tnerCll1bxmAEIlkHd8WmnT63rtorkM3KEKQOEJbnb/ciAMXOlCmdMgO9HsWmJu77OSjKEPLd5a4X3Kkp/rN7V4y5PuxcgChvzs8jD/CjvdI6W2bKFUSqgpvgpZMx0nPwH3jIlwr8zG9TCuooeGXusvyp2Msqt6ajovFMmzdYrh6gFmU111bqnzXAgxs9OIltvD9GPCiE1/94Z6E71Y5q3h41DViHVW5aj9W1rlTIuRtb/VyXS+QJZ7ipJj273VAu1MNVQEXa0pUhfSMBOSvHlziFbV3nlHa4RSjFJS/TELGoKMBx71RlYuYyB4we1hskFjHmCeklKA2s6GuodVJjaXHhMoQmwSM1jXaL/L+rMONUa5le9KglLSE6JKfayeyCg3XuquQMBg1PDi5ddgjt3nUG7+lUrk21vYqNr5c7CRONvNsB6aU7VMFX6UrBc9ogOm4wrat3ZE8LwHb/tSTonexmRclS7kMN/s1G8OVyS1paLKZF477hcaeNf2/v4uPKnP6w+lBp79AnOJ65lG3acSRh5J2Aoo2F33ughsBMmeWBybjJAx5B0xWOANPrdwsLawOZRU/HuY2WavpwwZR3H179n30yz/QY4Mx1pdYwN3w8Kr7KWdd8cXWV6CrDxN9Repx8J2WB0QobaGzk7sq9Mylw2aVede+tpSMMN8NOF6kSDayL5SLd+VSQ0bedIqaaZnOZadsF23pTb2l4S59tV6ntZg0jGLi5Tc65b5GgqlYfy0+bIBEVZLRMK1vCAS0A4w+Om0oUwoWlIp2SPkVhzpD3dz4Jw81VV77izt9Fh/i1gc1UpgQ606/LjdsZh2JLFpsqQKvInC2rZthO6AN/XriXO+mR1Vben4rJl7XSQ2/8zVmRE8cYrw4YvyNJ5rU3QiQyrq2Rvzxo4NwNLu6A/Sh0bDyI8G6mj2g9LcboeneAJVOa+AfwcGc6aomgqYdwGjayBrd3q5rC/hU5inKz7hEWOL8rlrb1aZb2tMm52mo7tRbPcjf/2cdbr2L9CW0Vvy6wwmlOhp04vgQ/DftunWVWMFiYYZk6d0SScNI/oJQPpnS61onMygxe71BI3BIM2WQTyoeX68bT4qOqdTdTASx7FcnnYtYGeMe/9ANJo5rSoDDpEGUWCOqfpfUuUdmYvOoC1dTdUCx+23smMMe7ax8XiClAjajc55JS2TXPiOd9d/RxLKjUNUd+2m9zuvwVFY2sWvSKca3iWKOrOu1B3/+g7fTnmfHayyQ3AXN2n2CJaLfIdDYO+gx2NEXtuZuG4byLa2dplLBoLzmq+TFgdvC+VO5q66nx2xdBPT6Uf76Xq7h+4j6qWzkzHbaBZj3MTRtw+9CvT2t/EXy0al9YdYQOPF6/ialDNYsmFDFHL5cJoQnDftNX2yzX9OSoE7KIGM5tF9piLdowtOEfbn4ZoScmFPfE8kJTZoB3BFXdDL5u+xU+PKXURbTOcGDjHGTkvXie3DAsOOq/u0pcE64uoNNq1YblUDFioYJyZHixEq/URsHae8HWqweQEUGZK79OpbaA7ZOBmODGmvPkzZehzffDQGfa7vwSbav0RSZFWMIoOnEEPg+gHn88mmtGXzBD/F/9jL78Cl2znJfq1MNsD3sGxPhg9A6KPsr/uqKbesUksqU4Ls3Ku8UcRz8QomkUa9bBwh/kxSF+3OZy7nsnNoXp1Xb/V1v64yiLOD7EgdIj2vlrzA5sGQQr5j+6SyuQOj0gAFxmYMhmaeax7lVBBocBp/KWOLcd1/yTTChWqfAto9EXAdRS4QTHI0ncVwncMXaKw+jNJcuRdWSio+Qd6YfCsF+Dn61aZ/YxvxkMEjJpw7BibdUL98uplmRtZm2ZaFzrdoQorjrE0ihHsXHGLlWdxt/JkgOut/CzQ+MujbsVsO3cXNzM06mSJIZ2i3aNamT9P2x0bg6vc8uvPrTC08RNYL19XdgpHu7mdWjPdm8mEM/XCSNhVV2+SRCpzZy36ygEMKhV3eGqfupnxFmMXbnjRHoiu5jCRprr0YwcIE50AYtIodrLNzpdhHNtbvUv+xOIAUMNmkWEtF1DiW4O+K/wXGwgmibH3RT8udf3ls7C4CGiRCpuh39CRNxbWnOcmQb1FaXNubZPqaB6Bfu96GWGWSaZS36oeqHc9Lhg9wuUHU6CCvtubSDt0qjK1elPRItHTMyjh9jjwpRJ6DwpfqyrB8eKTl/nGaAiK8fYgo9MBH7fRsxw7z0/ROp9dVuyUMqpdYbu05TaCiD52q/VAEK+EZn+zbrQVIMI3E5kQEC/S9+2+jFoXugHrQS9VzZwsIHXE6tSc866ACOVqBTaygAG++AwwjtedgYMntZhCdWZ3lcVplGI04l1MNyNJuxOiawxq/izxiUfRg9l0Y43NYdUDeK1+4OAgyR6TLPr3j9P6yitPoS1otgFZgQrUhvtLaLTaVkqncNQpIJZX98iO+1Phhcp5VADPwMu7uN+V2TvNL/mT/U+YLUebtTh7F/Ph8FMZQb8ycVM9rYJZwy+b3/Nv/HaGr89Y/JevKMT6HyYNKaJXkKpu68mTGx0lxWZjNkBJWnLbd5hL8ROPidyfD0xOIRytRTCD4eQ9LHxA8qFFG8+4nE+q812Z/abyj3tM6fjb1jrqflbH18y2uFZwf+8XAbo91nnXv8ilv8WZ/TB8GLcT6mnDrZ5DMidArm5XpWMJPDRf9Nuo24Kvey+aycoZE5x4oQIN+LgB/nryw6zWzSkgVAso0ot8alCEYzZOymUUJApiO3lgS9NqKfX8E0uYqaZKX09sbY2V6OyaDSe6zCOv2afj9wvYvXnU/EdY8P6aRddzLGD3SZhtF8S4+0A7TilGJS9fvDYz7TrzHquxWPJmyJr8Vg9j4RU5GgkbTlhU3z93obvPoxnK4IhX+tNdWh7DExapt1FH27imGV6aMYabTPWYTtYip9jJZZQQTF+9WQAgT0WIBpvA+do/anB/RcXqNN+JCHWuu80a0Y1O+6EC1t4PtXUTuPIvwXb6kPt5RpC6MZ7Y50fr0Hl9pXrY6T8W6+OKHGp9v/azgTm0gpyP53ie21S/2ZNMu6oqorZ54LLPMIZazj6BHf2XEmQ2O3PDHqNWjSsfZ6AS2DA+pl9xiKgAqAnL0c6l/zigUYybQD8v2NGfN/mLF6LDElC8UVIH2XTGHcb6DjaMshxd+p7TaUHjbp1Cccw9bqmNVNxux0S/dmbHISnF7JADXmIrGLmP5e8vVa5b0ALXqAG7C4ywnKQYrdkDzFrUW7FkXae1kMvbTcrwZL5tUc4zXrnkmZzCuhc/uqj4bFdWjcb430KdmohavUgI7Dm9Z9Zyrvfst6Tr62tRMm+1vVuFa7ipc92fDt16KSqP+E7IJuejdLxKl5bu+sdjVMss2NvX9SRDaYblS+9s/mVAQg9QaTPHbnDt+DT8lTou5gkjA5+83Hcmn8ju5xLQiuLeEsEnGTE+1P/+VfdXoll7eABwhCOaeuho9P2dZlWBQJCypkoKaHoEnHjn0VV1AwPkpKEqRsD40FuQ8Z9S9twS8Dew4nXEdAAms5S+WdhMSuHTY2GGFm6c9lM5AquyIbr/ybYZwaV6QEESNh5uGFWMg4spx7fr5d1hU8OA90z+lrn36XCp4VA1nY4zl8MXzrH4M7aQge3upPJeXfjDobyVFE4j7oXZTAw0jNH1cdBSpeqHke79HADyUSDaXr7nm2war9o3VAgVrFWgoIRkd6xfV0vS2Ja5mgq6yal7GUqf566USpGUpbRxHkyEH9G7UUp7LFIxRmpwh1iVa1fUea3x6zBXCRC6V2A2daoPr2FFXUetNgLJhy0sZvn54WNY+Csv8+Hka+wTsvE7msVa61H6POn0Vpx40aNpSXwuUcfCQ3QLnMjz/L4uOKhNDRYfJYKw07n9+2+NlAN0L85nxKfryWBtRh9LzE4SWo5Js3ayi9EqQfSH3V2IYUWu4rRXQRjyo3gbMpUzdcQ/x3b2y6LdZ8zOl59Mk6PYen/Uei0T/3mvFSyJampn0mZkeIh7Nj5SbMwrOiuYZH69U2Rl4d1tPCyiXI/3GvEsBkkMlbifhCvxnJzhJ8myGDby2fhPuYCKVMcoIpLm+j1DOGxvH9GYj7gZ4J99Fc/QYVU6ISXp2noIw7ht1Q8Ng+VXv+jHQesz5DXZLKsk6AYlQeqpWCy0O9Mzu7Lfh1KEteBfpQXAczaanbWDFMdxqZgbmXp4HjWtHglphnKKwH6Kja7sDdRQm32+2Q5+9TOhKAPUDOtGFiqr2opoWKubo777ENNCnzKoN7Rb2d3r5vSxUc1YejL88BHZL69OoHoVGcSOFqqZrRumGa/bH94U18nmKboXCWYV1oNyKdk4zMrPsyj5rEs+2gDnC/vVk0RRozaK0fegRTE4Eal26X1vjL/bVbrGxULWiZVpr1a9pT35LJ+8/WD4UuqiiZl1Nl9AmDjB4442g5PF7+rF0O8VQGsmy7cXSVAq42IXuEchSknHuO8jhqjFBvcs4b5TTiHlsaj1wSZKPXOzmstgcv+NCu74+nUgFfczwbyCo1TTTAa2U9GD3vmZ94fzdIIr4r6daVtAb+266SRBbZhom8e/YqGs8xpeSOE3XLLNQCw0ymeywDqBigNJYbTLWwMrryez1+gJKcfoeBpFzDS1nZ91TWQyGqw0KojziLU8D13Zw7b9DQ4fu0HzXpmXHpMe/GPkE7MZcOHr7RK5ACbKpoHkqwDgrg3W1c8G0Z32IB449NfWmMtpvZ5Aq1Z3y70Cg8enkyrAt3N0LtbqKrlO/66ZjYvbd09oeEZOtuvOkzEKT3+OPHOJPAen1A7rA/cREo0lni79RKfp9wW6aekLMmdsBXbN6ofQoBM9BcY8sUNLGII2y5JCGQ6OrN+dMMtqoEzzC5jugbhw4A+M8vLbTs2diDHXNkBp9yrym1fu4JqN6Xh7q0WFWnp5u7evWqb0ptOHVM6+o91lHPxy3sbGnp/5poC1jIT5EG99+RwsRwzkz1W8aNzntwGpcoy77VKVWiybM1lw6TDtsE3Uo+N7YD0LTgHFLi8Oh8xl1YAK6O8O9C60burDGnK5e+tYNWvE4oQMcVkrPX353PNV8IZSoe68LYyXAxeR3HJL3+bqp56CWskYsEdWVedq6e1b2OIZW7RRKfAMl/STv9kR8HO0IrNeib9r3dguT3CBD7hky1x9OzhCGVty5xWsvl+fVMR926W7SHxLo7Iny6TwGXBP2T00Q7YTODzflOKZDsWQUjbjmBCl8L8DHB1GYeEGF2/exMB8l8Jm+Vgx7n/TCgMw8YuSYRlF9o9jtVNSzFl0lxsySJ1nGt/nx0tZbvGFHLbLnvToq+AKbuqicC/oGEBAUhBUjRmdMnuMmkvEHuzYGMUdyNkrCwF7W5CXJ1zO9BzIs2Endo41ziColNfla5sR6PcvgdGpiS5tB0zpQS34Qd5p1Wxzxze/wd+rgU9sKfCC+Zj/oNnkch+Onn+f72dDbxd1RKg0MPmIhEFNLTdPdC5uav7kgXsDTqg9EQPSEVNr0iE8855hj/PYu+l9Lq2uV6TCSCKT7Zj+mxuQ4+WZOclwDUt1iTXQllav2awa/h3ckIOXdNIww93GtCVPNGDpTl1Fa86ix6cSNH7V33xuhf6+mvvziwyaCtX4iJKskzeODGJ/s5NC34Iuda+YEp483gNR92Rt5PCPe7FNyERt+asCsZxoWHqQQkcs4gj1FTZgtl4fNQ4537wyF4I4/OH2Uv99OX1RavHFuVqWqGxqU95uHjvFtX5astR95fe3VExP0gziMGVDKMGocr2b7RmqFphiDsEUjxsmsTxg9oXbmV85FW/Tn8cP5gXFfSM2Vu9pK7yMrwPCBgRXRYRdNbzeSCKxWtCBro3K+gPWuZ6cx05Kk+t6yNJcj2lQGdUb8Vr72g4YHn1n2kOOnMS2gNKSouUBghGTfZzHwhZKTJaZ6KXdIsIysgzCGmo0zBDu6ZybrptaUmPKKY938rdKfsN2741OEHwftGJ9gwpEklLdYuHkrzzAabWzIaG+ifuQ8zfHyi9tF3Xcky7PeAS0eMtzJqwCp6bdEQlHUPFo4/XolWi+fTx2Zlz1syQTyRqJlJFoBp4hdoPcXKRxWleb67zEdYKtRItuj61tmBB00yvwIsp0ez1E8FU4QbkRQozJr4xfNUx/XhgC8c0DrSBfwduQ0S/oTWld9XCZwQZL4XexK23wbGRI3ORkjrwWwqICDKum/Me/n5uPkwkar5qHj366QYw8/g4F6eria5lcq8eWEKkn1JGfQ+ikt4LEGHJe70UdzLSzeGjfDTbuGKm59S5AY5J5Deg5rAy4Pyjvtix2NAZrOosn2W683GCcCuykuuflr2HSq+JTa1ysYx7x2RKqvr6q7174eWO1MNvL1MnDyTKioc96pTRTgzFAYwJzdcOyW60+GvRSXkqcb74gGbKcXFSJG5d+rStv6JcMvZXK4NoaNySgzFwZ1qrWOsHE0siC/h4GdHvMPoqwpOiTcLZRWjsb60Ofdpru+f2mKN8U6gaJrQnXUloTma1+MsxfiaWt/T23lk2pDMpEey9EycrRuvYF9WCKP6mZMXiDQeUE+5yS/MUIVMLDtiPzhKEF++JhpeILPr3EwyoWs10GwCJ3RnpywV8b32YqS2c1bPCcUjyPYNTuueYFJm/Q+UcZDfsC/T2GEqLDalRMm18uJ1cY17ThL/KB9fai9vma7WmO6aQembTh/X7EkQifMqUaLBxsg471pV3QSKJ8QNd53UYKucf2OkPGliM0qdsxmulBRWWPS6E+amqQjwis45fVRm/gTb8ybSjxMsY2qch6/0YkZl4TY8kh7ePNUoSIk5vkpgLdOu6JGl9du67DOagAfYCoZueT8eML7uetqo+MLxofozwl14nvdU2qUtE463ZKSiuN0jG8/xCHWWihmv8lzjNZ4hOu+RrH9WxBkN1Llp5vt1H+tMgBeMcjnGl6VHNGZU/IViB89VBjtmAwVi1Epj/mhOffxmjJABbqil+0nv13LWisMtkp7Eui2RWvrMs37fKCW76RS9Xmz4JajDi/TB7a4wp4I/p3ha3cjbQvCUtVizHXU92y0GaTxbPBGi0rzJbuBQfSEwghfruJNwJ2cXYME/cmgUUqHg2xBwYVE9DCP4Asl/CWnKLkNqYeTGK18SL+3PXf3DBoa/TgH/ebaEQ5AmDycBDxAcrqaIpxWvZr6IWrkiCsoYFHWusmVK1fR9vVPplPmhA2gdOO9z+dZP4s3z1i/M8n7Dd7DuYlEMrSakzPis0mzh3DPMnRNskJ8wFhtOQ2RZJZ8PHhdj7xY79VztxIkKtze+Poz/n1mZXttehBKuKYKMGi5JkWDxciweXW8Ni/QLRF6lo43F85UG/EAGhPHYjBxrB2aWqBx3Oy5W/zA4n1zXLcPSsDxmjKBIN3GqPscz5eER0K8ngz3a/zPqbnvAg7kQO5usmOHGBd69jv5RaPzajZbx+S3zSAFzsXxaPoYMbfOciV6LMPyml2jiOHYuJD5ixtHqXpUG2YC/2x5BJHvp20MCF8OBDfr3eHEh7aJqvbEC4PK+p7CeC7O6cXcGTT6aCCgZ2SwVGA9+vD5OzeyJYmyzxqJl/hZtJVOrhOGEDLvrLB7TZsuifCjZbJzI17lq3VCcrFcU9E7rNxi24hmbU/a3VwEJHmh/ntO/OpCUkWqMItubk/SfvGS/0EB+GYXVlgHCKDD3PxsNbDJtrOxg5OT1PoGRlDj7eXFHCeed2rw4hCez8MAy0Upk3q7CzPsZDQ4IJ8CvaDzCcOL8a+5bX9xMbk3KfHha4cr+eRu+csrws3YFfrWnvQnnVzftcTiMtNW2MyUg8SHjcxbmD2XkDOYc4ILVEuSduCXPtdWpROOdWi11L8pIbtm2p1vfYegh/cAd22MLw4ynKnwqKwDDjbBfaBf7frVgHVe5kRE/4Xda9Q6az0JyIO3XXQ5XS0Xan9QV5rkzoZpJ+5zjMS4fgTfnIQN4vqSQTrLItwcxU3CxFtXxzQ+yfnt76HrYQF8J0lU0eWyTd+EOVoKFYFnJ77wMV26nUWl8HI6STCFSyQ9hIlEpI20qzTyg/H5W62ZxMSpSu5+6G7xYTTlyxPnBmuveeraqCFmWNpJJB+Lo2edjTzvIyt4B9QGoICcsq6tHETFrzPm/Lb/CqfdYrIkhPsdkkF5DzbZM+B153V3bwBt5SKM9UNdH7MPGR1KpOyZZvCLCYskZZKndM/mCbqsiWR7i6EUmyUZmKIdW/dto1Xud04WnfRAgpRnjrWR4IGsn24p+yen9mNhO8438+pX0O77NIq5qHlb7NeKLNrACnpUVSMGpuNCIq/zyzryH/Gb+Frhx+Zqv3a8sNFt68AkyiXrJ1xXYz/8sjgCAy0PXk9gelIlPthAu//2vZK7KWGgR5PM1pwjFAGYdjiG9Yy5ZU+lakVHjWva4wBM5XY1io76EfZX2AF7Cc9hkpbk9dQStZzFLMTW0Aa8Vs61/s3pKglGHDUv1l1CE2877c/BnbrQLZbE4XDLqAvFHZXE3XU8lJtbvf+QMcv/Fg/0FN0zla/RdV9FGkdTruEcZQKx3b0UllDZzmohMUNv4CO9CK4o/C2+46a4AELtPjOts8HRkrDyI+qpf18/PjixfkyMrMV2Rxm/XnhvL4pEZhnPwyvhtZPb3CDRpsSgFE8w+85sFJAWE4TulK3qWSaqG9xOqT8nHGmuEc/ytAIntX7nTBZ6i90lB1MepFoYBNFA/7ePSmzDT7iuY4M8IR+9Koi4NZgZDbFuey9Ul+Ni365duGTSRynSw68mfBbn4yAykKkog9pYXwVA7Wu3VR604e5+3d4MZemMfs/59FOZs0Deq6xkXrT1HVf73h/z028HddOj03vK0aX7exwA+YTnC46kIgdaAFpSiQVr3x7mGu+58Ocnk9OVoz0qxJ9grAuuuW7mI14uK6fPuaP1sqOlSXdM7J3CjnP3vJeatoS9DuNSI6u7P8pNYkNS2Q1CU4KjcwbRLabfEQHH7I20UupeEavj8Tf+ntj/th5hqAhOPAn6E4tpVbkiSUWEKGzzb79k+ZKZqmslQDyI8SMdlNAlmtOocD8SDGJNKE/9eAqGQ3dP+1WodTvDs2ql1YyfZdRt4uBhgvTK5WnMESLjiIsR7YNZF/qHWBjkZRoBNSEIfWDTtMwDcbSPZQ33dyGxkn6DDOmgrFozo9+0Z6tjAaPiEv/81HIX9gjCEF7PfCiXCWuqHa3BaQLF3nV4reCypVqfKEDJ55PpX0nP/AYBNs13g2+3bktgifuKkijm0+f+2WxBPfPKPLMyfn7XRsrUI6uyVdLowbEe37MHhf78vUqUfLyIM+6EBpPI00X0dXeS0RmABFd6VrD8WrYX142VdNh1N8JVYR59hdWVdPsqBNuXJxw1rRw3GigZ9NbhKZFfLcDc4703L7XbtnvTRq1auZnmsdSV+2CqH8KeShVKrd27EDXgiw5JC2j+3lHVqdb1XUdcPz72On3srXh4GsJDOJ2IgE2Gszjca/SX/XmCvuxjMAL2pIyYdp5ITOOlATEfEl4bXWdSYkGm18dgpknxzBVlHYs/BAAhz28+3m2JUGtfpq6FMqtMYTnlVBfTFiM1Ta5QF651igY+2HLY4tnvuwetds2N03XtcdZHW/bfEWPV1abjwpz7t2m6MYoRomNkulIXJvongZsuejwJmTFX5yqMzlbfEoe6ZRu22gRtVi2V/XYIxjKKMVjuoGEXvt4q2eahacVNbictkpi57FjM5qMhwr3J6gSnT1igwlzyHAV6KAPEJt8umhT6jxvz25H+gI9H0jWm/sBu+qoe5WSFEa7YcWgHDs3WdzCvsnWcK5R8e6kA1rdlwRh9p0aYTvcg7qWOW0hHh2z10ZVkrXLbRzmPnITE1V1Kmcn4bNth47yjEz7Ztj1QJutC0RA45ePjjQjUyZynpLMpwmVrUepumF9/4fFS5kNJ4e8TOMCU23q/Wz/OOYdN6/QVhD6/PR4jjGhnRnMTtM/nnjE2JEJTKO0/clpleL82w/Umh4+sMSnOjisb6yWBFlPc69CNJ8s5UtJ4CJaEy3Fs1Z+fVmvT+Br06BpibdpUoP2OUPVlV2/J4wTz7ZtjZ+O0u9yC9fOcQXR/r520AewJpku3nw7IsUuxUKJHI6vqNOZ7+7221LtaUc1xlYFlm6Uf1C/WlZw5WcCGdOnTTtQNelUcLR9NV5yPz7/DT6ODzDlH0+kbt/v+vs/1HTtpX8aseb48obliQfGpHtgl0D4+4NspURP/Adv7pnCar5zlsPy2WvVz4dnhdWav8dYApYBe9jsJb/Pnx1yKuxFb9eitmP/h4gQ4MFwkOcXJjruAVgaOjHdmIcWbFZny4G566OcWTpl7mPlaXb3d8y/Izeo</t>
-  </si>
-  <si>
-    <t>Hulu</t>
-  </si>
-  <si>
-    <t>hulu.com</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;width=1200;height=630;base64,/9j/4QAYRXhpZgAASUkqAAgAAAAAAAAAAAAAAP/sABFEdWNreQABAAQAAABkAAD/4QMzaHR0cDovL25zLmFkb2JlLmNvbS94YXAvMS4wLwA8P3hwYWNrZXQgYmVnaW49Iu+7vyIgaWQ9Ilc1TTBNcENlaGlIenJlU3pOVGN6a2M5ZCI/PiA8eDp4bXBtZXRhIHhtbG5zOng9ImFkb2JlOm5zOm1ldGEvIiB4OnhtcHRrPSJBZG9iZSBYTVAgQ29yZSA1LjYtYzEzMiA3OS4xNTkyODQsIDIwMTYvMDQvMTktMTM6MTM6NDAgICAgICAgICI+IDxyZGY6UkRGIHhtbG5zOnJkZj0iaHR0cDovL3d3dy53My5vcmcvMTk5OS8wMi8yMi1yZGYtc3ludGF4LW5zIyI+IDxyZGY6RGVzY3JpcHRpb24gcmRmOmFib3V0PSIiIHhtbG5zOnhtcD0iaHR0cDovL25zLmFkb2JlLmNvbS94YXAvMS4wLyIgeG1sbnM6eG1wTU09Imh0dHA6Ly9ucy5hZG9iZS5jb20veGFwLzEuMC9tbS8iIHhtbG5zOnN0UmVmPSJodHRwOi8vbnMuYWRvYmUuY29tL3hhcC8xLjAvc1R5cGUvUmVzb3VyY2VSZWYjIiB4bXA6Q3JlYXRvclRvb2w9IkFkb2JlIFBob3Rvc2hvcCBDQyAyMDE1LjUgKE1hY2ludG9zaCkiIHhtcE1NOkluc3RhbmNlSUQ9InhtcC5paWQ6NjBENDBDRjkwODEzMTFFNzg2REFERTU0NThGOUJDN0MiIHhtcE1NOkRvY3VtZW50SUQ9InhtcC5kaWQ6NjBENDBDRkEwODEzMTFFNzg2REFERTU0NThGOUJDN0MiPiA8eG1wTU06RGVyaXZlZEZyb20gc3RSZWY6aW5zdGFuY2VJRD0ieG1wLmlpZDo2MEQ0MENGNzA4MTMxMUU3ODZEQURFNTQ1OEY5QkM3QyIgc3RSZWY6ZG9jdW1lbnRJRD0ieG1wLmRpZDo2MEQ0MENGODA4MTMxMUU3ODZEQURFNTQ1OEY5QkM3QyIvPiA8L3JkZjpEZXNjcmlwdGlvbj4gPC9yZGY6UkRGPiA8L3g6eG1wbWV0YT4gPD94cGFja2V0IGVuZD0iciI/Pv/uAA5BZG9iZQBkwAAAAAH/2wCEAAEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQEBAQECAgICAgICAgICAgMDAwMDAwMDAwMBAQEBAQEBAgEBAgICAQICAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDA//AABEIAnYEsAMBEQACEQEDEQH/xAENAAADAQACAwEBAAAAAAAAAAAAAQIDBAkGCAoHBQEAAwEAAgMBAAAAAAAAAAAAAAECAwYIBAcJBRAAAQIFAQUFBQMGBAwODQMVAREhADFBUQJhcYGREgPwobHBBNHhEwUG8SIHMkJSIwgJYjMUJHKCkkNzNFQVFzdXGLJTdLQlRdUWJna2J3eXY7NEZDVVdTZGR4fHOKKDk9OkVma30uKVpYbWZ8LDlMTUZbWWKBEAAgEDAgMEBQUGDRAHCQEBAAERITECQRJRYQNxgZEEsSITBQahUtIHCNEycqKys/DBQmKCIzNzFDQVdReSwlOj01R0tMQ1VYUWNlY34WOTlCWVRvFDgyRkhNRlJkQY/9oADAMBAAIRAxEAPwD3v63quv8AG636/rH9bmidTMvzG+SnbHZzFLarWPgH1er1vaZJZZL1nq+Jj/KfUFvj9W/8dlw/KlaHC5Ee16tt2Xixj1XXLfH6gk4z6imhRTBGIva9afvs/FgPU9ZE+N1l/smZXhkbQQuQe061t+XixH1XqAP4/qmn8Zmy680EJle063zsvFkD1XqZfG6hJt1M5lW/KRuES1irjXU6vzsvEr+U+o/0/qr/AGbPwGUL1eUDXV6zf32U9rNcfU+oP9f6tETq5i1eZYyyaSiDVdTra5ZeLNR6jrlvjdZafrM7KwOSRmtsVK9p1p++yjtZt0vVddP4/rFv9MzDUqkZuJsh+16vzsvF/dNMvU+oQr1+qbD4mbf/ACkge20Aur1rb8vFk/yn1H+n9Wn9dzqUQ/ejFxyNfa9bXLLxYh6n1D/ruqJy6ubuP4VYTi0VGur1fn5eLNB6r1BQfH6y0/WZ9/3jGOUOsGi63W+dl4sseq9RT1HWlXqZk7vvNEOCn1et87LxZvh6n1CP1+r/APSZ8ZyeIpyLx6vWimWXixfyj1BK/H6v/wBLnukROCE7I09r1ojdl4s3w9T6hh8fq6frM00/OpGGUdwY9TrP9Xl4s1/lPXl8brf/AEmU1b843jLKlCvadXTLLxZoPU9dP4/qn+nyYzmTSM8nNi11OrP32XizT+VdevW6t/4zP2ssZ0LfU6tt2UdrH/KOv/p3VBmf1uYHAZaxnnD0KXU6nzsvFix9T15fG6g/+czQd8RRlLqdVfqn4s0HqevIdbra/rc7H+FJ4UKJBZ9WZ3PxZth6nrz+P1MmD/Ez7yqRhlBos+q/1WXizk4+p67/AK/q7upkgoq8zIkZuOQb+tFMsrcWX/KfUf6f1gs/1mdqukohtLhBoup1V+qyntYH1PqC56/VAP8ADz2LMTiaBj1OqqbsvFgPU9aR63WGvxMpXH3kY74ycTY09p1J++yntZY9V6hf4/q7up1LUeamM3FqD9r1PnZeLNcfU9cOev1FZf1mdv6KIcXgftuppllHaWPU+oP9f6xDN8XKWzmNTEvbFqlPq9T52XizTD1XXy/r3UBoR1OpwC5SSM8mogpdTqfOyjtZofVdf8n4/VYJ/GZk6/ne6MXF6C9r1Ncso7f+kP5T1+Ufr+rUj7+bTE1SJpJourm/1WUdrAep66/x/VJqnUyIB/qpWidJg0fV6lEssvFmo9V1/wDT+rVh1Mtx/KRoh00Lx6vUS++y8Wafyrrkf2x1QBP7/U0QpzW3xjrYp9bqJffZeLNcPV9ZH63Vkx+Jmf8A9ou8JpIF1erP3z8WB9V1/wC6OpvzzKKo/SnCpBp7XqfOyjtY8fV+of8AX9QrJM8lVNukY51XIPadT52XizUeo65/r/VNVPVzTuyjF5KTT2mcffZeLN8fU9dP4/qpp1MpBZfeCiJb4jXUz45eJsPVdY4oOv1blOpnwcrGLcGy6nViNz8WWPU9cj+P6hqhzz/++1iZGurn87LxEPUdd16vULj+uZLsTm0hNxU1XV6itk/Eoep6/wDp3Vuf1uVrczROTlC9pn87LxZt/Kev/p3UnTqZvxympjFtwV7TqRG5+JsPVdcL+u60pnqZhi7OyRjk5sPHqdSfvn4svH1XXQ/zjqsz55z0PMsY5NwaLqdT52U9oz6rrgJ8fqr/AGTKW0lozdQ9p1PnZeLAep66Ket1dvxMk4c0RnYtdXOPvn4s0x9T1pfGzCmYzzsCyZROOVZQ/adROmT8Waj1HWp1eqUrz5ePNCykpdTqfOfiyh6nrp/G9Rin5eY71Qxm3zKfVzp62XizkdP1HWC/rupNv1mdlqbRlnlzoV7Xqa55eLGfUdZX6/Vl/phGyWVIz3PiX7XNL77LxZQ9R1iP47qN/CyHD7yiUQ2ysOtnbdl4skeo6xb4vVu+eQKIn6TB4lts1fV6ipufizTH1HWQfruogvnkKGbxllvbgpdXqW3ZR2s2Hqesw+N1ZOmeUkurEQm3E6D9r1NMso7R4+o65/r3Vp/XM6qlUV4htriNdXOPvsvFl5eo63+ndT+rzTQpzRjk3JoupnH32Xiy8Ov1gP43q7TnkDXWkS5J9r1N33z8Wajr9X/Ts5fp5MRWcZttsv2mbX3z8WbY+o6o/r3VuUzy4znGbeVil1OpFMn4sv4/WKL1uo1+plrbKsZZTMI1XVzS++c9ppj6jrH+vZvXnyfcsD3a3DHqZz99l4sMfUdYt8bqapnn/wDfK0Q3nY1x6nUvucdpoPUdenW6heuebaqMpPGL3SV7XPTLLxZoPUdVD+t6j/w8mbaIyymTXf1Ipk/FmmHqOsn8d1R/84d7KtYzy3SL2mc/fZR2s5A6/VIH67MXTLPTWcY5PJXuXj1M0/vsvFlH1HWQn43UM555ayKqkTLBdXqTG5+JI9R1jLrZprlmy7xOJe6xqupnFMn4mo9R1hPq9R2KZZChF6RM5RCkH1M9Mn4s0x6/XP8AXuoGCfrMk3/epEN5Fe0z4vxZpj6jrf6d1azyy73jJ7g9pnaX4s1HX6pH8Z1Evz5TebukZZbkUur1PnPxYz6jrf6d1KTzyXvIEZPc3qV7TP52XixD1HW/07qH+nyVwxmk4hvIvHPOa5PxK+P1j/Xerr+syv8A0TPGc5TDube0z+dl4s1x9R1j/XepcHnzC6B6G8Zt5JxUftM+L8TT+UdWR6nWVkPPlpqqwN5zcPaZp3cdo8ev1nTrZnXmLLvhPLK1S/adSaN+Mk4+o66n9bmlufJUZi7vEtvizRdTLjl4s06fX65KHq9Sf+mZaIShQPGWeTi7Fl1M4mX8pyR1+sQ3Wzv+XlcIXM4weTi7jvF7TqWlmg6/WX+M6qs/xMn0Y2jJvOHJWPUzvL8TTH1HWVurm5/SydDdULRCyz4m/tOo1fLxNB1+sj9Tq3/LyTaixL3p0YLqZxVuO1kn1HWV+r1E/spAbYWEQ8s1q4LXU6i1ZY9R1v8ATcx/T5AGTBwUiJy5lPPqJ3cGmPX63+mdWrnPK7CesZvLLiyl1OpFW/E36fX6oH8bnb8rISdir+UY5ZZzEsXteo3DbjtNx6jrf6dm8vvkEb1Yxnk8ouzTDPObvxH8frovxc2tnluULUFohPLiy31OotXHaxD1PWVPjZgf0eReyKDE5ZZLjJeOfU0eXibfyjr/AKfVBqueTE73jN5Z6MpdXqfOfiX8frJ/G5tU5lVk7h90Z5ZZ8WaLq9Xi/ErH1HWl8XMtIZ5Oa/nMYznJKZcAur1Zu47TfHr9Yv8AE6l/y8kAt+UkZZPJ6sr2ufHKe1lH1HWM+rmA0s8p7OaMHllzLWfUSu/EPj9RE+J1Evz5Vn+deE8sk7sePV6l23PaUOt1Qn6zPdkWRdUg3ZtXZftc+L8Sx1+rI9TNS5+9ks9rwt+XFlLqZ6N+JfxuqoXPqXbPKp0LTiXnno2X7bqWl+Jrj1+qQ/UyH9NleYe8Y55ZXTZePU6i1fiL4/VU/rMlqTmQxTWUZPLPizRdXqcX4lDr9UonUzZX5slVxfSMnllN34le0zdm/E5GPW6gD9TJ5pllqlVFIxyyzbuxe0z4sv4/WE+pm5lzZAJIMprEPLLiw9pm9Waj1GZAA6mYFUyymxdSSYl5Z8XI/aZ6t+JZ63U5UOfUlPmy4uaRLzyVJcDXU6l9z8Scet1QidTMy/OysoCkokRllno3Haa49TPi/E0+P1SEOeWVUGWTGYVyiExlk85mWW+p1OLKHV6rfrc1Cn+MIGxFid2XFgupmnDbnvNsOt1VfqZg3XK4M1Foyyyz4uQeefFnIHW6iEc/U28xfRjMRhk827spdTPi/Fl/G6qH9Zk8vvZFKu6TiW81qw358WLDr9avUy3Z5AqmpksQ3lxfiarqdSlX4mw63Wn8TMMV/WHwB0jN5ZcfSbe0z4vxLHX6r/rMkp94idiTQxm8upaWWs81FcjUdfrBviZgi+eXGZnGeWWfF+JTzz4vxNB1+sH+LmZzyy2Eh6LGeWWbpL8S11OpxfiX8frInxMtvOW76Rjln1E7vxB9TqPWnaR8frL/ABmbyPOSKskoFnnq34s0XUzdJZqOt1CGzyG3LLagrKB55rVz2l784u/E1x6vUI/L6iCvMdXnGWWWcXfyj356N+JoOt1UH6zqUAfKu9xxjHd1Hq47St+TrL8SvjdRCufU/qsmqAtVjJ5dSbvxLxzy4szPV6i/xmYZSOc2srGJeefF+Jqup1NG4NcOt1FfPIH+iz3ViH1OrxyJfUztLg5Q63UOJHP1LLz5NPXwjP2nU1b8QWec3NMer1APy8mDFciGM/yqxL6nUm7jtDHqZt3ZQ6/Uf9ZmTR8rVk0ZvPqTd+Je/KLsPjdVF589vNlOxDrOM8ss8nd+JWOWT1deYY9bqqnxMgH/ADi5KXMZb89W57TXHqZcad5qPUZoRz9QbM8qTA+8ivEPPqOib8SvaP53yljr9QgfrMiiTyPtMojLPqcWu8tdTKbtd5vh18w3xMmkRllI6q0ZPPqcX4ifU4tm3xuoi/Fz3ZU/qknE7upq34sF1WlRuoj1+qW58xUJllNRJTEb8+L8QXVfFl49fqENnmv9ERSR+9SIzzz4vxNF1ctWy8et1R/XMirflFoyefUijfiaY9RrVmmPW6iEc+cj+cftnGTy6l5fymmPVz0bSK+NmUXPMGScxnQkLeM9/U+dl4sp9XLRvxNMevmqHPIbDl9pjF5dW85FLq5JXZp8XJFXPieCq0Tv6nzn4lrqZ6N+LKw6ufPgmR/KxrkK3rF4Z9R5r1ndalY9TLcqu/E6N+uB8brTP63qVX8471j7/J+qj5jdV5e1y4bn6TJAgm8m3tNIJITeouUFySttVvugnwCXIwBJdu+XGG2DbVxZAETM6d6vAmwTfcYgBZ7xxki0hPJ95abjmaAanYGnKcQ8ooGMs15ZUWQWveZRi8qcjfCtTTHEGRPAoizcrOJ3LuKqsjfBKELuQGc5xnlktKj0LKSVVSScHSZidyd7krJ6iAFyhpd5TjF5JNmybJQKq7thvpC3QUm9TTEakENJnss4jPKalmjM53IyT2NGbcDlmmL1JWocg6bYltGim3ApBr4e2URuk0j1ZZriqAKZSoT9kYZZOeQYyahuzNYsgeM3kaZNo1D1Oo3pXxiMsuySsbczYAI6nzYJRaxhKdym3AEIA61ATwWwhZZKug1k+8nEMFJ2DzKOsZPLjY0VjTALUzki1ls8oTzXcByMMQatYI+5yJxlnlLNVMVNwl5Md+pEZNk7slaxoETRfuiS98ZvKvM0TcVJIqVtpZJRO56Am2x4oUmDoyLIKFISMnlFzSxbXII7SiNzYJ1lmgkxWTnv3tpEyk5LTWpoF2BgJJqmiQpHSeZQ1UJP2K5jJ5GlINSwVDJ2qvvjJsmVIGSTNu4tEt8pNMcsZkADZU7hSxEJviaSjQHfoz7QZTvGTely8Xjd3NabUCAHSZAnWMq945x4mmBCVFJBHBhDTU1HlPeqedol5JI0TQ8QSUYipEyJiMcnKHTU2CkPqE04RjKTLnE2CgJbsxScRk13DxeN9DbE27xsJNzZIybNt2OpdNvCVaqDEzwGssZEAXRnYy2bIW5Uk0WS1LGsqiS6TiMssU5YJrQ0B+xZ74yyyRdIob4EpYaVU6oWjDJ8RzinUpdi9t8ZbqFpoMizz2PEUQ543KW4NEoWq1ozyauhpooZaWULxDCJwaQ5rehriRr7UnttBk5LRfNtJB09xdYzdCpdjfDJJ2ZBLR0tGWcQNMrmJ9+0JdRGMpF6SxjInFDucgeES6l48xYn+i1aVqTfdA5sjRtmgJkFXiu2UZNPlBSau7GnNJUZmDkKkrROkFOYNMcmewTWigIVSM4eg0MklAS9JN3UjKDRVUuxp08jJwPe0S01zJydawa824nvJ0jNriNOVJrjkgXfxatIzaZomrminbpJZXDRk7o0TpzLUo7pIIBNlVy0Nz3DxfIMMiunnqXjJvI1k0GSmrlNli04yajVFJ1qi1KKXkdnsiHM0NK6m/Ty1mQAv5KB4xzkKfqjcZHwam6yxjkikxnIh239nRYipTfFAMiQPzq6D3hITTgvGWXjkTMObErKE7UG7yaY5XrulQoyrGbT7itKF45Gs3CUbVEjKHrYNeKNscqAGVn46GMs57y6orLIreu8tI2jJpjrHIlZAjYngQBGcNovGdDRSnDZSU0aM2tDae8sZNqpLlbo6GEsXPIekmmJJkvehcbfOIcyJtWdCjkyDa3aUJSXjGliFmbaDapAW0TlMczRNI2wyu1sZe0SjPOYEzkDJgq13O7hpx47T0sEqLmmOU5qPM9zxDTS4lKO4sEbaEMgtvMZ1rBtJpiUmSTpXcxE4nKbaFLKKCXdpwlOM8k0UmWCwFXY32uIzcxI7uGy8ciKkaHatZxDktM5OGSprICh0PujHJPUmOJtjkrW72HfGeVpRpjCtco5Hl9vbSIU2NMtr7ScSarNA2uxhCayKxeKVzQZgP8Ae3yiMpniXpWxYzVlmyiSb4yyTipSNeaeqcRogWMXyFMOTXDJQqlKCQeSRDTNU1El5EFH1Sgvq0YsaaijoIZoVVpltjSURLU9pSL50MyLIJfbDikM0NcSqAks83I1abRA0y1kpRb9mCRLoWWCwB4KGseMZ5JNSaYtWEM1XTh2SMWpUGsqaF8zzUr3uCYzePiCa0ORjmzlkoVTlZJMkYZJd4VL5galqBxavdEOgJo0W6oRJm1VJwmNljMGpUuoYK+0oYzaGoFzCvuSwSkBriy1Gt1csVQRlkpdypRoMjRdhR2EZwlrUqfA1xyK+SvPQFYjNLiTLmTk4ZK6EN9tHjx2vANzTgvLJk5tpobVYQONSlk+4gEhtaK2kigbuiHitLmqbsa8xSswgMtTwjCDRZPWJNBrw9pSIdzRZZXLGRWoevHap1jPLFFO8m2OZkUSkuGiRnkuCKl3ZordjvjLLFK8jIBdmaUpJR3aJxUu8lriaDIl1XRknJ6LDeKuaTki8Mys+KFlqtYyamg5adYg2+IWQj27qRi8cdZKbaZYJKnUlnbY0ZPHGb0LWT0ESVYFGS+5VjNrxNU3BWBOyTWklHSJduQ2cjDMhiwMhQcdTGVJnUnWlzTHMyCIGW3tm0J8A5mqtVaI/dGLVS5cAc0B7P2tEtDTfaTiT+cVS5nfiYjaaJvxLGYVlFxZ904jLA0lrSheOVV7kG87IzyVIRWOSbNsMyEDXChfETeMWkTm3PI5IzUEo9Ae4oAVIiY8BrKakHIbfKj8YmAxyRePUF2F5lQoEpJEZqUa7lMamvMGRae6xjFqklSaDOylXNUai7IjKH2FLJIs5gz2Ci7Z3jHb2mkzVl45ibuiCx1OyM8sZsy8cjbHIGSjZWu1oh4alvJWZWOQ5sAD+cNROsVh0/XU8UXjkty7To89Qf13Wf8ArvUV3/LylWPv3j96uw+ZXUy/bcvwn6TMKs9prbuhkbgQ3BFTPbSSmANz0gPvOVRNZ0WbiANz1JJKOQvtW4vAG59xABJLyDVUpqqxOThGidTTEZfY5QnfE5NQOWnzNUJAWl+5hGOUWRthlL5FobkPf3pEJ493Ee/jY5GAKDhIdliXt0G3IzQqGoA6e6Je1LUlZR2ACQSZ7FXSjxg9lzWfAkuSCqVVE7qwU7y0y+XWUwC+hnU+MZtq0FLhqW6BUI1pwmYltSWlSTQCSykEUaSq8Z5PFlpOCkeuoCjuMS3g73LhRU1wLGqbbojLOMco3VuVivA1NOxPA6xlkVZVNACdUIoFoCwZxrGWTxLUcTZyr8dQkZ+qVTiPJwhJO/wDxGUcRpJkjLhuDy3RFJNIoaYq1ECoTas7iFRKBo5PTJuoQTQqqSTZGLg0Sk0StLe4KymM20S1W5oGBdFo9dNsZ5LEuiV6jJf84AWI8tYl8rjUIeORuaNt3iaRlk6mhXM4ZQlkY+3WIbxbHCNsckRPDRZSI2xGtB4rwNBl9reEoUlOC8cgWm5JvqSYybcmiWhRyGqOk7dmjJvhcmmtywfuhHUqiC1IlsrGJqIGS6GVCWSe+EzSYZoMiKpowPdGbczUpXLGU1cJKXZhGUFt0NMcuG/2tEtuzsVjGtyiVcKdsg0lmqGIeUqHc015FYFVn7O54ybaqhxD5GwyTYZsCTZEJS8YO5RridpmEKdyQnQabvoaAzkA3GffGbeupolSbmnNkR7Qg0cNEboGpDHI7HJulzqxiHBpjKNBkbDzZxcC9onLaC3O5YLAIwobrdPOMn4dhrdG2JKEOK8R4LGOTBcWaY5Ozh5jsiLGJamNBZFyQUJDowFxaIbSoCmB8xXt5GkTk08eZatzLGT79xcyYyjPF1H2G4zmpAuHcj3w83WEVi4XItSl9qVRyhSM25oX2RJriTNgUDzrLhGOcdw7FHIgk+ZfbMTpGKvUfpGDQPckeM0iW6lYMFQq43u5NyYHOptXU0BLWsLDfrGLSvqUq3NAO6acNzQNjhwagok9N91pGbtJSTYiVRGFjXgJRk5sWqKhpjask9oWRETUnSWb71+1dpERW5UU5l4kJWiXshTbGWUtlJwagvWnC+6Mmm9aGlOJQk43VTdBLsNNVBQCQh0DsKvrGeWOTNU9dCgZJsUyqUaMqlTFiwalQ9GoHcRm3knBayiht00ac5aCWxdYyyeTuwlc5OQBIIZvRlG6UZN5G2OSY8gEKKNFZfOcS29YEshhnC6r52IiG21W5osqUsaADWjKdhvCrA9zLG1kpMiQLoBGdeRe4vFJIXcgtUSRg0ZZbgWTbNRJiUYgd5cJOMsnknNC1lBRCoSvG3GMW2xz4iIAQ6S3NMOkQmy8WWoCIqEKUFRurES50Nd5oADc0P2SAiZq5uG9luKsDdWsi67Ylj3VrBYcBfalleE2aY5InleoIlQamoKeES2aLJq0GmHMKoVY6NupGWcaieSZyAqaVChBwWMm0CyrQsLfVAql+EZPJd48W+UGooiFO7Vg8QtupqssopaCgUq3dsJRoPVsWm3YTqQJP23xlkk1KsWnX1ihzIibVbgiu0ZvaOa8iwfcpLbBEGicLkcrElApVLgCyo84xcSKUahS9NKUDo7xnltsVjfSS1KIgo0vGaRK2quhb5kAmoKbryuInOEzROKFrLud0M9sRkUm9TTHIixFm20LuYyziKmiZYyeyiTFNeJjLJYxS4paqa4ZlwAonbi8oyysPfwNTnIL302AIIxaqPdyJOfko1fVaRMJ0Lxzhw7F8yC4NNT3mGzbcXhmrqXklGZnKRDQLK3A1UrPSxmgmdYloe4sFGvO/giRGSLTkkZTnOU763jJqupri0kaDItVFmJ9+kQ0pHNZNsTt0TRrFkjxs0kJtLsNccnULZJRDSbEmtDTmRn4t2e0J4x2mk3SAozm01VnExeJvQpNdxYyb841kbAOYyaqaYstdU0RrKjxnklqXJYJGxJV003QoxZSaNMcgSQCu1En7IyyxoS3xscrHNqinGXCMGoYYwmaHIIiktIADxaJHSTNU/SVZaz7hCaUGiaNQSGY7GR5RiatqDTEsiNrxMZu/M0xcKpotVINAfJ0V4hyUuBfMWV0uL1CRGT43NMeRqv3XUMw3sKyjFtilk8xBIKPxvKwgSpzZSbmpqMi9fZJKxLKnwAEzDDTx4Rk1JWMqprz5HVkBNtxmsROmpUs2xzeeL/lI8gnGMMjRS3E0DLK8+5u5CIl1LThxIY5GStVe8WjN4tmmWTRyMSVrjYE7LF5xmlWtiU3qqGiliu2XFjOJaGn4GoJQIeCkh2a4jNriMfOdU138EMZ5Y10KnxAZHXymWIk8TXvLUlLLTYB4u8LKg1lxKGbXAoZ7dXjLKvAvHJaGuBdSSjNw0jLJRa4No5Ay3haeaSjN46j3KOQHN5E3Cop3RnHZIbosMZEtoJMT3hVick7mmOerRr8SQs8kNmRkiNpo8qSrF4Zku4PHYS0YvFpxdDxepsMidrqyEcYzZo8rDxyslkKX2IsZNV5Fp0pc1HUYKsgjqX2GkJrjQvd3mmHV+/gAW5g8kcRWC9ddqHjk9y4SdInX5R1+srr1uojktzmyR99E/VXYfM/qV6uX4T9JkzBgoagpd3WHJnAATaVVnTfBIxIDWgJcq4KINR4wBYDyoCji+6qQTNgQgcVpI+UkM0jLNytTRLhY0CCwVhbvrGbHWTQJOaIV1XdGbbszXGeJSiaezcHiFYNzTk3wINB4d6NEugZZOOZRIIcI5cU7w0ToSmwxIWY0dBrO3fGT+Q2Td3MjUEyXVWmC14kvFmgDjwfvvEOhpiy/use+pC+EZ5TPM0mlTQITIcNj3cRm+LuUnQGVPFAjsi7IRpNKG2IFBsepCUnGOdyJc3LZnks/crRmx1NMQBJHCV8S9Ixb1KUq5ogtucik4nS1TWq1qWgSYC8UR6xjlWpeNEICbKgmCg3XAEKC5hUKGIAnVUk920ELtGpmhyemJCrNt27N0Zu5blGwAs1522PGehKlGmI76sAa7YycTyHWJYssQ20VZO4sTEzFhqShjidFdCVDVaUYNPQ2xb1KABQo12TcsZxUtPia4gB24HfKG3pJayihogNtNvisQ4SKkoY/eo2s4hlTQ1y6aYqo4ymjAGMYqRugfKERmDcIToWnAuQJNfek9sS5aNHlUvHDGahDSoPfeMWaJo05NnFvF0TbGcqYG3QsYY3di7KkpTiWpZSzigygWXgdJsIl8S1nxoVgg4VWg3MQIhtJBvU2ZyAAyntsf7IxcSXvWpYxB1360RHeIb8C1mu41GKCVURbU1nENq5osmqGizQCk0XiWiaO402gxIqFQ7OMmiMoNMcqF4kVBUStsRkiMo5QNZOszJoHRQu0gOoFhWMsu0tODbEYkBuKzs0YNpAsqwaDEMUmu3zaMW0y93EMgGYnjTZeIbSXBhMVEMQStHcCXe0LLJbeZcmgGjBmLe0xni4c2DW9SkE2WyyM5SWHlyKV9ZNUlJ2bWsZt0KaZvghDjVFnOgjPJqC6oZAWbWAktIxlJy7g2UgSUmVQm6sRlVjxme4R5d+qJuZonKljedJqWEkwMjd6A2jNurLXNyatcdthhNz2lKiNcUZ2lRBxlEOfAa4ajyxBtcUasYTwRcuIbKxQ7dpZWnrC15E14mzXF7F3IJ3RDL0NMXE20SmqqqxjlelxrmbAuNQzM+1FSM3c1UQXdp+/UQgWUdn6OBLEoqFFc1R4l14ya4tpSWE4HYSzoTWMXE0sVu4mo5UtRCS8nLgxjlMlpm2CGYY09tTLfGWSBM3CW3qTqLTEZvlYtZ2gZITUG71RE2xOgLJzMUGBiE2AJeM9DVN3LCW7VNKwfqSmaDlJGkmNnqYh25FSWyMFTUIBOhdTGLqKamg5Utd/ZdYyyTNJeho1EUUdQ098ZQtXQqSTy0AYoEVJLcK8TEKS8Wyxku2dH72jN4qZkvcaL2JIV9ymJgJRX3SjhlM2nCdKilmgxxmElMOxarPExJauIJojpsuqtPZE5LU1xmLmmKM4crtfRIyztUTpc3GKUbbsIlUxgxpuKMsAF2Vi5M7NJ4za1KTNcRiUZGKsi3mXEZpc6GstWZaDYJ9nELJajmBKBlMCZEl8kMRkqFek0SSJdVkqUaMgdOwsYhVZZ95kHBMQ9S8cnq6G2CaeG1yEjLJSCb3VOUAChUaMwG5CrxjkoN8MncpKkje51rrEr5e0vc1TUQAYzPctBqIWXyDTpyGccTJverlLxm71L3FDHEIqDtviM4gpZMrlA12L2UxnklEoayNcMQX1RKCqRnlatilkaEBWErM32xg4nkNZeJIAPj3uGZVgoXjm0Wg5QwDkhuL2WBtdxpvfeXiDNCETYm+JbUF45Tc1dZLozWawiXEcii6KilUchNAjKIzyaLxyrUhXMn4MaJeM54muOUKDQJZH2Hcq1iHkp5DeXA2BxH2rYXNe6MM61J3J9pricQVasvepRRGLalNiTg0BaSuswmooyQZOal7puUSEolOE6pGZWOdI1AZYsiWOvkpiWnc1TXE0XGSBJBCUeTzmIzdKlJ1NAQKoNmxTQwr6FTzqWAtFCLPvpGLowb4M3xAa80U6Mg74xzS3TAJmiYtpufUlYh1C9JHjyuTkOPsesTDixeJYR+G7ZVoiYqaTCuaANtuSHCIKRk2m7GmM8TTEDRRqb6KYzy7C5hvgaYo3dpKegjPPgWu2TYojoro/eZODGLgZkgXZLYJutoa4stcTUMJKFvZZb4l1HNOYwiNMzVfJkMZxTmhrJ2NAAkkNx3OYyuU2zQIL8VfWjiM2ilkNVJVp1mNF+yMsvkNcXWeA8Utdw1ZRDtBbZyQiaiuqNuMZcwWRoEmgGjpNFVJRL4CTm5YQ6OHVnrNVaIZclsVcUQBQLroYzyxljTgMRVKoqtqAFSIardFStSkBpIg3rRGiWik5RQqWnosncvGbVS1mrm+PKCu3f5TjLJU5DeRsEJpokmC1eRiMsfVqPckqlEBmTYVRCrRlAtygQTG3dPTVmhNN3NMcoRePLOu/fMB1EQ09C98qrNQgnWmtXK03Rk8KSPHM1BBemhG8zWMopW5pvrzGgKynNUAkrBJRltryNFnSDTkFSV3j3GEk0ytzfYX08cebFwoyxolZu8VgvXx7UUnGSrqjpG65TrdZB/XepKScxqJNH3yxdEtYPmp1cX7XKfnP0mS1pt7P3QbiIBTMKxkyqD7YJauG1gCe3fS8Oe4NvARdPC9dAYJlDhrQWN6aSRUo7xjmy8cXGsFqAbro/hKIybihax5GoyCTQzI0d2EZzTmWsYdSlBqlFvfjEp6OxVJqa9NJAjw75RGWVRtYRYrLIoHVTMH3JEzoJLHgGJBVcmN04SRoybi1jRbVawyH70lNPKJ3Te5ah9pYJmCbW3d8Q2lJShaULUs9Zv2pEZZGiatyNcSbkzd30raM20+0pNcA5ioC71ZYmdEaUasb4FQHDNt+zujHO4k66SXzHbOXeLOTEN+A5U1RYyyn5vvacZZPiUnNjQHK6NqWWZjM0jwHllkimyNpUKGLRm4mtisYECdVsJGW4RNNTVJuisWFeQE2Tgm0Qnag0crpnJBLIXFQdRGWUFOEjVc3UFaIeO1RGbaIpJYyyuoRKLokZZXNaRKAkt+Uxums5RDdHwBYqeZWJySZPgE98ZRj2GlrmgyyqRK0yg4oTENKYRUI0GRIYhtZeJdYNq7SqNFjMs4AO+W6IihTxRpjkQi76laCSVjPJRYvaoNMuoUH3p++YQO0ZQTtSHznlXmxTRGib9pWOOIhkUKGSOEkJPMJCaoabUuwsZasBSivUIkZPHskpLHS5oMwcZNS9LsQ8ZbEV6S8cq2NJ7XpC2IpLkUc1t7S72iXiWo1RWGRRdwa1UnGOWM3KjGJihtzlkyA0ecqySMo0ke1PQ2xypK7lWJqEWM2qFJGvxMyF5mYL7QkQ0jRKFQsEore3YIlpNQxpaaiGWSVXjo2iXiXtsXtrGhYyKos11iMniNI15ijksVUVYaK8ZOININsciRPVmTadsYZLFiWNaUNecumQAFk4WMZUZpHEMsicRfa3ujNxNQS42EOoRXcDWoQxnlt0NEkrF453JRtqhRasLFKYDsLGTeRZtVvDyhdpafiag6rspZZRn2lTFjbDI9ryo1YzyjaVD1sM5hbX498YxXQGkUMlAsEcg0o03iMr0GlURymqHSqnbrCcmzXgWCzpLjvFIzabLUJ8TUZKKuA82ovCJyi2pWk6F45SkPBPdEZNpQNPwGcrrvnTjKMncueVSwSQXCA66xNSJrY1HMjvoolwpENmkqDTElAxC1UEbpxnkyk4RrzG6qzd2xoxylOiqaK0JFglwZJqfFoMqK1SsY0UMFy/SvQUid1YNU9UkWCbgT8wTZIwmvYOlmilzEyUGy1xdLRm4b5lwbYZZ3JG32lpRnnGg4StMHIxJkbBD4KZSrGORSi8jyzyuxlJV2C8SP1eIY5G62ImO5KxLixoo0NBllPi68HWkLQdChmaZToq7Jxn972yaLaaDM3Oir4VaJajtBKprjmblWfZuREjDJKSogs5m4IlNDL3xm8ZH2XJORMybdwZaSiHjpqUuCuHxCJngoaM9kGrsajKUyL3KjTSDbjFGODQZliyKiA1udTGeWK0CFPYajKZkUklbTiGoZah0ihPM6ijKiigCxLNFiuEFjPW6opQ6dpRlklEA0tFQ5AzNQZn3zvGDxi7JiDQdTLTck67oh40jUvGLGuORRyNO1FiNqNOUVLGZfe9ApA4xLWhSjUnnILlaXonhrEZJQWuwsZujhHv7GMZbdStsM1GbzHLbfKd4zgpJVob49SUh2RVSM3FyW9GjbHMoSMtS6je5WIySiDRdpXOQi5XeiUoHiMUpoW4voPHNlJRrqTJNIWWKmihlY8ihmUfLe76au8Z5LFPgaQzQZkhScUfasnKvEZpMpJcyxk01dnnKgjKEqjhTQvHqFE5gg4pNYyyXIqDU5jVkRyr0URhFWNUVyec3mWQRLxXCg1UsZlAWCeNFdGhwatKILxzN18hULEbaw0UqfeuhfxM1RSNk2drJEvFcCpNR1Cie06TjPJeJanvI5i9aBL1jOFwqaYvVWKxyyYtYDaStXSM8sU6A+ByBkSFSRt74xyUMOw0xyZxUvMbLRk0pBcrmoLIW8/aiwmlwK05gpGKsVtcnesRA06hiTpyhGqd8S+Cua4stS7pIXQ7BMRm5Za+Q050N6jXg0TBSa7zTHJ17goPcIhvQaasbDPOiIioQjFIx1iGUniac+QDik9ivaYhNSmP1e0ASXDPuLpN0JiGilGhoMsqmZKFfI6RlCKe00GW3Sqaxm8UWuJXPldAisi7mEzENFQjTDPIuov7dIyzSNsIiNTY5lJq9HWm4xm8fQU3xsZc5BmWFFJJooRoNtCqUNMcykzsJW/EQNQi4pC4ljqZIEKhwQurp2MZvFagsdTXnN0KqagGxjJ4LQCxmSpVqS2cYxaSLxuI9TIZT71sPZWIyx8DXHSEaDqHUB6qfJRGLxTVCpacQcjHqZEKsh511MZbE7jk0GeUwWJKSnqZNEPGsAuDuWMze4VARehpEvEqtmM9QyJ3a8KiIaSqOl1YBmUVyFv+aosA7RnliplFp6GnxEAKjcnnWIeKsqMcpKhoMybbtivQxDSitxpo0xyyNZBVL1NBZYyeNeRUpdhqM0Ft85zZROIoNNMZ6iDyVSjTACKsRtQ1Fisc80VSk9u3ZviXjjoWoShXNBmUoGv70jPLHQuVFTQZlKtO0h4gxDUUYYx2MfPkv5RCs5kbJEPFPQprnU2xzN1HmJARk1LiC1PE15iinIJZNE7zEbFEwVYvDInPD7w/KxHeNC5isMfXxpqilEo6SeuD8frMX6vUH/AMo+UfefHbC7D5tdTL9ty47n6TFCsiVqXGiaw/V40JBCF04a7YHDCWH3iVkPtkKSg9XjUJeoIUkd4pxg0rcSfMeIRUQJadVSIbVpoWnBQJDFZhNtptEPJKg9TQE6bJPac4jLJGmNaDxCmpBIKUZPGIToaJJuNDk4FGRAFLeCb4ndSoN48RkNYSDps0WIeSgzUNphiCJjaUWVEBqRGbfgbJprkVeoBRKFaKLCI9JSS7ylXQexJXLxLp2muMFBEe7nRdKgRm3LoXKNAWZdzHY6K0Zu5UyCmoNjY0Mh2WE2rFtuDfHJlHCjWTXvjHJiRYyJ8LatVYyyeg5fChrjklNFZqom2Mm9DXFtqC1IkrvZdxiVkmNpvtKOVfYQs3RamMcnLLScVJBG4UKjuq8KflNUnxLxJycFEeSVtoe6E3AI5XTLXAqtNkZtzUdTcE28BOk6xnMLkKKlAlHYoQpM5sgkGjLKZ5FJT2BkUKh96AyoDEN5QNKtx4nUbkRaSEYuZk2SoWDJrWqqyJctGbdeZRrideLKt4mWnQaiCwZ+PdoV8oHuKpoXgUnOysnGvdEZNwXKak2KJIbERbLGTmSKzImIKhE0Bm8lES5iFctPgxhAJ9yI3hEw4KbbLGUgF1trGfaXLfYXzUsrKtdHeMdr3Xr+j9Fy5bRpgVstpaSlB2XKTcVGTQh5bnUziOyxosn3DxO7UJ3RlC7g3NWsbAgI81Zi0lZhKMmnqynk4k2xdXAuGI3BaRDoNPibcuM1s4Z9JzMZNs0TZSACqTMjoatEIpNixYICXJUpvoiwN+BeLi1yk1NffK8Rkx1T5GuLGZPhoEtGba1RpPM2xKyLl7WJABvGOTSGslZOpY2OTRy81lGLypS5SyVpAlA06p4PNxETiwnFvkAUFJkrZ9kwkRk1FDRPEsFLaoWo6K6G8Ri61sOncaAhbaSK0lUkQ8noiiwSgXGWwbkkIhlSb4GZAm5Qiz6BBGWUchpq2ozkF2/buQxlCVCrFKAE2di5iMnLkMWHMU3ya/mIlzobTUsZFlDVBKXa0ZuTTFs1Geib575JCdi+CuXjlcFWsd+xojKQS4FZkiigG4IoxANEjBqsFKYrwLxKiSJuLVhS9SHeNCwZtVzfZKM26mkQjTDIiQLFhX7CCkTlw0KXM15kRip7UlGDTmClrWpsDrqXVtnthPcqhi61uLmBKhpNu8YTk8hcEUC8vB2nam6MX3DT8DQFFRXLmWlUmYyymalpo3wNGXVFsTRPOMsk0wTg1BAme9aWEZ5IpR3jW3ZH7q2hacx+keOU1EjTeNZRDVC0/A15iJDt74lKlxtyy1lUsE776xm/kNJepYyQuBxowpGb7QTbfI0xIWgNiQAUaVYzylalyzRbjYZ0Lxi0lrUqWSSCWYJNEar1aM9HUeLm4BAoA8JqtEnEQ3exrL1NAj+Up6FSViYc3KTetisf6JNJdhE5UfMNzmEahE/OFmBTvWIKWUUEChYzMlrLWsJ1VSsc2n2l4szgHY25UiBvObWNwSPtrsjNtLQNz7isVNwLSq4SMM+KLxaszbFg4SacZNOUSsqVuaaGmJA4qTI2luiW1qNNrKUySXUCvuSE3CZou0YyQuSkiDbcXSMd1KlNo1GVp2YcIzcFYvLuNsclpKckR1W/CMmS27KxyMMjQeSptSIydKmmLTcQaHIyAVdm9xrGeMK5o600JxIDoA10E5JCylspV7S8SqaSDNfvicuZcstQaU/KCzWYSiRnkpRa53NBkgZElb7RGTXEcrW5pjmGNZTUV8YzeDiWPc4LOQWro3em2MMt0whptEnIn2S7GIaelisWAyIDg23biQGinMaFSXjk4S6WO0rOM62C5sqEIqrO1WiXNtC6TMyagoyNP7QoBiMpNU9JEqk38ZgxDk1xYwjiq0rNVYRDTkqdDkY5IFqa6VntjBqusCbmxoMgC5IJUbZ6swjPJaCRqM2nXRE9wiWrcR1d7DJUTOzswlERHaNZPgSM7Am7KhNyu+M2qzqaJtdhoMiAjm7gexojJJl72nBpzFmVVLkcQlIiMdSlLehthmioENa6SVCYzyXEbg5ILd5YArub3xk1DuNc7lc2KIR3juAMomoSr2JGSKjrupaI2UuaLJM15wNZ2PdGEPuLk0BFdkwjFhsiGm2Ushkr28pKYh0oWsjTEqJEImsl1jNrmUmbAoCXCnZacpRFCt8UJGQWq6sr1maQIrFmg5UQHvYE2SE20ayo0LABcFx20CiM3PcUmOhGynEMYifEcssEhwClXQo16RD2uhSfMnmQqhWV9ZAxllDsWm1YoZFap3bEBnENKNB7nJycc1Npfdkld6xhtihabuaY5zJHdUWRoTUhvimpoDNAncsvCMWqmjbuUSgIRFZ01nxiGNV7CcTbYNF3mI2wWm5NRkosWEqHWsS1SBtvUvDIp+TJJpuCiYiMk4GmnRnIwyR1Slt82AEZNTRieS7zVV83CLtEQ8dNClkhZFDcNInwUPGbTZSaAHVQBsHfrEZSWnJeJZUIQpRDsjLJOIK3aGmJasxNtHUvER4AmjQENOqqiRL4aDLxyAoyXKF9CYh17B417CwSU0pENV1N8XJfTyTPBp5ASf8AKuttIrDFykuJSiVWknSx10+N1v7L1KKD98jWPu/j96uw+bvVf7bkv1z9Jk1FdZbG3mGZSxtRWkN9VMEDeTFd21n5cIAkRONjJtwpJRACehLU2SY3bSMsnUqSvumfntSIb4sE3PIoAUULMc152LpEZOEXW61NAKLtL3u0ozTdxuTbBNROrGXGJkIZsQry8C6ycCIBJ7qjxAoy7ZJS0RMutzdISDYXRSfa8oTdC8Z7hhFu9TOjbIyb0NFEUNBiEsQVFF3XjPJw5kbbk3AxA40WUmK1aM9zbiaFYtskDFfF77fZA8pRppSTYDETFGeqtZoyecOBJt9hf3aAJQ67dIzbVh10NMTibgiZKldsY5tXk0xyh0Nvuo3ul2lGcrW5ruK5cQD3+e1IjLKsAnJIxwmKSKlyg8IW9alptqGUMQWA7Mrzg3UBN8zfDBponiLsJxk81NbFbjQYi9b8Jxm+pj3hLNRiBpcrva8Y5dRTGha3QScUko3pIoZmE+oohgnkqlDFkfiXZ3ZGjB511g1WRYxBRCJ3M76kxDyVy1kjUBEC8AxluCQt3iWnoaBN5p7DKkLd4DpNDTDBJEkNNBOZ2RDzRcmpAID+J0mNJRi+pBEkoEn5DvoREvNN0kpNkoLHVAUlvnSIeSu7mkzQ1xAkg8xY7ozfUoWqljlQsgFSdkZTUvc/kNAkkbbcFpVMLdDke5QBRB4EpK4VTCuaLJxCKxShq8iG0cRllEkt14R+j9FTcAVqNiV8YzbFL5ya9MSQlFulU20iHlSWaqYOSm9Q6HukqRizRPQSB3IJ3AqH2uIiZ7C8XKoAAomwFXQBxRIJktF4I7EBNXYq5edojNqOZWNbmqYiRmZAne8Yubsp1WhtgNlJyXRFjDJ8LESbBEki7ftIaIlGsyuYjyppJgtZnWM3nirAnLiKjHKNWefB2jPLJNFJvnJQ5VkQqEcWVbQpRUtqTcDE7kqX3zVoU8bFYuVSxYGOvehepKGkS3qXOppjiCAhGlbT2iM8s0rlLKCuXEeJTskoxeaVR7n3CTGnjEvqKQWbmEHKD9p+2JeaLl94DCSFGV12OS7xGWWtTTFmwDTQIjPuQrMQnmi98qhphin52x7UEZvqFLORnECqWMkmg3xjvVzRM0xCCZIQH3PQwt1a3InnUaAzXiNxdJmIbNNINsQGIokhbbOcZvNJxqUmaYgOXdGRu+SxlllVMcwaBArHbQ8YWTgpZVAIXQ+FpNKM98M1wyQ1EnrKWxpxDcuTRZJ9psAEslJiVA8YZOpW6ptgAJiYnatIjJyCdbGqYkAOqpUJwaMm9S029NBENeQmDorwhoeIBNu7fOQMTk6BpSxrVyG2H2iJ/UzxHLua4jFis1koFJb4ybLxb4srEYgzIRgVcOs7LGc6zUayczobYiZUd3mB9kZto1VVcsjFLBp9qRjnyYyUDISZMxVn+7rETNWVjOhaBqb0b2ARMo076lgY0KbyNtIndixqTQDG44m4aJydRz2wWALNNZNEN95SyEUfsBsmTEtlJ8TTABdJvTYKxllnjwqG52NwcZPoqoJRnlmoqOXqXiBqhRKK/lWMnkkuY0zcDFGZCwksr2SM5UybJ0L+74oUXY0S9rBZVhknlVq0DHa9jEZOnFmiy0GBi4TUNv2TjN5UgHkzQYgSM+/vmkZvIcuINscAQHRHqo1RIzbm4YupsMbbnUI3kIh5rU2xmZWhZElKha20QyiVkuBbeshjiF0XVdqzMTllS1S027lJtZOz3jF5+BSoaBCAHBHCejrE5Z6OxeOXgUEO6TN5iIboXucl4kaPNkVFQxnllQab5mh5ZIRJDY3Z2jGY7QWVCfu2lx0OiwqcSlkP7tTtOvnA7SjTd4GmKMh1EiDoQYxd6jTcwzVcQQVruRoHLG3U0x5QCQSZzKKPZGeUwaLJWsJMVnudwNUiW6Gm6aDADbrqQpBUbIyyYT4m+ICDQpptRZxg71HJqDiotw2psEZvgJOGaJiAgWRkaMHkkLLiynPcNFG2b2GoV4lwUmwACOok0gTWMXctSywl34ymUJIaJbSKltmoGJn4ntrETWhabXYa4DEFlZ3Y7neJbWobzkAiyg+4tVtsYPJTCoCz0LJxT8kgAonZ0WFdzNR77IQ5SGKPQKGFdYl5RU1TNBylVC+TqgK0jJvgVuNceV3ehXWMcno6lpyUKIdvaYAjNscyWBigCEOo9/viMsoqa4s1QIxVpTG8PGbfeG6pDc1tmwLZYafgOXxNMU1uE2rCbUVKnLRl418DrWyvGe5DxbvoWUZEBDMShALnSM5m5cu6NAlzI68Q4Kxg2pgvFsYAVE+yIeRSbKxABYbCJ04iM3mU8nNbGgAqhVy57BRE7mUspLBGok9irLSJuVizQEIoDoDWex01jN4qZNNzsWDilSCHmKMX2RnlF+Yb2rE4DESo4c3rWJmhqspUaFgBQpYbSs5Gk4h8St1YNQBqAs1OM7yiMlKGnByMOVBoyTdKjZGDvLFuSco1HLxE08ITY1lxJPKskp3xlOqZay7imSZokz2WIynjUuX3FgAgKQHp56GMW1AKxoACG3o4JSswNIzkMWaJjRAxUNtUmiRNUU6XdCseVRNpb9ShhN8Sk3c0AbQiq7OIglFLLtK6Yx58C4PNizXE4rD79Wuhp+su06XOuf1/XXE/xvUb+mNRrH3UWeUKOB84uq/23L8J+kyKfo0TUSX9FVCw9+REg0zi8i03chLiHvcC3VBQF+6Jhgm9rwt+fEJ1FkQkhrsG2DfkNOSGAoQNK7RrEZN3LTimpQIVUVbmSz8YjKWgTelDXBEdS8n0XgsZPI0Us0CS4OHnCl3Lcujsb4OiBKMJ2I2xDcvkEtLiislYqgWTnhWJeUCTc8wAJXWTEz4LOM3lDNlk2qk8qGaoXVSOBOsS8pcalJyXjiD+dalP6FC0ZvNzU0VzXlLU3EkgkSEgEjJvwG3i6lAFHJAHZ2XuhNjTU0Ah5nj5siwpNU6GuILbNRPXSMcspZSsUJ6tITIqk4yyr2DcQbY5FkxNVZ2MZNVuUnitDUZFBOnvR4ho0lOhRImfEsFcKZ+2JfIpNRwJFFm44FZQT+iC5RpiSGCLIi43LCbXcCadjfArW5ImRfYsYZNTGg4mxqCKOve91YmMcgroWCUW+9N7WjNxJqpagCSKu7XLU0hN0qgU6WGCZN2qJssYu8FLHiXK6G+gfhESEam2DI4vOm2c4TZrilekmgMiSzBFPnNolvxG+VzbE3fUr7YhuBynQZIRQjnsxKRhk6hXvGcmDU2lJNRTCKwiRDJH8WfQzGyE5toaosGlXA0VNlIwdSsW6GgGIF3diRTwSM1lkmVufeUEmdiv4IWUQPJqg1LcK48pgSYU32QGJe7uLUlYJt237y0ZZN6Cc638TcDWUnVArASiO0qXEI1wxNctQsyFS6RGTLwymmpqF/SA3XoiIsZM1TXeUhQrkquRVD7BES7FppiwDWer7l0iW2XKsXRu2usRk6zQJjsLAPLsk4Sc0V4yyLeaua4cwEiF8GpIXjFpKhEq5qFZFRXkstriMuPE0TQzkUUKj0ExqDrEa8ik6wMG4K0BptVFMS/kNE2aAkBCD2SQW0SvlKnga45EI4FU2FkDo5vA+RSqaHIsKHu75Rm0m+Y71RpiWQSKhxVZku0Z5REDjjcahWUp40kkkjClxS+IwUDqdtNl4htboHi68ieaQBHdIq6CUDpY1nwNRk1dKpYyaJbeiqUodjQZMJ75ToVnEv5S6RBoM3LT7vC8ZuQXyDyJIGyzWBfWM6ybXK6eSdlW6LKJcku5rzOw2V40ULGV2U2okvDITQtOgdtsZ5NlKLaHIGQTvFwVd7Rlk/WKroUrdzyWp1SB5NUYS9CVfQNTihjOWaK0MpUGlalEnosZ5J3Vyk4sa45NWk08ipSMnM3Nk6G2HKUVZttVaosRlILJo2xxrzUKzrJu6M8m9TRZcRkIFJAQab2e0RNIVw3IBRFAYyWkgTKIKWRTmtgl6MQqQ0oxHJb2Wkt5dBGbgadCwo8TVfYEjLKnYilktLmuBKSoCrkrVh3RhnfgzbFqLGilBPwnwlGfylShcxCTrTajuYSgrF8SnWQuJm1ZRHqtyaTTkWFQKslcT3WCRPqzy5DnUtXFlFAzimqRDgTaNRmoQHTUuURZcYmEylF0QMjrMotDoVQxLhWLk1xyK0coGkVnZCsZ5BL1sagqJrcntWMXzVSppWxpjkzpvctVHpGe1RCTGoNxlvpebuYzSpY0/U1KGXAXm2wy0hNQJknJzYlWmFNYh0ojTFlY5O6lTWR2oZRk5iaQVSe00xzlvkgM7RDsUnQ5GOThiJ7SG0ADaxk02I5HMxVZbBQXKSjPJM1wa8EPmkSNncopMRFS5UixNFO9xwdoMnLqi8WtDQZvNJechZIjJUG2nWTVWAVBatGkgjHJcalJvQrmYFU+ypFViGpQJ1uXgky6BWJXV2lGLVINFk7GiEI6gJcyuhdjGDyrUe6aEoLgjRCZvpElYuRvqgqglR5BIqsUsVLVihcS17nFRElLLiUiEUWQBJnbSBl7mahQAx04bWjPLjoWnjqqiBIJkJWKSpokZtotZ1LVPF508IhupW5TyNscxedC26axjlO6AlRBeOThv6GjzdUXhGbDHJdjNBkEW1yoVhtLwZQU8nMBzkAql6SalniPV5jpq6FKqFQFClVO52EZZckaYvgVzSnZGHe8Q1HaVKnmajKUvFJmkolrxLT1NcTclF423RnktYqKpvjkmxt21IwyxlywRpkSxD7UXssTtWo5l8yceo8jpVSZSVXpEtI1xypU3GSq7zQH7JARm00zUsZbTtGwDScZtuajxaLGdFlxSqiUZNOSpSqWCnKh7nOylTEZVroWmuEmvOAJngaatEZKbDlGfOCVuGVwJMrACDFOw0zUFlVzU7ZTrCdUX2F45fYH3NGTQpqaczBF4KZiQtENVKUJSViTUtJ1FpF5xlli9IKxHzFS9JzTWYjLJdhtjzKxLOeMtirGbxaKbocgZbHoB3CYURkkuITFSg9U3OT/AKGJY1k9DVdqS9iRm7l7nqHNUyRmLIQk2M4mE7AsmAKC4Yv5bImneWs2UMvcwlseJa0K30qaDJrSVU8JRDS4F45495rhmAykJ2L0jJ4uaB7RTyNxkC7aOWeJfBlJ66EkynM0a++M2lNhygxyOgXYo1Ad4jJcblo05iA0jVlYU2rGLWqVTSZ1qXhlJFuhVCzASJcRD5gmb815uPOeyMmg5IeJKe0ChtWJeKktZNGg6hTsYW3GbFVgvDPIZ9NAUOeJNWUcA8VjgtypqPFvcu06XOuP1/X+83xeq9vvG6MI+6qahHzn6rXtcqfqn6TMY05iUs/GclgoZynpUSGXOg3sFNLGH6o9y4AcXcqS4Cs15QTjzCVaKAZflFSyUC29kE46WCVdmSgVJ2BJiIyyU8y6XLBUkc/bZujPLKlBqNLl48yhMtmq+ZiG1BomrM0+9sqqLUzV4UrUqVob9M5CZLsaAsvnENp2LhQ7F5ZE1yK1DVkYltJVIUPQAcgqS2lTxjN5JmqeJByyBCuLi6sELViW4NMY7zTHnWoNy4Q6rGWWSboUog25skDmmxWEtTGbadgpfUoZGpfRN60ETHeXikHMVmr7mPBITvY0jHvNMclAPMoU3Q7jGGUzBWKxNOZ3NGEz7RGTTfaU9sGuOZpNFKFfGM2tBrFao256hTce+UTt5ltU5jORAebC/KPtiXSg1DhkjIoFU8b01hNF00NRl9qNViTNImF3hc26ZefkCXksY5DeJpX8ol9iNq9YxyUjUo1CiZKTRfKhEQ4VDRSImQWtfeYTqqDSfgPEmZuVnueMHctRYsHU9wEqrtidbDiew1xIZyfLyhSu4tJd5YF8maQOmrQpQ5T0qaYkhH1ZF76xDgqVqaHLPc2ycnRFjBxoKioI5ZcoRWQFSxEmETepeJIyy3oVdEmHq0LJ0NJLxOQUKRsc/ZGMl0aNFzafgJKws0R6RwnQ1ByM1eVlGkKneUtveGRyuXk4l7ITco0oVgTq6O3hGTmCYUzobDMuF0dftdIzqELW5rhnJ+C9ygpEZJs0xSN+YkOSm7TZGHpN6QHORUq1gjbKRMPuKUNAM6TO1qTsIHjI1BoMyftJmbNaIePgEJu1S+chHqhulNYyyxmiNKNQ7m+OeTOTsCz8HjBkUbNMci/Ccpaxk8VeaGkBlmjO7sONgkZNLuH22KxOTEkotVIa4S0S4sWpZfNqlBsXvg15DdGagqVB8+LrCdGaYtWNOYSuk2CtEMq5piVq/gmhjLOLg+JSoSJWqm4zjLdyqFIESWea73I3CIbxWUDxdSVILC0kkve44GE0mXMrkaYyYlftaJfM0xyRosnJ3JOr/ZEuNS21ExQ0xOXtUK9GlMxllRDTmsBkcilBqr6o9YjU1NMOZ0JYAgoslmqEJviW9BUNVyElkHVAbCU4iSqMoZFXPBB7LxnkpGmajPIBAdgVWnLfGbTmC1VXK+IWK02KLorLCadmCgBmVmq6Cng4jJrwNsdttShkf0iC4SiIJKHiXMl7VehrjmQODsNaxllhjPMribdPPI23OOGkZZYpMFW5uMiEddF4SZEjJqS0laKhlmU7Mvm0TCXaFgGZTXRhtSsol4zeiLjWDUZkBEc1svBSgiVimpBovHMupJQdiaqoiGlbQfoL5zeyLWjDdGbVKWGonU1xyJRzMUV/cYxhcDXGLSanMs51VvbGWUFJSTz0V6oHDVFoiMYllYqHJXORI37ijsDEPa9DVrxLGZSY4sXtshJKo1WhfMSdEcIu1UNYh8hO5fNiBq4LdppCLQuZyiuZD2mfuiGUaY5Eq6bHcNUWjPKVYG+RoCRs3JO1ozbGu6S8TkUKW4TA3VjN8EWog2GZkpCzWVHlCRaaHjntJPtmtC8Jp3GoYc2YltVVjHJUojRNUqMZlnS83fejxm04gpwyxm7qpWXZmjItJRzOVhmTVZJKm0Rm0TCk3GaspJE2Gm4iIeKZWLcQlQfMRiXQCUz3USJxxjtLbkWOZZSti6qJNugyx51KxaNOYopYXmnYxlklxNLu0F8+QR5ymF2LGWSLxSRYzC1ViUYi5Ch6xm8VE6jSV4NhkXQkSm85rsjLJId7FnM/dXJQk5LpoIxeK4Ao4kZZljoE+1KQvVVCsYVB45kCeRsCsn4Th5RyNYNcczcvsaZqQC0RCuwUFDNC5KO4KunmkZtp2GaY5mskM/ZVIlrQ0XIOYrpsiIVi5UFfEyBV97BXClYh4qLIbrXQ2xJnUo+24FowyVZE+yDXEo3gkmDgNGeSrQeLU2NFKaoqmlSA1IMpSLlcAUoFbY69tIinAaadoAZTdFDjxFoyylmiyRYIJmZ6BfJCIhpq5W5Gg5nQmVKOwSqwtSlkmPHIghSUomlp+ES0rq5SaZy8cizoxoPGaRjljrqCiCj1CicxOxJI0J4K7KpMsWOdipNmLizJGeyVU0S0NRnkAQclHGrM6AiM4SojTUrHM1KuJzuiTQxnlxKVTQ5FRN5o/ZIyySlodCxmQyl0a4CFNGjLJeJoqGnOzkqe6kyixDx10HKI+I6KvZZbIEilGlzTHMoHRdGntrA8UXKihYzyL8LNRN0Q8UKkmg6hQITqpGqCjd8ZvFX1HCNMc9STJTvZ2jKEyk1fQfMVme7tKIyS0RqknUrHIzBKSCWHnGTxcWGbjM3MggAotVSMlitRyac5Mia1Y0q8J4+AJyWMyxUklLcHaMnii63K5yFBKKiuosaoIyzUuiGnqGHULOustlImNCkXzm6PYmV7RLxRTjQ0HUI/KJkgZCZxDQ1tRePU2nyq6hCIhptFblJsMzoLFV4hIhrKCqOqgR6kntp4xG1ujQ92KKJM+bexR5dqRm0aJl86AfeKlnlXi0RlirmkTWkDxySRJR7EbysZ5JRUINPiZKimUlXZGW1DaNsMyUvwTbURm8VOo0aDIs6HQLTyhQooXOiReGZ+Jg5H38Qp2vRKxWOPrLtKw++XadM3XAHX6z/13qSSXOZlTePugrHzl6v7rl+E/SZEcHe00qoWAjXmHKCDQa5dxTbAA6lZNOoDMZiACEXfrJV1nDCpBCIStw9r6vGWV6miGMQupLeMS6qo03obYYi+47tyGIyiDTGZ0NgB376VQBozKs+Zt0xiD7y8hxhSPJtIrIATJmjJ2SJe2OZGLW6NBAAp36VnQiMnDdTVZoECn7zOpUaawUNU9CgBSlEl9kZdSKSCbNBiFADisygWyRi2tbjnKKlJiEVWZlKO+rRDfBuS8ZbqHKte1n2wNmnLQ3xxxRVbvHfHj5tzA8ZtoWMBY7SJDbOIbbuUXjiB+TJZrJHOixGTm5pjntNU2vZqd0RMdxpvVwOKiiI6l032WE8tQ9pjNAAF+NpFZiJ3ItZKDTEIAhuzqJ2QGJ3J3FuNMMXdV1KjXbKMnlNLFaczU4ojlDtBoKfmmMXV8hpmgw1ntDJsiH4l7hEKUBWZ1pQaxLtWw0yscRWyV1jJ3LVFUoB1c2f7HETI5ZviJ6sybXeUS47zTF1nQ1GIa6tdFntUxLG8lMG2Ax/SpvG/WE4HQooBMytOhIItHj5ffBSRMwkPOFKkvFsPuhH0CLx2xMqJ4GnoKABIcut3KeKGMnCtYo0AF7V2Mm2IlNwFdDQDVqovAVWM8r3KTFliOb8o7CSX90JspN6lYpfTYE20iGKWckYgqzJOfiqRjNbg34mmOOKTA2kbFJic29DXFmnK1WvqFUcYxbZ5CyUCGIdC202EQ8qDWVCgAFE6hPG8S276FLJXZSKQ1627oTycFLNKjg0GPZZLNXSM8p0uU81pY1xx5RMvWp1RLxg+ZC+UsB66K5Mtyxm+DLxdB5ABFPAuDLVREOUOfW5DxFSu3zeJbNVk2a444qoO15PPaKmFyHLNccQntapJdjE5FY0qWAGDlWLmz3CxOhbdLG2HKJ7hoE3kxlmk6oJlSMgdxWcu5oyoDyGACC+2WiKiikZP5B4vTQSJJfdJ5LaDI1koAKOE/CkTI9zNJTJaaVlZTEtq+o631NAF03zrJ7xGTWhamwZBVdN9yAXjKhqnlBfTCd09VcSWIyU1IbdzbEBgp1c2IUERnKmpbeSxsWAAdTYvKTO0ZtjTc1NQiSI1OwgJaM3udS5qXiMSr94UyQz7oMnSNRrKFQfLitSZaC7tGT3tVsXjlIDHEkPPWoodiRD4mizhl8iVLWOkq3jFzPM13ya4YlRfbQ2eJychul0RuMRQkAmy67zGT4Fp+BRDMSkpP4XiXMBfsI5QLzFSw4NA1KoXjN6GqAXWibKkRCtA5NMcVmSWQbxqjxm0OpYxE1TeGkFYoixLquQ5lmmPKGUpZL2rGWa4l4taXNPurMymCZptksZ5NFy4kX3aE9rxk6FYstmM0v72dYijoaPJWLBCFyqad+6ChW6Skl2d9RGWdxV0NMUCVBsZWoFeFLiWWrClMkyACuhMwHkDENlqtZqa4B1eyLNlAjPJpKpLmaGoxF9S/veMXyHLksACpTUd2sQ1KKxyg1x5VLniUmi7liK6lpuJNQMR/wDg2XRXd4jKZnQJEyk+KzYy2GE02i1mlYaChWswoS6VEY7ch7ocq5eIFSu0EoVpKIaboaY5SpdixiN1H1jN+I29NDkYhgqowYy0MzEZWLxbmS+UICh2E6HveJUspuGIYzUktsnsqIWS9Jpg6FgAVZp1mqlliMlBe6VS5eICiaVUlHEjGbialLOEahAAL0Bkv2xDiKXDc5NMcRMkM9XsusYZQy1kjQjEhVbtQRi/kGnJBGM3HsXzhFY5cRgBhJZ9mSG6KxpMI0ZnKmodxKR8ozpcJ4WLGLgkvd+zrsiG60sEuaWLQO5KsrpquqxDLxlEgIVBNeArxiXzNVJQDsSm2W4tEt8Qlo5QCCrhiDZAl4wyjKqJbZqMBMk+BRPFTWM2m2G6CwAhBNJAyAQiJakvdWjGgRAS7e4Sr3xG1qoJwSE1PFbxnknbU1305Gv3VmQUTuUM5SMmoqWmtTQY1JJXa9RaJ9JayTKGCyOisNLxDK3o1GCXa4OstFhTFhYtwVy6lGqa7WSE+BUvvHiHefB6ODrOMmtS8XqjYD3XOjyAMZyjbc9C8ccSr3FG2vJohtd5SycFgBZnUlmVZoLmIyuOa1NAAujVLHZKsZZtPtLWXE1KICSWkAjbrxi6FSjPlBKqrSTgxKVgRUqeRpiMZnJjN10ZJpA7QXNKWKAAqUTtZ90ZutRTTmWgJABKGpJWbtoYlvxHPE1YCZsy6A7zGTvyKTfeSn3n3uTau0xDZeLc1NMQK5dhqNkRNBttM3CAT11YpvMZAsqFhDU767BKQiB45RQ1CcVrTZYbIxht0NJVykBUklfHQMnGIyxmiGs8RAD9KtDIKH1eM4cmm40BAZd5rNu6JayuOaSUMcSgGSioVSHOyM8k32gmcjEBEBqDQGlFia62CcUyh08i5NT3n2wk6cyt2PgPkRX3rOTNGLl0gtZQMYqKuakuNrCJycXLxaLGPlX3IDENqDTdQpEuzBEVvdGb+QeOXiWMVmXdNvtiJQ3klQ0xAFabOwWMWi1kzUZAADy84nUZXSyHxMJrz4GpI+8CqSlFYpvJdpWLe5dp01eo/j+t/ZepT+EaVSPuSs3HA+dPUeXtMuG5+ky5vbpTVTODezNbkCtNbAS2v7YN+XcHrXAM6ypSrSIg35RSw5yskI5aA7R5IgLwb2FTNblyfLuSJmS8W1TQ0Bex3Xq4XxhOxSnQ2AvSVhuLzjJsqrqaDFTN7uiyAQsipCxdBtuDTALIgr4u94zbadRt0Ky1VA6E6TVYSfAE0nDsPFJbqFDStRGTaXaUssRNMvaywm8XTU0WSfaaYh5grtpwa6xk40NJUQaVCvNT5kqDGeUd5aa0GAaELXSaE2bjEuI5l4toHVFF3aZ2yIETuxLTev6KGwB2ytSiUjHLKoKtyxrkpD39rRLclQXjlvFG1lJIjJ6jSb7TQGx2hBsq0R2lTFCyQk0FECXu8S3Wg8WtFUMSz8BLTujJ5OdDSZLxIs9qVS6LSE3FUNNWNsMyrEEcEUGlHjHJlcjYFQtZSEZNg3WNDQZO8tt5IAXjLK5amJES4UNoiMa1WFLyTgFVyAImoeQRRwcUiPWkuupoDdDKUtZViGFDQJOWmxAFo0JpxzLxbLBrsoBvDwaVKeVZNsQPu1eQjHLLJN2grcmp1LIZVXw71aM3KdWPHJNUEhD97WK8TGeW3uNE0JmuLz7iARCeWJpuSoXiq0Tgm4bIh5YjTNQonJNG+zjGLyxmSmzXlJQrXynpEraPHKaIgqDcX0sXQJBKgqiLwd5haWo1miG0lzCjZtu5VqW84zmoeg2xRAroLCe8RGT8TRU0NRkLmv3Z7BYmMcm45m6hVK5imhYKA54TMRxgaS0uTzG72I7lOkS2qSUnBYLeWzYXMTk6ApZeJCiTHcKlQJxk3ShVY4HLwP3aE9y0moaMck0uRGowUX8kz43EZWZqnPaBKyAtTWaKpaM4GUCNmlNjGJbepSSTpcsIygaITW+yEmyp11NAMZqFpsJRbOYHOpeLk08ER0G93IeM22jSVpoXgDkXvXssojLxDdoUhWYAsWq6KXSMk8eITAAZVQiTSrcEvGebxVhp1qDqxx2cJcImUlQ0mhWJImiTkG95MTuVik+MGrlMmudBbvhNqC38hcg6P5OwosQ8mxqHVknItLYyUHFYzLVuZWJFySyPSo3GFWKWJk3GZCOut9NsZudC/VapRlgoQoG2/CMsr1KTTcVNccghRmdAxkUcxk53ToaQu40xyuUUPIbk2Qsnori1GC89gtE7X3GuM2KGWxlRnDTepWM2qxqUo5GgLUeZIox/oYxyUuTTF0g2xy1aWmy0Z5IGzYEI6GqCtq0jPLgPF6hlkEJ292ovEx4ClaKRjISuxa0S0jXFpmoyCMR5lHQPeIikqSyhkEsNZHgYltDnU0CEPdFpod0Zt1gJaqWAJqLCm9DeM3zNMW4pA5N90pprqn2xk9rsXufeE7EL+S63RrRDi6oVjkykL0W6I1EBHviFlXmaboqXiqBXFga7NIl5KSppJeull1iG1FOIOvYWCgAvcLwELcVjHEk5BlnVQkTk20aTPYaYZBbHuvtQCIydhNycgZHwsjEcIxchcsEK5nRO9wymJeLH2F45EV1eZcAySM6aFpz2mily3YyWJa1Gm7COViFQrTTZGbnuLTY1ICqoVG7LGbtwG27mgySoKKgot5JGcSUsnHE3wKW0TxfujPIltt8jkYkIhTcKU74zdVJpi9CubEhXeUlfeDKJVDR35CxyUfYhlIOzwso1LxvQspvQte9UKxDiSpyKxyN6AOA1UjLPQvHJmgmZJoJ7y4MZ5RHMSzZrjJZBX2UkYzyag0WcLixnNbaeHdGGsoe/UklXBBtV1ltaCiKw6iiCgchNCryFbLDbk03KKFhZqFsibl1iWtdSk1c0B+xkKzqjRllkxyixkgmwo07IsQ5ZeNqmfNNTZtaXDRMcLGieNixkWTbrLZpCcMqhysCoRti+aR4+ct0sQ25Nhk4cBeLiZFXjN0dRYyWCwUsEQNxKKe+FkpKYE6qgl70QBYnY1UpOlCRma7JISdEURGSUlpuZNBkrKEXV9+6M8sU9S99aljNL90+LsIxgpOXY1GQZXQWR57i8JqsFOxysSEVQrhJ0mkge6MmlIY0L5mJZmElAr3RLS7hvLGashdQVNRr3pCaTLT4Gq3ZykkntAUxlCvctt95QLlXDMCAGvV1jDJIpNqpalQ42T7iDEl+0ViwSxPGqxGbS7TXHJNFkiu8OvdGbyntKlLsJXVBt99oSY5RqCiKWkHHuc6QS2XNCgQ/3psFS8ztMTUpRBYOoaeylAgjOPEJk0GTzxLMH7AREajUtiJCzRRQIVqHOkQ51sWm0ViZKptIJK7xnlVFTLk3xyJq+wd0yjRkuFkJsvHqJY8fslEtJ0HJpzLQHRJd0zG</t>
+    <t>af7f4fdcb57f633dccc16f9560c693688</t>
+  </si>
+  <si>
+    <t>rXnXEqxIkuW/XNs3qhutamwfINEyEw1tY2toLRINY/Xvy73Vanb3cbFMwz0y3CPCiTjuJ/nbf/1Yf/wO/fbj++P3//rxP5Z8/Xkf4j7/8fsPaeu2H7/9KOdxmx71EY88eYTqaf9rOvZPQ52Ow9OSxWv8e93HZQ5OQ/kfR52t1f/Eyf+o8rqs1p9SEi85gf1We6xpHZAqliPzXIbtVrxbPhLX/tTxFxM+t5cuyqbwCLzod9wHZucPlHEJcu5pZxyhb3QW4m1RoEwhrEifx96UEcPz4FESXPc9r3d06e3dGYshe9CXowzlgzheY1erNoFoBiHJFCnGOtaE6CDkQoRXimE6udOjSwuudJzEtLinBqDlixnpD5i858/efcYOWT+lyhEQIBsfQt56Am9JHe+mbZbyKMcpCkf3Ydi3zS92Nq/xb1f7rfVhhem7aVZ6YYMpNVhJq/iLrwgmYL9C4FrQHMSdzjTR+4XmsE/T3DGsBZIFGTgB6wqFmWCzp4SoN/4ttVqmWErNvAsN2Xz/WtINfv2KRMKtRnWX4zX0i2H+OzhQHShGeIq2z4Ktpsx6nhOPdcDLoH4Wlci9l3MxomLk4S9BzCMeK3WPBtmoCQeJSMCAoGwsB3eSmsON98V7dPbQu0n1djscEKyT377tRIsg09QxAtNrdZcIHietxYPsxKXo9N2nStot4VqQI38UoJ0TX5UDcqi45NZMea11CsWpyTmyev5Ob2HQBeTUUtjftcs8HKZOpqTfJSnd19XFyQsHgq8RzVqOdjz4/lK52yBFoBZmjk6F2dyVEq4seHUdbnNCanO1BFRWKyE4oAFLdqo8o0dxNXd2QG3tVzf9C2wCH+kJndY4NkVhltaEbSdKTy1ByL5rVGVmuBW/sKg3LhhryfAlwM46UywoFJqqnHguAwDgEl1h7TrU5Zx+tXDInEL7DCaiZxLGas9xZXgJKuSK4VSMfhiIQMG83zKxKoNxJOSre5PyJQAckDTm+pra6iZewizHoEwswmp0VLwJgag7bxRbjEMGlaot+bXnbhi77CK2Ukdm5aFX3zyKtOd18YizA2ulJryXv7nCB5NL12G176EgMxObHEUO1K9JD4R3ML8Ocx3D5roGkvUQGtSjYvHuSeMya93kaEim4N67Ash3St/DGRS/LSaBrQeKaLpk8a1tl6O/l0So7gx24+STNMLOWX3qK6eF3mkhtd5Bi8WUKH2e77QAUb5PbVwbL90REPHe+aJLGJZ6QyVoS+vrohUUGsE0pu8AVYsUpu8BZYOPapnUlmEkWWkD8zSDIt3Pt9jNRX5GuKhlAxFF88yPlYwcnlRF19EklevzF1Wn+ks0Xm5Ws90XnYEzLjQco6UP3khAPADwBWhdyNbFdjK7ZYCd53lmd3SvNvN62jA1nOWxo/0gtt5xkUuTVUARfN25YOf27ce9V4cn+hPm+XdFmn32ZVdm3ykp86dkVuznQTfoAL38TCeSbTFuy0NtWnXC6rsb9dfvt3ms1TKslkpv+sqp6Gn1q0UgaRJqQDvR5+XNw8tm4TfJ6S/gDUoLcJF1M3+YrrqYMk2flTbvqyxy1nnOgfG9EIrPWreiXgDn0sCN7OB45RJJw+aQnpK54BfCrE5KDglYkKjjv1sO/B7s0AQUOz572/sY6QugfuKykvJVlB4PMp/6oy4O83nFA/sTuIUo9qwHoCrD4aYmQaAt9K097N0tF+GD+fOicm7CkoBdo8CqZKlaExG/zaGk5V5oE0TpzP7Re7jLRH6XaxYzh2pNJWt+20roeEz5QegrshlYaz6b/pKBV82UMndekRgSbmuJ//KptFED1bFkQSk37hqaodmFo/qF72mf7rrT4qZNHXpNXXoN/7RfU7TbMlHANB+/5evvvl//8m+J3h2iyvTMZ0oQrEx7qzd7oU5QD3rbcv3P/v/4/nMu1hT14bPGCsokhtAueksvvIpEuo5s/Ges9kzs+qimTq1hdrnB1H/385Z+2RPOM3bk41AY/Bof0J3jT7tmeqd91yWDVT36nvyb/ftF/7/m/ve4HfuvNXQKbz02T98/4y3+ij/wau+XAv/Mx0BvuxbriaXQeF3S4LgneGRRGKCe8dg6JXbXyeHXZVzoVaWiziTwp+ZbZXqVIMXPJAmdwdRhE5qJM3iwZ6vrH9tjq+jFfEp3wnHL6SkCgpQO4SYkSm6iwOFuJhO0SIik1HYTyAkUnsU0owcSBSjyswH5+33SUYRdC4zpL3/FF2anT76Zc6XQ7IbFMpNXikKtVFKv8Rq/j+Vt+uvY24ziuOflT7W+FJ82d3W3A4994TEkY2Q37e1u6dUrnfgtaL1cXsxJeSoP8nANKkE+nxguCXWYzlmHpA5KP0u+jeFrL6gxPVMdzYa4CsX6G8n3/cIt+x4ycZO/1KzUuNFs8lTHoG9wxFMDpAp5d2gRhHA93byaSIUCMKPaYAt2INnHXPkQVoNlW4vtspw3ZcYrFAWb0hVEWAWeYconwasP0g3zsXfbIOssqq4MEIJ4qe58XT7V1HjsRnDO7CyjTaMRSqA6rQGvWfatVy5SncZU9C5lQ6pFTIFnNI0yPTqXTNtGzaquWHIAITwvUf+jQwfxcY9rCBxykfnQJ5/MoGP9VtxFBLdRcW19EAiX8BLAhbX0uZdCur2GxW7Cl8BFAsLDOUNnEQdvEO2ZOsdb4f0unlLEi47x5dzc2t4osKhhrzyngyAGseaOiW1F52C1kHWpnEzlOwZa9yOsDcFnSdWF6pcA2DHC6EO6Acs/wVctdo0affTOA9+TFnuzdmOqNrmYgic9MdoyE3x94Whw0jLkLVuXRT59F6+bV/5mAwlg3pJ/JBx7WQL6CcRI1b0Pf20Wi+x8S/CuyMI+wzx7DPy6eZqNUUrsPsDCiy7fCuXrbBkhHsavLIq2OCfNOS4/TuTXU6yykuKn/Jy9lW5RFT7yeFPgBF1yBicLlZLGsHDFp4PBrYMIFZj81rzf4QLXY7hKIV+Sh1bshSaA/YIN5hVErkK0h2tl9AvR8rF9EVYomRhP1M/+dlIQPEaXDUM0MyBDjybhaAF3RSwBVq4RrgommDZxnbGzd+ddajqjXFxGEFDLDseQ1WDQ5uzYcGTOZXQlwcae+xJmgZKypnnS+xN0WNWH1wDfI+kO4QmtnsT2TYer/MpT87qcuWluKt/hjFF3kOt8A6bVoMOcl9rMND0HwkNVd8c33eCuNe7Ne4XcAd7YL3J7xRr+lCx4aTdIcnhmHgssbl5l/VE/RMFEi9AqV1bHT7GllJiO5ojK67LgGyi7m7Vb+obKR7wWRe003SAe1lijI12L1GV/7vDpfM5l+GhcgCQ4XIaIVsFmOuSqYxZlOjDqzbweWAUAWm9b5O7PrwuoTXkcePYTuES99c4pI9B5/zzk4uhNOSVS6sATwWzNtA8bMbr2uuQ6ta5K+2yQtufCq+7UPrj06bNk4tS+BkeK8Ts5qUG8w8OCWEcwybe8LWEXcBWxX4phlf6Dom8tGusxgXzmGr1ntQP79oEtMHv6YygtIGp2tzsxy07dScGwrYuC6hepWF9q07ltnhFFs1pK77hD/cpiXh8a+IwPbItioHcPH2FxYPaQiXfpAM0308aww7RTuYbx+6YhENJbtm3CcLA6fisb17qcujcOs6ZS2k5TbdIh5wsWPLRYu1sgwCt/8f1DU4YwWcaBwW+mXbnwBYaV2DGUySYOAQTeUr4dmWEGLT4pAIZCIpNg4o6ycyc+4JJKlMrldeVLCnmeH4P7fkY2cnV5emacQVIsGgNyketTtzrJdr6RgTy+pdQePO0f6gcngepB3vLiK312BkoHDVmPPobvRUok7WANJ/rDGBUqXcL8PTS2UCYkqZpGFKwTGSrrmDPTW+coE1tFQa901NgcqN8egtnO5P3UMPgeJwf4lpJgqkORXlFJuftjif0gOljpzRTIbOdpsTcjnqNWZmPi98j197XRsyM45xAxrUxa0LY+DAZLZnqDOAU4pQC9eW4B8/BFLXvv70PR00GGRp8tldaGj+GGZe/aUmLrYT+tcV0P60wONCA1UciBS8puvF6QJm+BLF8loHgYq+G8LY9mX5TdrvxeNSmyXMZVfP3shmC1eR0d55bdAUKJBhEww0zJIRnA9VGxqi5TkWxlJ4wGCBKH0iptfA14oZMxjFb4keAj4rDq+jP0txSlNAZkBVv5aHzYYPXeMI4RDcuCvrq2u+enYdPR0UrcPAax1GQpZsGN0y7jYK/E1yVh+MAkQwE2F6xI6hdOsijIhrSHlh19quSVjI4g0JRvkRjCSgmsrkROls9LTDNMtJaOlqwGJjxvJInWB68f1KEig5cASADY97lQLAgt/fHmptOTnxp4sJ0S4UJd+Rw2IJYWOVCIGS47AJgWZ+vEMRcTkvu7N8woNU9wHjzJB5kNMirBJDto8Iqjs9VOAv8YJLHp6KL6KJmReA/ASQWQ9sMiCdxByTNXtby2nmCVScHAQiGigLfv5mjT84k/IOnv71m7lMAxoRzJ9tWn0t1YejdnwRm/4J0gqGTfji/ZxAkbS2gZAlHx/b5iZLwJdvlwel+Qzy6nVokbPveGoECtwKmpTnhQEUS64ABQxM5DJd7orO0POVvRBxOzj4svXNUU4IwZEVJm1JGvafbQ0UrElIFTg6miPh4/Y6kaomqX4BQejlRRwJyrmfXUOToGcskK66eVXzf0AjnwAOXZ2N6SJ+dSs9xuTj074hJxmcd2SM2zPK6gx/kVBXvWfYkVYadcPa9B6InTQkDg20EcesYI4kSmM5IV1+RrARqXj2BGkFDGzRzsrYZRwHSbjyoH9eYq7DXPHMNILBjg/tfS++/V3A2yBTXPp2kt5+iquxQIpqmy2ziBSCydBolWPLTsnSMF3Q7oM/mOxJ5IGiPoUBkHFfPWvAl40LT0bSd9h0MRTQD6qKGzfr52Md/F9QRdQ+HU4tTn3VGZ8VZcztRcTu6fpE2eNvVRjWSqPYh04xgurtokZ1Uy6q17xieTQouQs7vTbdxLJQedsLC/9qt40UR58tjMxWI246QXkLyxroaXZJoDZW/Op2FDS0BYfGAAOWuhMJC+cYwxTkgtZuqc/UatFWVyJ7l86Ys2UyMfCH+Z9atodsbgNkF1RiK0UzElQ2D3XSlVVUJAQIzp1YorZplmRLIAiYcHITuSw5jyzY9vQzzZjV+JzLhw/KAcM/aLT7Hua9es49hLEYUHDAbu8xzP4pyv7jMu+y7mqfycrGiow1uN02U9ubXg9RXT9pKwOfitVkqOat/XTbqrwNnHBjIWlen7WxUG0niAafi0Ad2ly8nbT9LS9al130QcYBogCLkVQEJqFjoO6DvEveMCunEDa61qZJEa279Gs95ScHPFAHhRiaoRM7TNUktftmxDbK2zRVio5LwJStznUAHvJZyYaLYTqLx6ko+LfIeTN5JRQXB6CLtrymYbCA4e54YK32Ce0HkiUBxPCkjqwQSR7UJ42xTu3QyK58GOMsNMQ8p+DWTxxkhtbcipzAbJAQ2CBqI3nb6/BjpFQFpOSR2oM9yZSKzeDRBuvpKVF6sBSgYYdy06G0EeIbkHh6/QqMy1tI7Yxed9gDT/FIszcVENBT41oYVFGkhQbPc8Q6RGQ2S9Wppbx0UJsouIBwCnWZqMcoRCHQBHn7XTM09voP0dtiGgXCIjIPhbBTgN9h2ZAeZrSBV/SEWVGoYhJGUeJGk6Xed8H0J2wD8YrrDF3NWb/JQutM8Bh6GDKv0cxiS7x0n0BulVMZhx5Cg7p5078NGL00eaRIdhpF4O3IDjumHyamKbh9VpQWYHIoK1jcU9IR1QrZEFuZjPiUtuf3XehClqAZZsagaEC6BVCfCqji9CvgasMD97eTM0N55gnuHE3n7l/AQ5XFEs7+ViFdt9wuFIlYQfFD8KExS9g8FlD/C8Ey+m1doV753NH8Ii0sHJf1is1ddbFiVuWu7y0nUJk17UGrx84ZykDscpgVld+vQYgk/DzEKm9BwW5nwIKZYhDAS8j1ske1qKvQuuMub2YmwCz+3VPJkssqJiymVbqh5ijUUOKDZwThJfk+Qmj/F9K2DJ+3TAS8bCtGjVh+ygZyVMuP7ssALXj/mh2gYnH8lG1ExP1mVluy1t57s2V47sFUMKCjNksLTUyNOOSXYGXsJC00SKBHDL5/SbekEFxBlSa92kiMMvdpCfTsO3TPW06E7DL1O3GtK+P2wrZJTOZm6tsDFecREzcCAjJtgy/kzEx9wdGdoFuPTy4avTZZlOsvpJWk15xUuHSqlj9eTaioKbcodu3Yoed5CcWfbDe8K++j4MCtdZsQOEOPW0r554Eh7ln3h79r+HzRBh+Ozlpxe6sxtjjKofX/Ku+nrSpOlqiO6gewGwvfy0KcwiVB2L41/amKcdeTFjSBjkQJ6WJtdcTNuhprbpZTpz+IUPvRJWZHwnD81Av6rJx07ZV82n8r7OYFJf3ZxPD6rrg4fLpBVqs9TVfdbsoYlx9sj2uNJ2xq9gz3B760nohSrO4EpglzaMp+UHRhvmTnN1vUrvMMhuJiQUzXBtxhvUmVZScU4mgbBIzzezAAH/Kdk4SOnxuNppHqos1oVP1E/k7b1a6cbcHoxHz9e/ucxqF3q18yLBIkVf2/lhgn2+B4KzjNJ/EOHNAw18c21StPdH015lLBbTfA3zt5zWMgGOtdpf6ezLFmTVniLzKRYDturKJbMsuyT7rbrgTs1vCag6r5hd6IyNVMOuj8J0dJHEp7s+Nc6+mxl7iWFaPZVp+p39clE8o9cTprJWZnE+icIUA+2H0JEkWz6ydhy0sPhyAFbjzLmuYL99f7ZnjkDuyGGpKqabntDltkrZTPdtofqgpVZlN8Pu6nrHl+UG5Veco0cumQZY9pJOs/yenvFOwF45v/Abo6phLYb7hGs25M+PWbfqoLjJericfbKD7SoYsZj+DcfeCV58DdZtWd8oJRXIVae4bqlxIFRPcajmQzt8bUhM+fvjj3pjm8SAYZAK62zHV/IRXJ+sOCzhHcBQeiDt8qkz4KxItLN3nLfX8VIr/KkbCgbziRfOxvdb9fQkz2zu4av1xOpqy75nmDlp96VD0nvTY3df3ppnctKo9m9ytt8CuOqcEF6HwC1bqKoHv3TKcyj5QRy/H14A3p8XavOHttUxF2hsC3/0NJhCJ/Yg88y4cDtyoJ9Uxb+7Dont7NAYbeqeYyRf03mcTyoMskpCTwn0hckjpbcft6fZNBGdKt4QA7ERggJ0CyK8fLkqlk68BCeCHz+wOJrWh1riUs60hfEMVgRyyoJ0WzLHU7o/xpV2Q3N9hPPrGev+OsyH830ESkea8nv2QSy673f07sDO7N2gVFlBk+1XB1hKmLTuyo0qjls09RGmnfGCq9hPeQyFXBauuVCMpL2eElW9e5/My2avJpVyRolfYxsedWp0GT7lyW64VOfAOE6Vai4v2FF4eNybGd7ewwhezTKADMcz/IO+gJnPv/6l5jvBae3t079eP377MYxrvvz52jPux21Yf/xO/ZWmHy1N/1R//pTGa16O8/WnNs9bl/98g/q/0jitfklx1/34vYi7Jf/tR5IX4/y0/u0/Hy/Fms9/ikm+Hnk+/FT++O3HONelOa31OCw/7Ys5//74Hf7tR7Yuazz/HBaBYPovEPEXBHJg5HcIej5/hSAo+vk+dni87vEzJPzT1f8HN7/9ONrlz3fEf1/2sHXdbz8ese7+oax3nf1DTq4lX6dx+Zfej8Na/R9qFj8h+xsC/Vz+Nfxb06+GK4/nX+o/bJ74tMP43/X/1mH4v1qqcfsZXxj55bGvh4dzP/qfIy55Og7ZP9U8Xn49jZ+2fzyBW6rxYB6UH9I8++fTW8Z5NefsZ7+/wH/88cd//m8=</t>
+  </si>
+  <si>
+    <t>data:image/png;width=57;height=57;base64,iVBORw0KGgoAAAANSUhEUgAAADkAAAA5CAYAAACMGIOFAAAEGWlDQ1BrQ0dDb2xvclNwYWNlR2VuZXJpY1JHQgAAOI2NVV1oHFUUPrtzZyMkzlNsNIV0qD8NJQ2TVjShtLp/3d02bpZJNtoi6GT27s6Yyc44M7v9oU9FUHwx6psUxL+3gCAo9Q/bPrQvlQol2tQgKD60+INQ6Ium65k7M5lpurHeZe58853vnnvuuWfvBei5qliWkRQBFpquLRcy4nOHj4g9K5CEh6AXBqFXUR0rXalMAjZPC3e1W99Dwntf2dXd/p+tt0YdFSBxH2Kz5qgLiI8B8KdVy3YBevqRHz/qWh72Yui3MUDEL3q44WPXw3M+fo1pZuQs4tOIBVVTaoiXEI/MxfhGDPsxsNZfoE1q66ro5aJim3XdoLFw72H+n23BaIXzbcOnz5mfPoTvYVz7KzUl5+FRxEuqkp9G/Ajia219thzg25abkRE/BpDc3pqvphHvRFys2weqvp+krbWKIX7nhDbzLOItiM8358pTwdirqpPFnMF2xLc1WvLyOwTAibpbmvHHcvttU57y5+XqNZrLe3lE/Pq8eUj2fXKfOe3pfOjzhJYtB/yll5SDFcSDiH+hRkH25+L+sdxKEAMZahrlSX8ukqMOWy/jXW2m6M9LDBc31B9LFuv6gVKg/0Szi3KAr1kGq1GMjU/aLbnq6/lRxc4XfJ98hTargX++DbMJBSiYMIe9Ck1YAxFkKEAG3xbYaKmDDgYyFK0UGYpfoWYXG+fAPPI6tJnNwb7ClP7IyF+D+bjOtCpkhz6CFrIa/I6sFtNl8auFXGMTP34sNwI/JhkgEtmDz14ySfaRcTIBInmKPE32kxyyE2Tv+thKbEVePDfW/byMM1Kmm0XdObS7oGD/MypMXFPXrCwOtoYjyyn7BV29/MZfsVzpLDdRtuIZnbpXzvlf+ev8MvYr/Gqk4H/kV/G3csdazLuyTMPsbFhzd1UabQbjFvDRmcWJxR3zcfHkVw9GfpbJmeev9F08WW8uDkaslwX6avlWGU6NRKz0g/SHtCy9J30o/ca9zX3Kfc19zn3BXQKRO8ud477hLnAfc1/G9mrzGlrfexZ5GLdn6ZZrrEohI2wVHhZywjbhUWEy8icMCGNCUdiBlq3r+xafL549HQ5jH+an+1y+LlYBifuxAvRN/lVVVOlwlCkdVm9NOL5BE4wkQ2SMlDZU97hX86EilU/lUmkQUztTE6mx1EEPh7OmdqBtAvv8HdWpbrJS6tJj3n0CWdM6busNzRV3S9KTYhqvNiqWmuroiKgYhshMjmhTh9ptWhsF7970j/SbMrsPE1suR5z7DMC+P/Hs+y7ijrQAlhyAgccjbhjPygfeBTjzhNqy28EdkUh8C+DU9+z2v/oyeH791OncxHOs5y2AtTc7nb/f73TWPkD/qwBnjX8BoJ98VQNcC+8AAAAJcEhZcwAACxMAAAsTAQCanBgAAAFZaVRYdFhNTDpjb20uYWRvYmUueG1wAAAAAAA8eDp4bXBtZXRhIHhtbG5zOng9ImFkb2JlOm5zOm1ldGEvIiB4OnhtcHRrPSJYTVAgQ29yZSA1LjQuMCI+CiAgIDxyZGY6UkRGIHhtbG5zOnJkZj0iaHR0cDovL3d3dy53My5vcmcvMTk5OS8wMi8yMi1yZGYtc3ludGF4LW5zIyI+CiAgICAgIDxyZGY6RGVzY3JpcHRpb24gcmRmOmFib3V0PSIiCiAgICAgICAgICAgIHhtbG5zOnRpZmY9Imh0dHA6Ly9ucy5hZG9iZS5jb20vdGlmZi8xLjAvIj4KICAgICAgICAgPHRpZmY6T3JpZW50YXRpb24+MTwvdGlmZjpPcmllbnRhdGlvbj4KICAgICAgPC9yZGY6RGVzY3JpcHRpb24+CiAgIDwvcmRmOlJERj4KPC94OnhtcG1ldGE+CkzCJ1kAAA+mSURBVGgFjVlbj55VFV7ffN/MdE4tpbSllIYqUAU0ChcGMAb1QiEkJpCg/8Er770xXpl4p3dGr/wBxkMMQSVBhZCAQgUp55RTm8600Jl2Dp2Zbz6f51lr7b3fb6bgLvO+e631rGcd9n73+87Qu+ePPx9ZZ4ys14MCWt5sAv9xEjreJfLSjB4dOEJffKhK7Mi5i5zwsPOWtomSAJTUxyWpiMsfQkeUMUl/wvsE42dAIUcmSlsmKycpEuXkVeIsOpJ1Br7wUN8b2QQa1g6KnpxrM0Hl0cQseuoYCvf8ocxcM3dnahYGiqZIzzC5RSzndGuIq8rJi5NjuIpia/WND6cy4cJ7zl3fXY1ipzEKbHfJ+AoKj4s4w2dQOtEY1KXsutfuyRTP8Oat0ZXuJlf6YhXVNOIx6EKZZrnrwvlunIMB3KtA+Y/5gKvEigADkowvNXxrBrI3jjL6JXKTkN1tddqitDZKTjOJMlcBY8k2OFEALL8OV9eHOSS3OhihB7n/05eg3WQM0w6QUwynXT7sIEYW7pLDM4mufzfZ1kZfyumXXFyFCF/sBRMrmHY9kynsSjYCFDZF2E1eA9dZD1u09VOMDERYzPfaoiVZwoCTzDtkz3+sKYmJ5hZ66nGiDwpBkGTwBLYBU8e7cIza+kUQFtj6EdbhlYKq6+BoZ49wHz+RWx/CiGljKZQMlV/PpLaVrLz4KLpU4J5bm6oSIAXqWFwj57RNIudtssIxWU5ijCePBXH+APHWwbDByRF3QXGZKMVQEyuRB2vEk6EUGB1WAALSj/qUecdoZc6vW+B1sMIzJ8WMBgZ2V4EtB33k5DHre5IGZKIClR2BHJWcErdPJlsKJEZVEOFDFMHTnTdYJg944Yt5pwA5Rw6YJ17qiEWl5FDm45K82q7E0t4C3b+SC1NACXZUJ6kwURd9C2LeokC6RYHO4E6ixyWTc//woUBYY3dN0NMZpFwk+Ut2RF1Jyo1hfAXpuGtr4xmUrvHjlNgsUAFF3RSYoYBL1/SDSaNTIDUAMJb4omDq6Of37ILLVHPQXl4hmYyn1zo7UnYx0tVHBmjl5KEtE8rtsxeOOuKEl5ANil0UTqXAkL0wOrsiOdLMe+YwKKvTWOUXziLDPEVfIl+VomsIkyaL5VeP5gSj2bwVOeaFB5OygiQKQ6fAZsFkJydiaBSiJg4M3e2KEMIFWN3BvOiUgWNKEZELZZkppz/5Yi4jM2lk2igmxv1xTQxsnQLDX2b51gY2Lh1OcneKTOfgcnAKzACZjp++9Mkk2zmxqU+Kjgww5dSVBhGMkVxpd63rvQlNswmOIc6c8w5bFOkOcmYjGZyvigDlKihgSxj2kmDYyilKmXyMpQsdGpkCnTHa5zbx8nGzYwR0BTFO7PIusYlXDh6vyJNRgWJpCPLZoiob0WAyoVJg4nBPW+uXOm9QNJk+GLSlvTaBBplx811SMGFKWfcGiyKjlUked6fjtRJmTUniCdaEMnj1xaw4uZa+mUwW2B5+rV2pEU9X3euOS44wOScIi15zz90/0MkBkjYYnRlEugjURyTimNwOi8c9SccLpM0Tq/fE0sRvUf2+CeCEmBxHnYbsonA5zAktDYC/YhGlA8OBbT6+XVsgPTIAAnLax8+10Y6dH16zZdxv6Q/scH8KDeihWHJ7xxQNDqQoBZUMIpmUwd0HaGNn2y7tXFPTbuxP2n7wqgHkwE9WwKQ57+hSzngyEhMrTn8M/NIMZQNWVZJZHv/i1bM1JHJ8csYePnjSFgb77KONZXtp7YJtoeApPMD8O4tGFMhM3NuT0muAAOkr7zp4b5vabw/PHbXpiYG9t3HJzmwsaWXZwBHPAf2rSecfvjo5e3RdS4GqweMPyu9rTFTxnZAkI7R0ute3l4br9u0DJ+xHX3zEDs/eYC8svmWvnfm9Xd3ZQucHtjEa1jBBziRJaRNZrkNyy7M5bw3X7LGFe+yHdz5is2jek+detH+f/bPNTPRV9BC8SktEvhjc2syNyfqWdz01KjCwlDUglw/0bL061AApbwHN+yQK4higcG7kITYZn00GngRgS5tXEFlI449JEo6EZ6wRiiQnmzHZc94+dfBhW3awS/hPu4DAGNRR0qMLvUxQjBcoTLg5OwnGgLIHaB/uDLyNwBybWMHFnQ17A8+SDXt2cWfTbsJ2u2kwLdwmcJehI3o/+jgPG6nYhJXRlg2xBEeg4LNO3iHwk7hnAYxz2bZtEyu5AN8ZNEH+0F+BPxs8B/0smwPDpxVIv/onSTg2DYMJQwS+GgR7n82OYsv++ORDSM6wrfp2eWvVnr38rp1eXcIz2rN7Zg/bdw9/yaZxkLx65QN76uM3sKW37d75m+1bh+7Sc3165T37xeKLeiR6EZgbfA1FfG3+VvvOoS9rx5xeOWvPrLyJXTO0e2dvtW8cvNsmUeB/r5y1v668bvuwq7jabBaH3gY+ZfqqCa2oz6BsQDMmf7Tn88tHDnQzu23+iJ1cOKp5Xh66cs5++faT9ptP3rLvzd1t3z/5dQU5sDhjf/r4NZ2gd8wetcdPPIhG4JnDKXph8QVEr4cKY3Klb585Yo8ff1DULOiplTM4/Dbt1MxReyz0C/D/w/IrNuPHVIeHjszUe8dfByG5IE4v0Kedeah0G4JyZXvdlq6t2BpeKxynFm6xR2/+ql0D3xa22TZOTo7hDjetf/NyW24NXb8NzAwBzKYZXAluW3Jw8PDh4CrrDAAHB/X5WqRMmqyjzj2uXiEEcciIe3tMU8//ccJvS562HB9cXbLfvv8Pe2f9kn3z0Cl74sQDNo/T8dD0frujP61nLLcPSbml50Z96+MoL3rMxCvGevGtx/UNJDKfxMrvTKAozJUDOLUDImEWl7xS8QKNbpiV07Uaa1fyiO7rKHNiul9cX7bfLZ2xlzcuovgJe/TYfSqSCfC96gxE4rDaGdr57VX7ENttNVbdLT0dPDW91NLb/1GziR2xiFfN2mjTNoab7LaAieBqZkRZdIlHUEgWGSAi2Q05COiCfjvANDuFKTo6YScGc7Y+vWUHcKK6F2/4AmKhDfrI9AG7f/64LW2v2e14Jqewqj6w5bEt6dNy55w8TOaWfQftvtljtoomHZ85XA4/vrrarGretUAi2BPfrpgQxBGNKnPKacstxDtfEMt4Lvg6SD1PKhJe3LqCz7UtFDSwu/AR8dMvPKFn7NDUgnQkX9lcsxES1xaMMpkUP6aX4L+FFeRX0FcOfM5+Mv0DPaf0z5N4kRhoB2i4vqNjtzHXzDfn+VZg3KZAnkjsiHqBgkY4tidsFs8bxz68GvrYJ/zsYpAZrSb0gym7Eafev1bP2d8XXxV2BvLJuSN25/wxu3FqXrp3rp6355bf0Hm/b2ISfFPS85VzA35eXv3Anr90Jvyn7fP47Ltj7pgdnHT/N69+ZP9cPqN3pZ+cgpbiXKr1lO2aKzj+YuWJdgyBL+Jd+NziGTu67wY7vXwWJ93IDk9M2SfQPw/9ERw6r6y8j8/ACXR4ZL/68Bl7f/2i3Y2tyk9DtosJXdy6an+59B97Ze283T+53z689rE9u/SqnunX8U6d601qhX59/ml7d+OCncJWncGK8nnnY7IE/799ctrevnYBn5Q45JBfrliuIIus9WD+wNM/K9/X5bdzopGVnHChA4Nwe3BrclUnEZCDMo973nno8CT1j/otu4ItO4uV4icf7dw2G/iS4am6Hw0iL7f7sOevGbzWtTP6OGLX4buKd+Ys+Lhb+Chwq27Cn4fOQvgzA9Dox/ed56vkqIex/D5JJRVCU4hBlQYnwcJbEnJWZYb33zXnUBw/xzbVa9KiUGzvBejYCG9XxEQB4kMtzIGHDpszgyMMH4HC8tXCWFxpHl558FAtU9xVA6EcYdR2pcxnsAxMCW4d2A0+PwzG7m9HaVy1hdAzVa4p/xuCj/+jZRZfpeISHhGgF4ZT/Gj1e76qO7DpVAWWRXB7zxT/yI4YcfkKhlY3xhFp5M85Vf5MwrGMANDIwbu6iAm7ighSUk9SevLrhTIVfnc/Fr0NB9HjIpv4HSd/yFs996c2X1kEe9P8C0f0DNHkRz7G51CBnISd/nqgcMcflxNWgcUhncmmwSRYAJlSAzLfS4EJU2OXT0Na6BgaQp6QOvTI0vF1gVenqM9ggcpIKQbkLJCasl3HcTRm7tkGFUcDwMRzJMal0IdRSTdYYmhq6vW5MBGl+FacVLqMbVH5ZeQau+JdV4r06NWByWcy3vBuANoKWayIvKWMbjcctNGUnMVX+uCWcjfOfYKTRDECLoecl7yAoY6N7n7xRLIiDa9SYLKkcyOTrYq1wMhFt2oPbSj23qKOEaTgmhjQhVqTnO8qMOrxV0iiwE1gbkFiOgMKvrLSnja5BwdvahLvAWh1VNUmRoS9fKGr/t64yLnoxRWXNkYeTjylmK9v1/BuO0FfjnyuNP/MAkHK5DI7+YfcxPAs+XEQgBaXc9owykprnhdaMFQZmp7zVCkHz4Um/aoVWMqeIBLy3ykrsH1G89yuxQAXvrzn6DRNgWERwPE+j1zDkbfkzQLLCgaGfprynrqgptgb+wthvCcrWIR0RiVJIEc4a+SKUIgAssvHIWkKs5TiEub/KTCaBs9dBZKNSiwfOTMG75pzixLDSzjr4CGYch1jBcqrWgsJVNmMbAhRtAsTQbJAfn9WY0wbbueoBSaXk1GCT+BLDOrih1WkPQukzQ+eTIYgKJOUcx0yUkJgjpzzR3MnLcRhSjnvUMMlEggu0eyae3weHON/gmHM9BEvcxav61VgrC5z48hntfnzx1iBYExQOikKnJUbtwUDSxBnSUJ46sOWz1aVx/yEi/ikgiz38Hf2yic5MRKaXFhg2DKenknqS0GcEzQWoMjSO6n440K1MBlEhIwXyQdfwRFPX10cw2ksQid+xh73lSv5EStoyKh56+MfA4W6C5BazPKVMbedSD2KEipBMKkBPr1Ax9UCM0HPuMaUvsPLVODHoKmP7rSPF/tMDFYywFDsuYKKwEslJncmEnGoqQEF+PQC3SEwLuiaDXLBk1QMcXpYTaV0OxdDYuwe+mpKJWzll2aSdwLALplANoIypxwxkY4XdhH3xH/WFpV7HPWakxOjjZ9cJVna+aNY/F0zFG1sqDhaHx5g/p6EoQ1GoORQ8sagIdLsAVNBG+e8R0MSHOoxHzQNyclnjyQFxqVNtvCwOTIAQF8M2jgqxmXaGUPPZPl/lOmUXgKBFLISCl+RJYbkUtDoK55R98QFpvAVXyfvxIoYFeIFyrfJNbkyXphKzmW7egjvhpK8ToHEtaS1oM8oUAEcE7lnyKTw4DDKHiDefBoF0muPAnPVs8BCjsn/ADEAET/G+OerAAAAAElFTkSuQmCC</t>
+  </si>
+  <si>
+    <t>DTSTART:20190620T120000Z
+RRULE:FREQ=MONTHLY;INTERVAL=1</t>
+  </si>
+  <si>
+    <t>a020dd8555b14acc1c1101b2f7d2b8c62</t>
+  </si>
+  <si>
+    <t>rVbZruO4Ef0XI2++PZIsW8sd5MGStViLtS9WoxFoofZ9tTTof4/cnZ5kktcIBHjOEVkki2BVff3jMB4+4Y9Dd/j84/C3AYzvvvYrcPg8qP4apiAsDh+HpG+mdpd2uIBgB0nTJCX4LWyqXcrCpt61yB/9z6zyEwC1dfL7kkVj+nf09HsKsiQd3yjwB4CdPzKbUvQFFrmkue7fw7BSxkp2RL/pNaGvz72jNlD38A7Ye1Eymq2frwFKxc5mpXp9JQC0QTwejgEMyrVtGkfqV+eWuJQtMyx8XwqdGbccqgxvC/VaKHtGdiGPr1w+DMJWzO4148l1qBLLOQpLuDqP9jM6BXdHNSlqODHN0ypVysgwa8Sjk41tqDrVmQvx9wvGcFhsXug6fA2Pmp4njKCUhoELRTcbgtIbhmRAw6A271hKkpuypLL4eGZVke5ukUltqnRdV8no/Y6ftDy9jiu5hq/jjXs5yPMmPTnfXCQ5I4qHvdnKzbornuRKKIrlnVX510qHtSIebVJTOpp15UCo8Bk7dSGWGkrt0JkJjW2fQ6rxhHA54tKBiWoPznyGMDHkxcUKgiX9k7VvyqbZdiSs0sysLFM9iiwij31XK3dRgI9rnG/bxr+2FKLq52DcXRz3UylGi01TWqKRX4NVRKNFaqp4HXpZUvhp9nvfLPTUXI65uW3iRWAhC4MMnQibWS2wJV5OS4P3nU7rqTTHRVgWUeVsJ6uqRM6doOxhu1bL4K0dh9wFpzKomGwDbCh/RANSN217jtRw8DTW3LjlRdzFu8g5rGqeZDUAN2eQYC3tp6kFnLKF2nyC7ac7+NsRLAP8sB6PbWM9UVU1JrN5FWW9Ur5M9vDIB0se3GhCNKQRXzCW6PmGeqbk5a4+y7kbGk6PUf5zkqutP6I5qqoqgxI0NrborJ1ZTOwar0Su+syi9qOKytbm1iRAoYIMeyjWSWMQPCIfHbguitcqe+dAvzSGKcdymElGN12OOdacLCW4xJMg1Vl0XNerDQbH3ni84wzD8269UYpX0I0NE7AU6sIKc4MW8dqp7ZbKBZ5P3EvYmMcG0k73qqqfZvrJKvd6azbEZMpkMcfcMh18AtCFVxgmMc9A5jOtOYbrxNx1sEbjcCbdfp3zrC/PHtNS9p0prVBgGp/dBNNMzrhtSyJE8hfDB/61ezCb10qlEioyIhuhz4vGNQkpHytMoZ2Xe8h1t4SMBboPBMHjSkHCF8JAeAGGH/mZ2F66jQFGnGGRpJhUciONiALmYb4WuUDVISCXLr68WsZA9Fimu9loM1Uz7nYElcY9VYjn0YSCUE4aBlLNq4G+DE70wHNxawQlZqZ2R160EMEyBEMk6OCSenUutLhC1ZlxIuwpS55dsizZA0LD4H50H3KLZHSLnvElos/7K0b3p2NVwGZaOr57vbz7L5rM53zfPAMZ162MoBPJcicjyxV2OG5HnyakYn40JoHV5aDeeFwqbydo6+FHq4nV+Z6xcGzUSs/QTahGUTe33UppOmb6W4+N3SrolywohwnYgSqVs4BwdXiKzrhwiuEbh+eeMz5wJZl0Sz8DlRCOG3SkKdJb8FRh+CBuG25uRnmcqbgiY95/LgLreA4r8KNJ7ffTucatdEk1ZWa+7qIaHKFFcTSrlbg9eC85cCJVWjq9NbxIi6jhbrVGW3VB7mzxS3qNoR1fpsrOybv1qMX2IW8vmIpUIqY7jmUrpAOdEzb02ktecOPMFbxe5BKxAsN7pF/2UzDmrKWwzyem8APw0Fnsg+6Gk0PkIei5t5znqRH7XucMTe44cSLJwutHOzIuttnA6jDFZ3c8R4pM6wVQwlrPKd6WXoKCCsdogUlcGWbnWWbINDWXzrs987u7xyX9rGvJpRgjNXZt1ea8ht73U3eQIRnmxbly+35x9loVZF3iOYu6K5OtlbUMmIjjyM1OYb0oqI7xvdzT6ni+phcLMYLuyT0vZyHMhhKxc/Sqay0qS9dyCNUQ0WigUaVA+InZUFDLtGzEgEIv8ltPUIS+R7GguMC2/yPzMSVrFsakVTS9p9W6GcHwM+n6VTPVe26+wHuu9sPwJ3v/Cf0RJE2//mR9P5XgncL/Efp77n4jvywPn7FfDuDjEIC46Xf167fdSjyC/icMwLgAUL/J949D02eJ0o5ZUw/v+XEP9uIA+TjskWH0+/eyJxghv8D4FxgxkdMnDO/tNxiGvXcpUO9WZ39fEnmb+j+Y2SuOYvhZpPzr2PVUlh+HHWblLzJuWfQLB+texrTN8G9eNfWY/heN/N1lX5H36df6P5Qfwgr8/gf9NWV3T1E3f+V/GVD/j5I209u9yOmHxSqrp/Htefjbzx3uJVP0JwX+8OMy3nO/734b0ma5RrNfhyD68/KGph+VPnqP+4J8//792z8B</t>
+  </si>
+  <si>
+    <t>google.com</t>
+  </si>
+  <si>
+    <t>DTSTART:20190701T120000Z
+RRULE:FREQ=MONTHLY;INTERVAL=1</t>
   </si>
 </sst>
 </file>
@@ -1613,15 +1617,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1656,33 +1658,36 @@
         <v>115</v>
       </c>
       <c r="L1" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="M1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
         <v>123</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>124</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>125</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" t="s">
-        <v>127</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -1696,34 +1701,37 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
-        <v>128</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>-1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
@@ -1737,102 +1745,102 @@
       <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
       <c r="I4">
+        <v>8.99</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5">
         <v>500</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>12.99</v>
-      </c>
       <c r="J5" t="s">
         <v>20</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" t="s">
-        <v>140</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>12</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/packages/storybook/stories/data/full.xlsx
+++ b/packages/storybook/stories/data/full.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20100"/>
   </bookViews>
   <sheets>
     <sheet name="accounts" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
   <si>
     <t>id</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>0050142802</t>
-  </si>
-  <si>
-    <t>275979076</t>
   </si>
   <si>
     <t/>
@@ -853,9 +850,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J2:J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -923,11 +926,8 @@
       <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2">
         <v>7</v>
@@ -935,37 +935,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3">
         <v>6</v>
@@ -973,37 +970,34 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -1011,37 +1005,34 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -1049,37 +1040,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6">
         <v>14</v>
@@ -1087,37 +1075,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>41</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7">
         <v>13</v>
@@ -1125,37 +1110,34 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -1163,37 +1145,34 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>51</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>54</v>
       </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -1201,37 +1180,34 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>56</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
         <v>59</v>
       </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
       <c r="I10" t="b">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -1239,37 +1215,34 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>61</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L11">
         <v>11</v>
@@ -1277,37 +1250,34 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>65</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>66</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12">
         <v>9</v>
@@ -1315,37 +1285,34 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>69</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
         <v>71</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>72</v>
       </c>
-      <c r="G13" t="s">
-        <v>73</v>
-      </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
       </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L13">
         <v>12</v>
@@ -1353,37 +1320,34 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>74</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
       <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
         <v>77</v>
       </c>
-      <c r="G14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" t="s">
-        <v>78</v>
-      </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
-      <c r="J14" t="s">
-        <v>19</v>
-      </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L14">
         <v>3</v>
@@ -1391,37 +1355,34 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>79</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
         <v>81</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
         <v>82</v>
       </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s">
-        <v>83</v>
-      </c>
       <c r="I15" t="b">
         <v>1</v>
       </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1429,37 +1390,34 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>84</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
         <v>86</v>
       </c>
-      <c r="G16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" t="s">
-        <v>87</v>
-      </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -1467,37 +1425,37 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>88</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
       <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>91</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>92</v>
       </c>
-      <c r="H17" t="s">
-        <v>93</v>
-      </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17">
         <v>15</v>
@@ -1506,7 +1464,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:L17" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:L1 A17:L17 A2:I16 K2:L16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1533,34 +1491,34 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>96</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>97</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>98</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>99</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>100</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>101</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>102</v>
-      </c>
-      <c r="N1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1571,40 +1529,40 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>105</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>106</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>107</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>108</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>109</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>110</v>
       </c>
-      <c r="L2" t="s">
-        <v>111</v>
-      </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1619,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1637,69 +1595,69 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>113</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>114</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>115</v>
-      </c>
-      <c r="L1" t="s">
-        <v>116</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>133</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>134</v>
-      </c>
       <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>123</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>124</v>
       </c>
-      <c r="G2" t="s">
-        <v>125</v>
-      </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>9.99</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -1708,42 +1666,42 @@
         <v>-1</v>
       </c>
       <c r="N2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>136</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" t="s">
         <v>137</v>
       </c>
-      <c r="D3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" t="s">
-        <v>138</v>
-      </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3">
         <v>120</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -1752,42 +1710,42 @@
         <v>-1</v>
       </c>
       <c r="N3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>140</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" t="s">
         <v>141</v>
       </c>
-      <c r="D4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" t="s">
-        <v>142</v>
-      </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>8.99</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -1796,42 +1754,42 @@
         <v>-1</v>
       </c>
       <c r="N4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>144</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>145</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>128</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" t="s">
-        <v>129</v>
-      </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5">
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -1840,7 +1798,7 @@
         <v>-1</v>
       </c>
       <c r="N5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1927,7 +1885,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1957,16 +1915,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
         <v>119</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s">
-        <v>120</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1975,13 +1933,13 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
         <v>121</v>
-      </c>
-      <c r="K1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
